--- a/manager_signin/Sonoma Raceway.xlsx
+++ b/manager_signin/Sonoma Raceway.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GTWCA" sheetId="1" state="visible" r:id="rId1"/>
@@ -344,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -625,21 +625,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -661,14 +646,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -678,7 +663,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -754,9 +739,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -923,77 +905,35 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1001,21 +941,12 @@
     <xf numFmtId="49" fontId="33" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1024,9 +955,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1169,63 +1097,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1240,6 +1120,102 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1249,6 +1225,191 @@
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
   <dxfs count="48">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color rgb="FF000000"/>
+        <extend val="0"/>
+        <sz val="20"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color auto="1"/>
+        <extend val="0"/>
+        <sz val="20"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="26"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color auto="1"/>
+        <extend val="0"/>
+        <sz val="26"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="24"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color auto="1"/>
+        <extend val="0"/>
+        <sz val="24"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1602,74 +1763,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color rgb="FF000000"/>
-        <extend val="0"/>
-        <sz val="20"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color auto="1"/>
-        <extend val="0"/>
-        <sz val="20"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color rgb="FF000000"/>
@@ -2006,54 +2099,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <sz val="24"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color auto="1"/>
-        <extend val="0"/>
-        <sz val="24"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color rgb="FF000000"/>
@@ -2155,74 +2200,6 @@
         <color auto="1"/>
         <extend val="0"/>
         <sz val="12"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="26"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color auto="1"/>
-        <extend val="0"/>
-        <sz val="26"/>
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
@@ -2647,86 +2624,86 @@
     <sortCondition ref="A7:A19"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="3" name="Team " dataDxfId="41" dataCellStyle="Neutral"/>
-    <tableColumn id="1" name="Car #" dataDxfId="40"/>
-    <tableColumn id="4" name="Print Name" dataDxfId="39" dataCellStyle="Neutral"/>
-    <tableColumn id="5" name="Signature" dataDxfId="38" dataCellStyle="Neutral"/>
+    <tableColumn id="3" name="Team " dataDxfId="3" dataCellStyle="Neutral"/>
+    <tableColumn id="1" name="Car #" dataDxfId="2"/>
+    <tableColumn id="4" name="Print Name" dataDxfId="41" dataCellStyle="Neutral"/>
+    <tableColumn id="5" name="Signature" dataDxfId="40" dataCellStyle="Neutral"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2267" displayName="Table2267" ref="A7:D29" headerRowCount="1" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2267" displayName="Table2267" ref="A7:D38" headerRowCount="1" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <sortState ref="A8:D29">
     <sortCondition ref="A7:A29"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="3" name="Team " dataDxfId="33" dataCellStyle="Neutral"/>
-    <tableColumn id="1" name="Car #" dataDxfId="32"/>
-    <tableColumn id="4" name="Print Name" dataDxfId="31" dataCellStyle="Neutral"/>
-    <tableColumn id="5" name="Signature" dataDxfId="30" dataCellStyle="Neutral"/>
+    <tableColumn id="3" name="Team " dataDxfId="5" dataCellStyle="Neutral"/>
+    <tableColumn id="1" name="Car #" dataDxfId="4"/>
+    <tableColumn id="4" name="Print Name" dataDxfId="35" dataCellStyle="Neutral"/>
+    <tableColumn id="5" name="Signature" dataDxfId="34" dataCellStyle="Neutral"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table226" displayName="Table226" ref="A7:D28" headerRowCount="1" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table226" displayName="Table226" ref="A7:D28" headerRowCount="1" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <sortState ref="A8:D28">
     <sortCondition ref="A7:A28"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="3" name="Team " dataDxfId="24" dataCellStyle="Neutral"/>
-    <tableColumn id="1" name="Car #" dataDxfId="23"/>
-    <tableColumn id="4" name="Team Manager - Print Name" dataDxfId="22" dataCellStyle="Neutral"/>
-    <tableColumn id="7" name="Signature" dataDxfId="21"/>
+    <tableColumn id="3" name="Team " dataDxfId="28" dataCellStyle="Neutral"/>
+    <tableColumn id="1" name="Car #" dataDxfId="27"/>
+    <tableColumn id="4" name="Team Manager - Print Name" dataDxfId="26" dataCellStyle="Neutral"/>
+    <tableColumn id="7" name="Signature" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table2268" displayName="Table2268" ref="A7:D20" headerRowCount="1" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table2268" displayName="Table2268" ref="A7:D26" headerRowCount="1" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <sortState ref="A8:D20">
     <sortCondition ref="A8:A20"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="3" name="Team " dataDxfId="15" dataCellStyle="Neutral"/>
-    <tableColumn id="1" name="Car #" dataDxfId="14"/>
-    <tableColumn id="4" name="Team Manager - Print Name" dataDxfId="13" dataCellStyle="Neutral"/>
-    <tableColumn id="8" name="Signature" dataDxfId="12" dataCellStyle="Neutral"/>
+    <tableColumn id="3" name="Team " dataDxfId="1" dataCellStyle="Neutral"/>
+    <tableColumn id="1" name="Car #" dataDxfId="0"/>
+    <tableColumn id="4" name="Team Manager - Print Name" dataDxfId="19" dataCellStyle="Neutral"/>
+    <tableColumn id="8" name="Signature" dataDxfId="18" dataCellStyle="Neutral"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table4" displayName="Table4" ref="A5:D22" headerRowCount="1" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table4" displayName="Table4" ref="A5:D22" headerRowCount="1" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A5:D22"/>
   <sortState ref="A6:D22">
     <sortCondition ref="A5:A22"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="2" name="Team " dataDxfId="8"/>
-    <tableColumn id="5" name="Car #" dataDxfId="7"/>
-    <tableColumn id="3" name="Team Manager - Print Name" dataDxfId="6"/>
-    <tableColumn id="4" name="Signature" dataDxfId="5"/>
+    <tableColumn id="2" name="Team " dataDxfId="14"/>
+    <tableColumn id="5" name="Car #" dataDxfId="13"/>
+    <tableColumn id="3" name="Team Manager - Print Name" dataDxfId="12"/>
+    <tableColumn id="4" name="Signature" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table2" displayName="Table2" ref="A7:C72" headerRowCount="1" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table2" displayName="Table2" ref="A7:C72" headerRowCount="1" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A7:C72"/>
   <sortState ref="A8:C72">
     <sortCondition ref="A7:A72"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="2" name="Team " dataDxfId="1"/>
+    <tableColumn id="2" name="Team " dataDxfId="7"/>
     <tableColumn id="3" name="Print Name"/>
-    <tableColumn id="4" name="Signature" dataDxfId="0"/>
+    <tableColumn id="4" name="Signature" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3035,8 +3012,8 @@
   </sheetPr>
   <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15"/>
@@ -3049,63 +3026,63 @@
   </cols>
   <sheetData>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="193" t="n"/>
-      <c r="B2" s="193" t="n"/>
-      <c r="C2" s="169" t="inlineStr">
+      <c r="A2" s="158" t="n"/>
+      <c r="B2" s="158" t="n"/>
+      <c r="C2" s="150" t="inlineStr">
         <is>
           <t>GTWCA Team Manager Sign In</t>
         </is>
       </c>
-      <c r="D2" s="169" t="n"/>
+      <c r="D2" s="150" t="n"/>
     </row>
     <row r="3" ht="45" customHeight="1">
-      <c r="B3" s="193" t="n"/>
-      <c r="C3" s="169" t="n"/>
-      <c r="D3" s="169" t="n"/>
+      <c r="B3" s="158" t="n"/>
+      <c r="C3" s="150" t="n"/>
+      <c r="D3" s="150" t="n"/>
     </row>
     <row r="7" ht="32.25" customFormat="1" customHeight="1" s="19" thickBot="1">
-      <c r="A7" s="53" t="inlineStr">
+      <c r="A7" s="52" t="inlineStr">
         <is>
           <t xml:space="preserve">Team </t>
         </is>
       </c>
-      <c r="B7" s="53" t="inlineStr">
+      <c r="B7" s="52" t="inlineStr">
         <is>
           <t>Car #</t>
         </is>
       </c>
-      <c r="C7" s="53" t="inlineStr">
+      <c r="C7" s="52" t="inlineStr">
         <is>
           <t>Print Name</t>
         </is>
       </c>
-      <c r="D7" s="53" t="inlineStr">
+      <c r="D7" s="52" t="inlineStr">
         <is>
           <t>Signature</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="43" customFormat="1" customHeight="1" s="19" thickTop="1">
-      <c r="A8" s="87" t="inlineStr">
-        <is>
-          <t>Crowdstrike by Riley</t>
-        </is>
-      </c>
-      <c r="B8" s="88" t="inlineStr">
-        <is>
-          <t>04</t>
+    <row r="8" ht="46.75" customFormat="1" customHeight="1" s="19" thickTop="1">
+      <c r="A8" s="175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ACI Motorsports </t>
+        </is>
+      </c>
+      <c r="B8" s="176" t="inlineStr">
+        <is>
+          <t>16</t>
         </is>
       </c>
       <c r="C8" s="9" t="n"/>
       <c r="D8" s="9" t="n"/>
     </row>
-    <row r="9" ht="43" customFormat="1" customHeight="1" s="19">
-      <c r="A9" s="89" t="inlineStr">
+    <row r="9" ht="46.75" customFormat="1" customHeight="1" s="19">
+      <c r="A9" s="177" t="inlineStr">
         <is>
           <t>Aston Martin Racing - TRG</t>
         </is>
       </c>
-      <c r="B9" s="90" t="inlineStr">
+      <c r="B9" s="178" t="inlineStr">
         <is>
           <t>007</t>
         </is>
@@ -3113,69 +3090,69 @@
       <c r="C9" s="21" t="n"/>
       <c r="D9" s="21" t="n"/>
     </row>
-    <row r="10" ht="43" customFormat="1" customHeight="1" s="19">
-      <c r="A10" s="89" t="inlineStr">
-        <is>
-          <t>DXDT Racing</t>
-        </is>
-      </c>
-      <c r="B10" s="90" t="inlineStr">
-        <is>
-          <t>08, 91</t>
+    <row r="10" ht="46.75" customFormat="1" customHeight="1" s="19">
+      <c r="A10" s="177" t="inlineStr">
+        <is>
+          <t>BimmerWorld</t>
+        </is>
+      </c>
+      <c r="B10" s="178" t="inlineStr">
+        <is>
+          <t>94</t>
         </is>
       </c>
       <c r="C10" s="22" t="n"/>
       <c r="D10" s="22" t="n"/>
     </row>
-    <row r="11" ht="43" customFormat="1" customHeight="1" s="19">
-      <c r="A11" s="91" t="inlineStr">
-        <is>
-          <t>TR3 Racing</t>
-        </is>
-      </c>
-      <c r="B11" s="88" t="inlineStr">
-        <is>
-          <t>9</t>
+    <row r="11" ht="46.75" customFormat="1" customHeight="1" s="19">
+      <c r="A11" s="179" t="inlineStr">
+        <is>
+          <t>Conquest Racing</t>
+        </is>
+      </c>
+      <c r="B11" s="176" t="inlineStr">
+        <is>
+          <t>21</t>
         </is>
       </c>
       <c r="C11" s="21" t="n"/>
       <c r="D11" s="21" t="n"/>
     </row>
-    <row r="12" ht="43" customFormat="1" customHeight="1" s="19">
-      <c r="A12" s="89" t="inlineStr">
-        <is>
-          <t>GMG Racing</t>
-        </is>
-      </c>
-      <c r="B12" s="90" t="inlineStr">
-        <is>
-          <t>14</t>
+    <row r="12" ht="46.75" customFormat="1" customHeight="1" s="19">
+      <c r="A12" s="177" t="inlineStr">
+        <is>
+          <t>Crowdstrike by Riley</t>
+        </is>
+      </c>
+      <c r="B12" s="178" t="inlineStr">
+        <is>
+          <t>04</t>
         </is>
       </c>
       <c r="C12" s="20" t="n"/>
       <c r="D12" s="21" t="n"/>
     </row>
-    <row r="13" ht="43" customFormat="1" customHeight="1" s="19">
-      <c r="A13" s="92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ACI Motorsports </t>
-        </is>
-      </c>
-      <c r="B13" s="88" t="inlineStr">
-        <is>
-          <t>16</t>
+    <row r="13" ht="46.75" customFormat="1" customHeight="1" s="19">
+      <c r="A13" s="180" t="inlineStr">
+        <is>
+          <t>DXDT Racing</t>
+        </is>
+      </c>
+      <c r="B13" s="176" t="inlineStr">
+        <is>
+          <t>08, 91</t>
         </is>
       </c>
       <c r="C13" s="21" t="n"/>
       <c r="D13" s="21" t="n"/>
     </row>
-    <row r="14" ht="43" customFormat="1" customHeight="1" s="19">
-      <c r="A14" s="89" t="inlineStr">
+    <row r="14" ht="46.75" customFormat="1" customHeight="1" s="19">
+      <c r="A14" s="177" t="inlineStr">
         <is>
           <t>Esses Racing with mercedes-Benz of Austin</t>
         </is>
       </c>
-      <c r="B14" s="88" t="inlineStr">
+      <c r="B14" s="176" t="inlineStr">
         <is>
           <t>19</t>
         </is>
@@ -3183,121 +3160,121 @@
       <c r="C14" s="9" t="n"/>
       <c r="D14" s="9" t="n"/>
     </row>
-    <row r="15" ht="43" customFormat="1" customHeight="1" s="19">
-      <c r="A15" s="91" t="inlineStr">
-        <is>
-          <t>Conquest Racing</t>
-        </is>
-      </c>
-      <c r="B15" s="90" t="inlineStr">
-        <is>
-          <t>21</t>
+    <row r="15" ht="46.75" customFormat="1" customHeight="1" s="19">
+      <c r="A15" s="179" t="inlineStr">
+        <is>
+          <t>GMG Racing</t>
+        </is>
+      </c>
+      <c r="B15" s="178" t="inlineStr">
+        <is>
+          <t>14</t>
         </is>
       </c>
       <c r="C15" s="21" t="n"/>
       <c r="D15" s="21" t="n"/>
     </row>
-    <row r="16" ht="43" customFormat="1" customHeight="1" s="19">
-      <c r="A16" s="89" t="inlineStr">
-        <is>
-          <t>RS1</t>
-        </is>
-      </c>
-      <c r="B16" s="90" t="inlineStr">
-        <is>
-          <t>28</t>
+    <row r="16" ht="46.75" customFormat="1" customHeight="1" s="19">
+      <c r="A16" s="177" t="inlineStr">
+        <is>
+          <t>MDK Motorsports</t>
+        </is>
+      </c>
+      <c r="B16" s="178" t="inlineStr">
+        <is>
+          <t>53</t>
         </is>
       </c>
       <c r="C16" s="9" t="n"/>
       <c r="D16" s="9" t="n"/>
     </row>
-    <row r="17" ht="43" customFormat="1" customHeight="1" s="19">
-      <c r="A17" s="93" t="inlineStr">
-        <is>
-          <t>Triarsi Competizione</t>
-        </is>
-      </c>
-      <c r="B17" s="94" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="C17" s="75" t="n"/>
+    <row r="17" ht="46.75" customFormat="1" customHeight="1" s="19">
+      <c r="A17" s="181" t="inlineStr">
+        <is>
+          <t>RS1</t>
+        </is>
+      </c>
+      <c r="B17" s="182" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C17" s="74" t="n"/>
       <c r="D17" s="23" t="n"/>
     </row>
-    <row r="18" ht="43" customFormat="1" customHeight="1" s="19">
-      <c r="A18" s="95" t="inlineStr">
+    <row r="18" ht="46.75" customFormat="1" customHeight="1" s="19">
+      <c r="A18" s="183" t="inlineStr">
+        <is>
+          <t>Racers Edge Motorsports</t>
+        </is>
+      </c>
+      <c r="B18" s="178" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="C18" s="73" t="n"/>
+      <c r="D18" s="22" t="n"/>
+    </row>
+    <row r="19" ht="46.75" customFormat="1" customHeight="1" s="19">
+      <c r="A19" s="184" t="inlineStr">
         <is>
           <t>ST Racing</t>
         </is>
       </c>
-      <c r="B18" s="90" t="inlineStr">
+      <c r="B19" s="178" t="inlineStr">
         <is>
           <t>38</t>
-        </is>
-      </c>
-      <c r="C18" s="74" t="n"/>
-      <c r="D18" s="22" t="n"/>
-    </row>
-    <row r="19" ht="43" customFormat="1" customHeight="1" s="19">
-      <c r="A19" s="96" t="inlineStr">
-        <is>
-          <t>Wright Motorsports</t>
-        </is>
-      </c>
-      <c r="B19" s="90" t="inlineStr">
-        <is>
-          <t>45, 120</t>
         </is>
       </c>
       <c r="C19" s="20" t="n"/>
       <c r="D19" s="20" t="n"/>
     </row>
-    <row r="20" ht="34" customHeight="1">
-      <c r="A20" s="89" t="inlineStr">
-        <is>
-          <t>MDK Motorsports</t>
-        </is>
-      </c>
-      <c r="B20" s="170" t="inlineStr">
-        <is>
-          <t>53</t>
+    <row r="20" ht="46.75" customHeight="1">
+      <c r="A20" s="177" t="inlineStr">
+        <is>
+          <t>TR3 Racing</t>
+        </is>
+      </c>
+      <c r="B20" s="185" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
       <c r="C20" s="9" t="n"/>
       <c r="D20" s="9" t="n"/>
     </row>
-    <row r="21" ht="34" customHeight="1">
-      <c r="A21" s="89" t="inlineStr">
-        <is>
-          <t>Racers Edge Motorsports</t>
-        </is>
-      </c>
-      <c r="B21" s="170" t="inlineStr">
-        <is>
-          <t>93</t>
+    <row r="21" ht="46.75" customHeight="1">
+      <c r="A21" s="177" t="inlineStr">
+        <is>
+          <t>Triarsi Competizione</t>
+        </is>
+      </c>
+      <c r="B21" s="185" t="inlineStr">
+        <is>
+          <t>33</t>
         </is>
       </c>
       <c r="C21" s="9" t="n"/>
       <c r="D21" s="9" t="n"/>
     </row>
-    <row r="22" ht="34" customHeight="1">
-      <c r="A22" s="89" t="inlineStr">
-        <is>
-          <t>BimmerWorld</t>
-        </is>
-      </c>
-      <c r="B22" s="170" t="inlineStr">
-        <is>
-          <t>94</t>
+    <row r="22" ht="46.75" customHeight="1">
+      <c r="A22" s="177" t="inlineStr">
+        <is>
+          <t>Wright Motorsports</t>
+        </is>
+      </c>
+      <c r="B22" s="185" t="inlineStr">
+        <is>
+          <t>45, 120</t>
         </is>
       </c>
       <c r="C22" s="9" t="n"/>
       <c r="D22" s="9" t="n"/>
     </row>
-    <row r="23" ht="34" customHeight="1">
-      <c r="A23" s="171" t="n"/>
-      <c r="B23" s="172" t="n"/>
+    <row r="23" ht="46.75" customHeight="1">
+      <c r="A23" s="186" t="n"/>
+      <c r="B23" s="187" t="n"/>
       <c r="C23" s="11" t="n"/>
       <c r="D23" s="11" t="n"/>
     </row>
@@ -3323,7 +3300,7 @@
   <dimension ref="A2:D39"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="60" zoomScaleNormal="115" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15"/>
@@ -3335,14 +3312,14 @@
   </cols>
   <sheetData>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="193" t="n"/>
-      <c r="B2" s="193" t="n"/>
-      <c r="C2" s="174" t="inlineStr">
+      <c r="A2" s="158" t="n"/>
+      <c r="B2" s="158" t="n"/>
+      <c r="C2" s="152" t="inlineStr">
         <is>
           <t>Team Manager Sign In</t>
         </is>
       </c>
-      <c r="D2" s="174" t="n"/>
+      <c r="D2" s="152" t="n"/>
     </row>
     <row r="7" ht="32.25" customHeight="1" thickBot="1">
       <c r="A7" s="6" t="inlineStr">
@@ -3366,431 +3343,449 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="50.25" customHeight="1" thickTop="1">
-      <c r="A8" s="103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ACI Motorsports </t>
-        </is>
-      </c>
-      <c r="B8" s="104" t="inlineStr">
-        <is>
-          <t>7</t>
+    <row r="8" ht="46.75" customHeight="1" thickTop="1">
+      <c r="A8" s="162" t="inlineStr">
+        <is>
+          <t>ACI Motorsports</t>
+        </is>
+      </c>
+      <c r="B8" s="91" t="inlineStr">
+        <is>
+          <t>19, 58</t>
         </is>
       </c>
       <c r="C8" s="9" t="n"/>
       <c r="D8" s="12" t="n"/>
     </row>
-    <row r="9" ht="50.25" customHeight="1">
-      <c r="A9" s="105" t="inlineStr">
-        <is>
-          <t>Flying Lizard Motorsports</t>
-        </is>
-      </c>
-      <c r="B9" s="106" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C9" s="37" t="n"/>
-      <c r="D9" s="38" t="n"/>
-    </row>
-    <row r="10" ht="50.25" customHeight="1">
-      <c r="A10" s="112" t="inlineStr">
-        <is>
-          <t>Zotz Racing/ CCDP Racing</t>
-        </is>
-      </c>
-      <c r="B10" s="131" t="inlineStr">
-        <is>
-          <t>09</t>
+    <row r="9" ht="46.75" customHeight="1">
+      <c r="A9" s="163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ACI Motorsports </t>
+        </is>
+      </c>
+      <c r="B9" s="92" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C9" s="36" t="n"/>
+      <c r="D9" s="37" t="n"/>
+    </row>
+    <row r="10" ht="46.75" customHeight="1">
+      <c r="A10" s="164" t="inlineStr">
+        <is>
+          <t>Archangel Motorsports</t>
+        </is>
+      </c>
+      <c r="B10" s="112" t="inlineStr">
+        <is>
+          <t>069</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
       <c r="D10" s="4" t="n"/>
     </row>
-    <row r="11" ht="50.25" customHeight="1">
-      <c r="A11" s="86" t="inlineStr">
-        <is>
-          <t>RS1</t>
-        </is>
-      </c>
-      <c r="B11" s="107" t="inlineStr">
-        <is>
-          <t>18</t>
+    <row r="11" ht="46.75" customHeight="1">
+      <c r="A11" s="94" t="inlineStr">
+        <is>
+          <t>Auto Technic Racing</t>
+        </is>
+      </c>
+      <c r="B11" s="93" t="inlineStr">
+        <is>
+          <t>51, 253</t>
         </is>
       </c>
       <c r="C11" s="9" t="n"/>
       <c r="D11" s="9" t="n"/>
     </row>
-    <row r="12" ht="50.25" customHeight="1">
-      <c r="A12" s="86" t="inlineStr">
-        <is>
-          <t>ACI Motorsports</t>
-        </is>
-      </c>
-      <c r="B12" s="108" t="inlineStr">
-        <is>
-          <t>19, 58</t>
+    <row r="12" ht="46.75" customHeight="1">
+      <c r="A12" s="94" t="inlineStr">
+        <is>
+          <t>BimmerWorld</t>
+        </is>
+      </c>
+      <c r="B12" s="94" t="inlineStr">
+        <is>
+          <t>36, 82</t>
         </is>
       </c>
       <c r="C12" s="9" t="n"/>
       <c r="D12" s="12" t="n"/>
     </row>
-    <row r="13" ht="50.25" customHeight="1">
-      <c r="A13" s="109" t="inlineStr">
-        <is>
-          <t>TechSport Racing</t>
-        </is>
-      </c>
-      <c r="B13" s="110" t="inlineStr">
-        <is>
-          <t>22, 23</t>
-        </is>
-      </c>
-      <c r="C13" s="97" t="n"/>
-      <c r="D13" s="99" t="n"/>
-    </row>
-    <row r="14" ht="50.25" customHeight="1">
-      <c r="A14" s="102" t="inlineStr">
-        <is>
-          <t>Heart of Racing Team</t>
-        </is>
-      </c>
-      <c r="B14" s="111" t="inlineStr">
-        <is>
-          <t>24, 26</t>
+    <row r="13" ht="46.75" customHeight="1">
+      <c r="A13" s="165" t="inlineStr">
+        <is>
+          <t>Black Swan Racing</t>
+        </is>
+      </c>
+      <c r="B13" s="95" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C13" s="85" t="n"/>
+      <c r="D13" s="87" t="n"/>
+    </row>
+    <row r="14" ht="46.75" customHeight="1">
+      <c r="A14" s="90" t="inlineStr">
+        <is>
+          <t>COPELAND MOTORSPORTS</t>
+        </is>
+      </c>
+      <c r="B14" s="96" t="inlineStr">
+        <is>
+          <t>74</t>
         </is>
       </c>
       <c r="C14" s="9" t="n"/>
       <c r="D14" s="7" t="n"/>
     </row>
-    <row r="15" ht="50.25" customHeight="1">
-      <c r="A15" s="175" t="inlineStr">
+    <row r="15" ht="46.75" customHeight="1">
+      <c r="A15" s="166" t="inlineStr">
+        <is>
+          <t>Carrus Callas Raceteam</t>
+        </is>
+      </c>
+      <c r="B15" s="96" t="inlineStr">
+        <is>
+          <t>#39</t>
+        </is>
+      </c>
+      <c r="C15" s="153" t="n"/>
+      <c r="D15" s="9" t="n"/>
+    </row>
+    <row r="16" ht="46.75" customHeight="1">
+      <c r="A16" s="167" t="inlineStr">
+        <is>
+          <t>Chouest Povoledo Racing</t>
+        </is>
+      </c>
+      <c r="B16" s="94" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C16" s="154" t="n"/>
+      <c r="D16" s="2" t="n"/>
+    </row>
+    <row r="17" ht="46.75" customHeight="1">
+      <c r="A17" s="168" t="inlineStr">
+        <is>
+          <t>Conquest Racing</t>
+        </is>
+      </c>
+      <c r="B17" s="96" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C17" s="153" t="n"/>
+      <c r="D17" s="86" t="n"/>
+    </row>
+    <row r="18" ht="46.75" customHeight="1">
+      <c r="A18" s="166" t="inlineStr">
+        <is>
+          <t>Conquest Racing / JMF Motorsport</t>
+        </is>
+      </c>
+      <c r="B18" s="97" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C18" s="153" t="n"/>
+      <c r="D18" s="12" t="n"/>
+    </row>
+    <row r="19" ht="46.75" customHeight="1">
+      <c r="A19" s="169" t="inlineStr">
+        <is>
+          <t>Flying Lizard Motorsports</t>
+        </is>
+      </c>
+      <c r="B19" s="94" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C19" s="154" t="n"/>
+      <c r="D19" s="4" t="n"/>
+    </row>
+    <row r="20" ht="46.75" customHeight="1">
+      <c r="A20" s="166" t="inlineStr">
+        <is>
+          <t>GMG Racing</t>
+        </is>
+      </c>
+      <c r="B20" s="98" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C20" s="153" t="n"/>
+      <c r="D20" s="9" t="n"/>
+    </row>
+    <row r="21" ht="46.75" customFormat="1" customHeight="1" s="35">
+      <c r="A21" s="168" t="inlineStr">
+        <is>
+          <t>Hanley Motorsports</t>
+        </is>
+      </c>
+      <c r="B21" s="94" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="C21" s="153" t="n"/>
+      <c r="D21" s="9" t="n"/>
+    </row>
+    <row r="22" ht="46.75" customHeight="1">
+      <c r="A22" s="166" t="inlineStr">
+        <is>
+          <t>Heart of Racing Team</t>
+        </is>
+      </c>
+      <c r="B22" s="96" t="inlineStr">
+        <is>
+          <t>24, 26</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="n"/>
+      <c r="D22" s="9" t="n"/>
+    </row>
+    <row r="23" ht="46.75" customHeight="1">
+      <c r="A23" s="170" t="inlineStr">
         <is>
           <t>JTR Motorsports Engineering</t>
         </is>
       </c>
-      <c r="B15" s="111" t="inlineStr">
+      <c r="B23" s="96" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C15" s="183" t="n"/>
-      <c r="D15" s="9" t="n"/>
-    </row>
-    <row r="16" ht="50.25" customHeight="1">
-      <c r="A16" s="176" t="inlineStr">
-        <is>
-          <t>GMG Racing</t>
-        </is>
-      </c>
-      <c r="B16" s="108" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="C16" s="184" t="n"/>
-      <c r="D16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="50.25" customHeight="1">
-      <c r="A17" s="177" t="inlineStr">
-        <is>
-          <t>Conquest Racing / JMF Motorsport</t>
-        </is>
-      </c>
-      <c r="B17" s="111" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="C17" s="183" t="n"/>
-      <c r="D17" s="98" t="n"/>
-    </row>
-    <row r="18" ht="50.25" customHeight="1">
-      <c r="A18" s="175" t="inlineStr">
-        <is>
-          <t>Conquest Racing</t>
-        </is>
-      </c>
-      <c r="B18" s="113" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="C18" s="183" t="n"/>
-      <c r="D18" s="12" t="n"/>
-    </row>
-    <row r="19" ht="50.25" customHeight="1">
-      <c r="A19" s="178" t="inlineStr">
-        <is>
-          <t>BimmerWorld</t>
-        </is>
-      </c>
-      <c r="B19" s="108" t="inlineStr">
-        <is>
-          <t>36, 82</t>
-        </is>
-      </c>
-      <c r="C19" s="184" t="n"/>
-      <c r="D19" s="4" t="n"/>
-    </row>
-    <row r="20" ht="50.25" customHeight="1">
-      <c r="A20" s="175" t="inlineStr">
+      <c r="C23" s="9" t="n"/>
+      <c r="D23" s="9" t="n"/>
+    </row>
+    <row r="24" ht="46.75" customFormat="1" customHeight="1" s="1">
+      <c r="A24" s="161" t="inlineStr">
+        <is>
+          <t>NOLASPORT</t>
+        </is>
+      </c>
+      <c r="B24" s="94" t="inlineStr">
+        <is>
+          <t>47, 52, 83</t>
+        </is>
+      </c>
+      <c r="C24" s="13" t="n"/>
+      <c r="D24" s="13" t="n"/>
+    </row>
+    <row r="25" ht="46.75" customHeight="1">
+      <c r="A25" s="171" t="inlineStr">
+        <is>
+          <t>OGH / Valkyrie Velocity</t>
+        </is>
+      </c>
+      <c r="B25" s="94" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="C25" s="9" t="n"/>
+      <c r="D25" s="9" t="n"/>
+    </row>
+    <row r="26" ht="46.75" customFormat="1" customHeight="1" s="35">
+      <c r="A26" s="167" t="inlineStr">
+        <is>
+          <t>OGH/ Valkyrie Velocity</t>
+        </is>
+      </c>
+      <c r="B26" s="155" t="inlineStr">
+        <is>
+          <t>96, 97</t>
+        </is>
+      </c>
+      <c r="C26" s="36" t="n"/>
+      <c r="D26" s="36" t="n"/>
+    </row>
+    <row r="27" ht="46.75" customHeight="1">
+      <c r="A27" s="167" t="inlineStr">
+        <is>
+          <t>RENNtech Motorsports</t>
+        </is>
+      </c>
+      <c r="B27" s="155" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="C27" s="36" t="n"/>
+      <c r="D27" s="36" t="n"/>
+    </row>
+    <row r="28" ht="46.75" customHeight="1">
+      <c r="A28" s="172" t="inlineStr">
+        <is>
+          <t>RS1</t>
+        </is>
+      </c>
+      <c r="B28" s="155" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="2" t="n"/>
+    </row>
+    <row r="29" ht="46.75" customHeight="1">
+      <c r="A29" s="161" t="inlineStr">
+        <is>
+          <t>Random Vandals Racing</t>
+        </is>
+      </c>
+      <c r="B29" s="96" t="inlineStr">
+        <is>
+          <t>92, 98</t>
+        </is>
+      </c>
+      <c r="C29" s="9" t="n"/>
+      <c r="D29" s="7" t="n"/>
+    </row>
+    <row r="30" ht="46.75" customHeight="1">
+      <c r="A30" s="172" t="inlineStr">
+        <is>
+          <t>Rooster Hall Racing</t>
+        </is>
+      </c>
+      <c r="B30" s="173" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="n"/>
+    </row>
+    <row r="31" ht="46.75" customHeight="1">
+      <c r="A31" s="172" t="inlineStr">
+        <is>
+          <t>Rotek Racing</t>
+        </is>
+      </c>
+      <c r="B31" s="173" t="inlineStr">
+        <is>
+          <t>099</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="2" t="n"/>
+    </row>
+    <row r="32" ht="46.75" customHeight="1">
+      <c r="A32" s="172" t="inlineStr">
+        <is>
+          <t>SP Motorsports</t>
+        </is>
+      </c>
+      <c r="B32" s="173" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="n"/>
+    </row>
+    <row r="33" ht="46.75" customHeight="1">
+      <c r="A33" s="172" t="inlineStr">
+        <is>
+          <t>STR38 Motorsports</t>
+        </is>
+      </c>
+      <c r="B33" s="173" t="inlineStr">
+        <is>
+          <t>88, 438</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n"/>
+      <c r="D33" s="2" t="n"/>
+    </row>
+    <row r="34" ht="46.75" customHeight="1">
+      <c r="A34" s="172" t="inlineStr">
         <is>
           <t>Skip Barber Racing School</t>
         </is>
       </c>
-      <c r="B20" s="114" t="inlineStr">
+      <c r="B34" s="173" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="C20" s="183" t="n"/>
-      <c r="D20" s="9" t="n"/>
-    </row>
-    <row r="21" ht="50.25" customFormat="1" customHeight="1" s="36">
-      <c r="A21" s="177" t="inlineStr">
-        <is>
-          <t>Carrus Callas Raceteam</t>
-        </is>
-      </c>
-      <c r="B21" s="108" t="inlineStr">
-        <is>
-          <t>#39</t>
-        </is>
-      </c>
-      <c r="C21" s="183" t="n"/>
-      <c r="D21" s="9" t="n"/>
-    </row>
-    <row r="22" ht="50.25" customHeight="1">
-      <c r="A22" s="175" t="inlineStr">
-        <is>
-          <t>Rooster Hall Racing</t>
-        </is>
-      </c>
-      <c r="B22" s="111" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="C22" s="185" t="n"/>
-      <c r="D22" s="12" t="n"/>
-    </row>
-    <row r="23" ht="50.25" customHeight="1">
-      <c r="A23" s="179" t="inlineStr">
-        <is>
-          <t>NOLASPORT</t>
-        </is>
-      </c>
-      <c r="B23" s="111" t="inlineStr">
-        <is>
-          <t>47, 52, 83</t>
-        </is>
-      </c>
-      <c r="C23" s="183" t="n"/>
-      <c r="D23" s="12" t="n"/>
-    </row>
-    <row r="24" ht="50.25" customFormat="1" customHeight="1" s="1">
-      <c r="A24" s="180" t="inlineStr">
-        <is>
-          <t>Chouest Povoledo Racing</t>
-        </is>
-      </c>
-      <c r="B24" s="108" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C24" s="186" t="n"/>
-      <c r="D24" s="77" t="n"/>
-    </row>
-    <row r="25" ht="50.25" customHeight="1">
-      <c r="A25" s="181" t="inlineStr">
-        <is>
-          <t>Auto Technic Racing</t>
-        </is>
-      </c>
-      <c r="B25" s="108" t="inlineStr">
-        <is>
-          <t>51, 253</t>
-        </is>
-      </c>
-      <c r="C25" s="187" t="n"/>
-      <c r="D25" s="12" t="n"/>
-    </row>
-    <row r="26" ht="50.25" customFormat="1" customHeight="1" s="36">
-      <c r="A26" s="176" t="inlineStr">
-        <is>
-          <t>Black Swan Racing</t>
-        </is>
-      </c>
-      <c r="B26" s="189" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C26" s="188" t="n"/>
-      <c r="D26" s="38" t="n"/>
-    </row>
-    <row r="27" ht="50.25" customHeight="1">
-      <c r="A27" s="176" t="inlineStr">
+      <c r="C34" s="2" t="n"/>
+      <c r="D34" s="2" t="n"/>
+    </row>
+    <row r="35" ht="46.75" customHeight="1">
+      <c r="A35" s="172" t="inlineStr">
         <is>
           <t>Smooge Racing</t>
         </is>
       </c>
-      <c r="B27" s="189" t="inlineStr">
+      <c r="B35" s="173" t="inlineStr">
         <is>
           <t>67, 68</t>
         </is>
       </c>
-      <c r="C27" s="188" t="n"/>
-      <c r="D27" s="38" t="n"/>
-    </row>
-    <row r="28" ht="50.25" customHeight="1">
-      <c r="A28" s="182" t="inlineStr">
-        <is>
-          <t>Archangel Motorsports</t>
-        </is>
-      </c>
-      <c r="B28" s="190" t="inlineStr">
-        <is>
-          <t>069</t>
-        </is>
-      </c>
-      <c r="C28" s="184" t="n"/>
-      <c r="D28" s="4" t="n"/>
-    </row>
-    <row r="29" ht="50.25" customHeight="1">
-      <c r="A29" s="115" t="inlineStr">
-        <is>
-          <t>COPELAND MOTORSPORTS</t>
-        </is>
-      </c>
-      <c r="B29" s="116" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="C29" s="26" t="n"/>
-      <c r="D29" s="27" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="C35" s="2" t="n"/>
+      <c r="D35" s="2" t="n"/>
+    </row>
+    <row r="36" ht="46.75" customHeight="1">
+      <c r="A36" s="172" t="inlineStr">
         <is>
           <t xml:space="preserve">TR3 Racing </t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B36" s="173" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>STR38 Motorsports</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>88, 438</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>RENNtech Motorsports</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Random Vandals Racing</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>92, 98</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>OGH / Valkyrie Velocity</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>OGH/ Valkyrie Velocity</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>96, 97</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Rotek Racing</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>099</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>van der Steur Racing</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>428</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>SP Motorsports</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>899</t>
-        </is>
-      </c>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="n"/>
+    </row>
+    <row r="37" ht="46.75" customHeight="1">
+      <c r="A37" s="172" t="inlineStr">
+        <is>
+          <t>TechSport Racing</t>
+        </is>
+      </c>
+      <c r="B37" s="173" t="inlineStr">
+        <is>
+          <t>22, 23</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n"/>
+      <c r="D37" s="2" t="n"/>
+    </row>
+    <row r="38" ht="46.75" customHeight="1">
+      <c r="A38" s="174" t="inlineStr">
+        <is>
+          <t>Zotz Racing/ CCDP Racing</t>
+        </is>
+      </c>
+      <c r="B38" s="173" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n"/>
+      <c r="D38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hanley Motorsports</t>
+          <t>van der Steur Racing</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>428</t>
         </is>
       </c>
     </row>
@@ -3825,27 +3820,27 @@
   </cols>
   <sheetData>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="193" t="n"/>
-      <c r="B2" s="193" t="n"/>
+      <c r="A2" s="158" t="n"/>
+      <c r="B2" s="158" t="n"/>
     </row>
     <row r="3" ht="45" customHeight="1">
-      <c r="B3" s="193" t="n"/>
-      <c r="C3" s="169" t="inlineStr">
+      <c r="B3" s="158" t="n"/>
+      <c r="C3" s="150" t="inlineStr">
         <is>
           <t>Team Manager Sign In</t>
         </is>
       </c>
-      <c r="D3" s="169" t="n"/>
+      <c r="D3" s="150" t="n"/>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="C4" s="169" t="n"/>
-      <c r="D4" s="169" t="n"/>
+      <c r="C4" s="150" t="n"/>
+      <c r="D4" s="150" t="n"/>
     </row>
     <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" s="173" t="n"/>
-      <c r="B5" s="173" t="n"/>
-      <c r="C5" s="173" t="n"/>
-      <c r="D5" s="173" t="n"/>
+      <c r="A5" s="151" t="n"/>
+      <c r="B5" s="151" t="n"/>
+      <c r="C5" s="151" t="n"/>
+      <c r="D5" s="151" t="n"/>
     </row>
     <row r="7" ht="32.25" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A7" s="6" t="inlineStr">
@@ -3870,298 +3865,298 @@
       </c>
     </row>
     <row r="8" ht="36" customFormat="1" customHeight="1" s="5" thickTop="1">
-      <c r="A8" s="55" t="inlineStr">
-        <is>
-          <t>Flying Lizard Motorsports</t>
-        </is>
-      </c>
-      <c r="B8" s="81" t="inlineStr">
-        <is>
-          <t>2, 8, 460</t>
+      <c r="A8" s="54" t="inlineStr">
+        <is>
+          <t>Archangel Motorsports</t>
+        </is>
+      </c>
+      <c r="B8" s="80" t="inlineStr">
+        <is>
+          <t>69</t>
         </is>
       </c>
       <c r="C8" s="9" t="n"/>
       <c r="D8" s="13" t="n"/>
     </row>
     <row r="9" ht="36" customFormat="1" customHeight="1" s="5">
-      <c r="A9" s="73" t="inlineStr">
-        <is>
-          <t>Crowdstrike by Riley</t>
-        </is>
-      </c>
-      <c r="B9" s="81" t="inlineStr">
-        <is>
-          <t>04</t>
+      <c r="A9" s="72" t="inlineStr">
+        <is>
+          <t>Aston Martin Racing - TRG</t>
+        </is>
+      </c>
+      <c r="B9" s="80" t="inlineStr">
+        <is>
+          <t>009</t>
         </is>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
     </row>
     <row r="10" ht="36" customFormat="1" customHeight="1" s="5">
-      <c r="A10" s="55" t="inlineStr">
-        <is>
-          <t>Blackdog Speed Shop</t>
-        </is>
-      </c>
-      <c r="B10" s="81" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="A10" s="54" t="inlineStr">
+        <is>
+          <t>Auto Technic Racing</t>
+        </is>
+      </c>
+      <c r="B10" s="80" t="inlineStr">
+        <is>
+          <t>20</t>
         </is>
       </c>
       <c r="C10" s="9" t="n"/>
       <c r="D10" s="7" t="n"/>
     </row>
     <row r="11" ht="36" customFormat="1" customHeight="1" s="5">
-      <c r="A11" s="167" t="inlineStr">
-        <is>
-          <t>DXDT Racing</t>
-        </is>
-      </c>
-      <c r="B11" s="81" t="inlineStr">
-        <is>
-          <t>08, 91</t>
+      <c r="A11" s="148" t="inlineStr">
+        <is>
+          <t>Blackdog Speed Shop</t>
+        </is>
+      </c>
+      <c r="B11" s="80" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" s="9" t="n"/>
       <c r="D11" s="13" t="n"/>
     </row>
     <row r="12" ht="36" customFormat="1" customHeight="1" s="5">
-      <c r="A12" s="73" t="inlineStr">
-        <is>
-          <t>TR3 Racing</t>
-        </is>
-      </c>
-      <c r="B12" s="81" t="inlineStr">
-        <is>
-          <t>9</t>
+      <c r="A12" s="72" t="inlineStr">
+        <is>
+          <t>CRP Racing</t>
+        </is>
+      </c>
+      <c r="B12" s="80" t="inlineStr">
+        <is>
+          <t>27, 41</t>
         </is>
       </c>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="7" t="n"/>
     </row>
     <row r="13" ht="36" customFormat="1" customHeight="1" s="5">
-      <c r="A13" s="55" t="inlineStr">
-        <is>
-          <t>Aston Martin Racing - TRG</t>
-        </is>
-      </c>
-      <c r="B13" s="54" t="inlineStr">
-        <is>
-          <t>009</t>
+      <c r="A13" s="54" t="inlineStr">
+        <is>
+          <t>Carrus Callas Raceteam</t>
+        </is>
+      </c>
+      <c r="B13" s="53" t="inlineStr">
+        <is>
+          <t>#21</t>
         </is>
       </c>
       <c r="C13" s="9" t="n"/>
-      <c r="D13" s="76" t="n"/>
+      <c r="D13" s="75" t="n"/>
     </row>
     <row r="14" ht="36" customHeight="1">
-      <c r="A14" s="72" t="inlineStr">
-        <is>
-          <t>Lone Star Racing</t>
-        </is>
-      </c>
-      <c r="B14" s="82" t="inlineStr">
-        <is>
-          <t>011</t>
+      <c r="A14" s="71" t="inlineStr">
+        <is>
+          <t>Chouest Povoledo Racing</t>
+        </is>
+      </c>
+      <c r="B14" s="81" t="inlineStr">
+        <is>
+          <t>50</t>
         </is>
       </c>
       <c r="C14" s="9" t="n"/>
-      <c r="D14" s="80" t="n"/>
+      <c r="D14" s="79" t="n"/>
     </row>
     <row r="15" ht="36" customHeight="1">
-      <c r="A15" s="55" t="inlineStr">
-        <is>
-          <t>Auto Technic Racing</t>
-        </is>
-      </c>
-      <c r="B15" s="81" t="inlineStr">
-        <is>
-          <t>20</t>
+      <c r="A15" s="54" t="inlineStr">
+        <is>
+          <t>Crowdstrike by Riley</t>
+        </is>
+      </c>
+      <c r="B15" s="80" t="inlineStr">
+        <is>
+          <t>04</t>
         </is>
       </c>
       <c r="C15" s="9" t="n"/>
-      <c r="D15" s="76" t="n"/>
-    </row>
-    <row r="16" ht="36" customFormat="1" customHeight="1" s="36">
-      <c r="A16" s="55" t="inlineStr">
-        <is>
-          <t>Carrus Callas Raceteam</t>
-        </is>
-      </c>
-      <c r="B16" s="81" t="inlineStr">
-        <is>
-          <t>#21</t>
+      <c r="D15" s="75" t="n"/>
+    </row>
+    <row r="16" ht="36" customFormat="1" customHeight="1" s="35">
+      <c r="A16" s="54" t="inlineStr">
+        <is>
+          <t>DXDT Racing</t>
+        </is>
+      </c>
+      <c r="B16" s="80" t="inlineStr">
+        <is>
+          <t>08, 91</t>
         </is>
       </c>
       <c r="C16" s="9" t="n"/>
-      <c r="D16" s="76" t="n"/>
-    </row>
-    <row r="17" ht="36" customFormat="1" customHeight="1" s="36">
-      <c r="A17" s="83" t="inlineStr">
-        <is>
-          <t>Heart of Racing Team</t>
-        </is>
-      </c>
-      <c r="B17" s="84" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C17" s="34" t="n"/>
+      <c r="D16" s="75" t="n"/>
+    </row>
+    <row r="17" ht="36" customFormat="1" customHeight="1" s="35">
+      <c r="A17" s="82" t="inlineStr">
+        <is>
+          <t>Flying Lizard Motorsports</t>
+        </is>
+      </c>
+      <c r="B17" s="83" t="inlineStr">
+        <is>
+          <t>2, 8, 460</t>
+        </is>
+      </c>
+      <c r="C17" s="33" t="n"/>
       <c r="D17" s="13" t="n"/>
     </row>
-    <row r="18" ht="36" customFormat="1" customHeight="1" s="36">
-      <c r="A18" s="83" t="inlineStr">
-        <is>
-          <t>CRP Racing</t>
-        </is>
-      </c>
-      <c r="B18" s="84" t="inlineStr">
-        <is>
-          <t>27, 41</t>
+    <row r="18" ht="36" customFormat="1" customHeight="1" s="35">
+      <c r="A18" s="82" t="inlineStr">
+        <is>
+          <t>GMG Racing</t>
+        </is>
+      </c>
+      <c r="B18" s="83" t="inlineStr">
+        <is>
+          <t>32</t>
         </is>
       </c>
       <c r="C18" s="9" t="n"/>
       <c r="D18" s="13" t="n"/>
     </row>
-    <row r="19" ht="36" customFormat="1" customHeight="1" s="36">
-      <c r="A19" s="55" t="inlineStr">
-        <is>
-          <t>GMG Racing</t>
-        </is>
-      </c>
-      <c r="B19" s="165" t="inlineStr">
-        <is>
-          <t>32</t>
+    <row r="19" ht="36" customFormat="1" customHeight="1" s="35">
+      <c r="A19" s="54" t="inlineStr">
+        <is>
+          <t>Heart of Racing Team</t>
+        </is>
+      </c>
+      <c r="B19" s="146" t="inlineStr">
+        <is>
+          <t>25</t>
         </is>
       </c>
       <c r="C19" s="9" t="n"/>
       <c r="D19" s="13" t="n"/>
     </row>
-    <row r="20" ht="36" customFormat="1" customHeight="1" s="36">
-      <c r="A20" s="72" t="inlineStr">
+    <row r="20" ht="36" customFormat="1" customHeight="1" s="35">
+      <c r="A20" s="71" t="inlineStr">
+        <is>
+          <t>Lone Star Racing</t>
+        </is>
+      </c>
+      <c r="B20" s="81" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="n"/>
+      <c r="D20" s="75" t="n"/>
+    </row>
+    <row r="21" ht="36" customFormat="1" customHeight="1" s="5">
+      <c r="A21" s="54" t="inlineStr">
+        <is>
+          <t>MISHUMOTORS</t>
+        </is>
+      </c>
+      <c r="B21" s="80" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="75" t="n"/>
+    </row>
+    <row r="22" ht="36" customFormat="1" customHeight="1" s="34">
+      <c r="A22" s="84" t="inlineStr">
         <is>
           <t>OnlyFans Racing with P1 Groupe by MRS</t>
         </is>
       </c>
-      <c r="B20" s="82" t="inlineStr">
+      <c r="B22" s="80" t="inlineStr">
         <is>
           <t>043</t>
         </is>
       </c>
-      <c r="C20" s="9" t="n"/>
-      <c r="D20" s="76" t="n"/>
-    </row>
-    <row r="21" ht="36" customFormat="1" customHeight="1" s="5">
-      <c r="A21" s="55" t="inlineStr">
+      <c r="C22" s="9" t="n"/>
+      <c r="D22" s="77" t="n"/>
+    </row>
+    <row r="23" ht="36" customFormat="1" customHeight="1" s="34">
+      <c r="A23" s="51" t="inlineStr">
         <is>
           <t>RealTime Racing</t>
         </is>
       </c>
-      <c r="B21" s="81" t="inlineStr">
+      <c r="B23" s="81" t="inlineStr">
         <is>
           <t>43, 427</t>
-        </is>
-      </c>
-      <c r="C21" s="9" t="n"/>
-      <c r="D21" s="76" t="n"/>
-    </row>
-    <row r="22" ht="36" customFormat="1" customHeight="1" s="35">
-      <c r="A22" s="85" t="inlineStr">
-        <is>
-          <t>Chouest Povoledo Racing</t>
-        </is>
-      </c>
-      <c r="B22" s="81" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C22" s="9" t="n"/>
-      <c r="D22" s="78" t="n"/>
-    </row>
-    <row r="23" ht="36" customFormat="1" customHeight="1" s="35">
-      <c r="A23" s="52" t="inlineStr">
-        <is>
-          <t>Archangel Motorsports</t>
-        </is>
-      </c>
-      <c r="B23" s="82" t="inlineStr">
-        <is>
-          <t>69</t>
         </is>
       </c>
       <c r="C23" s="9" t="n"/>
       <c r="D23" s="13" t="n"/>
     </row>
     <row r="24" ht="36" customFormat="1" customHeight="1" s="5">
-      <c r="A24" s="85" t="inlineStr">
-        <is>
-          <t>MISHUMOTORS</t>
-        </is>
-      </c>
-      <c r="B24" s="81" t="inlineStr">
-        <is>
-          <t>70</t>
+      <c r="A24" s="84" t="inlineStr">
+        <is>
+          <t>Rotek Racing</t>
+        </is>
+      </c>
+      <c r="B24" s="80" t="inlineStr">
+        <is>
+          <t>098, 099</t>
         </is>
       </c>
       <c r="C24" s="9" t="n"/>
-      <c r="D24" s="77" t="n"/>
+      <c r="D24" s="76" t="n"/>
     </row>
     <row r="25" ht="36" customFormat="1" customHeight="1" s="5">
-      <c r="A25" s="55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TR3 Racing </t>
-        </is>
-      </c>
-      <c r="B25" s="84" t="inlineStr">
-        <is>
-          <t>77</t>
+      <c r="A25" s="54" t="inlineStr">
+        <is>
+          <t>TKO Motorsports</t>
+        </is>
+      </c>
+      <c r="B25" s="83" t="inlineStr">
+        <is>
+          <t>101, 102</t>
         </is>
       </c>
       <c r="C25" s="9" t="n"/>
       <c r="D25" s="13" t="n"/>
     </row>
     <row r="26" ht="36" customFormat="1" customHeight="1" s="5">
-      <c r="A26" s="83" t="inlineStr">
-        <is>
-          <t>Rotek Racing</t>
-        </is>
-      </c>
-      <c r="B26" s="84" t="inlineStr">
-        <is>
-          <t>098, 099</t>
-        </is>
-      </c>
-      <c r="C26" s="34" t="n"/>
-      <c r="D26" s="47" t="n"/>
+      <c r="A26" s="82" t="inlineStr">
+        <is>
+          <t>TR3 Racing</t>
+        </is>
+      </c>
+      <c r="B26" s="83" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C26" s="33" t="n"/>
+      <c r="D26" s="46" t="n"/>
     </row>
     <row r="27" ht="36" customFormat="1" customHeight="1" s="5">
-      <c r="A27" s="55" t="inlineStr">
-        <is>
-          <t>TKO Motorsports</t>
-        </is>
-      </c>
-      <c r="B27" s="81" t="inlineStr">
-        <is>
-          <t>101, 102</t>
+      <c r="A27" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TR3 Racing </t>
+        </is>
+      </c>
+      <c r="B27" s="80" t="inlineStr">
+        <is>
+          <t>77</t>
         </is>
       </c>
       <c r="C27" s="9" t="n"/>
       <c r="D27" s="13" t="n"/>
     </row>
     <row r="28" ht="36" customFormat="1" customHeight="1" s="5">
-      <c r="A28" s="55" t="inlineStr">
+      <c r="A28" s="54" t="inlineStr">
         <is>
           <t>Wright Motorsports</t>
         </is>
       </c>
-      <c r="B28" s="81" t="inlineStr">
+      <c r="B28" s="80" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
       <c r="C28" s="9" t="n"/>
-      <c r="D28" s="79" t="n"/>
+      <c r="D28" s="78" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="14" t="n"/>
@@ -4194,10 +4189,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:CJ20"/>
+  <dimension ref="A3:CJ26"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15"/>
@@ -4210,1403 +4205,1439 @@
   </cols>
   <sheetData>
     <row r="3" ht="24" customHeight="1">
-      <c r="C3" s="192" t="inlineStr">
+      <c r="C3" s="157" t="inlineStr">
         <is>
           <t>TC Team Manager Sign In</t>
         </is>
       </c>
-      <c r="D3" s="192" t="n"/>
-    </row>
-    <row r="4" ht="45" customHeight="1">
-      <c r="C4" s="191" t="n"/>
-      <c r="D4" s="191" t="n"/>
-    </row>
-    <row r="5" ht="45" customHeight="1">
-      <c r="C5" s="191" t="n"/>
-      <c r="D5" s="191" t="n"/>
+      <c r="D3" s="157" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="C4" s="156" t="n"/>
+      <c r="D4" s="156" t="n"/>
+    </row>
+    <row r="5" ht="6" customHeight="1">
+      <c r="C5" s="156" t="n"/>
+      <c r="D5" s="156" t="n"/>
     </row>
     <row r="6">
-      <c r="F6" s="193" t="n"/>
+      <c r="F6" s="158" t="n"/>
     </row>
     <row r="7" ht="32.25" customFormat="1" customHeight="1" s="18" thickBot="1">
-      <c r="A7" s="49" t="inlineStr">
+      <c r="A7" s="48" t="inlineStr">
         <is>
           <t xml:space="preserve">Team </t>
         </is>
       </c>
-      <c r="B7" s="49" t="inlineStr">
+      <c r="B7" s="48" t="inlineStr">
         <is>
           <t>Car #</t>
         </is>
       </c>
-      <c r="C7" s="50" t="inlineStr">
+      <c r="C7" s="49" t="inlineStr">
         <is>
           <t>Team Manager - Print Name</t>
         </is>
       </c>
-      <c r="D7" s="49" t="inlineStr">
+      <c r="D7" s="48" t="inlineStr">
         <is>
           <t>Signature</t>
         </is>
       </c>
-      <c r="E7" s="39" t="n"/>
+      <c r="E7" s="38" t="n"/>
       <c r="F7" s="3" t="n"/>
       <c r="G7" s="3" t="n"/>
-      <c r="H7" s="39" t="n"/>
-      <c r="I7" s="39" t="n"/>
-      <c r="J7" s="39" t="n"/>
-      <c r="K7" s="39" t="n"/>
-      <c r="L7" s="39" t="n"/>
-      <c r="M7" s="39" t="n"/>
-      <c r="N7" s="39" t="n"/>
-      <c r="O7" s="39" t="n"/>
-      <c r="P7" s="39" t="n"/>
-      <c r="Q7" s="39" t="n"/>
-      <c r="R7" s="39" t="n"/>
-      <c r="S7" s="39" t="n"/>
-      <c r="T7" s="39" t="n"/>
-      <c r="U7" s="39" t="n"/>
-      <c r="V7" s="39" t="n"/>
-      <c r="W7" s="39" t="n"/>
-      <c r="X7" s="39" t="n"/>
-      <c r="Y7" s="39" t="n"/>
-      <c r="Z7" s="39" t="n"/>
-      <c r="AA7" s="39" t="n"/>
-      <c r="AB7" s="39" t="n"/>
-      <c r="AC7" s="39" t="n"/>
-      <c r="AD7" s="39" t="n"/>
-      <c r="AE7" s="39" t="n"/>
-      <c r="AF7" s="39" t="n"/>
-      <c r="AG7" s="39" t="n"/>
-      <c r="AH7" s="39" t="n"/>
-      <c r="AI7" s="39" t="n"/>
-      <c r="AJ7" s="39" t="n"/>
-      <c r="AK7" s="39" t="n"/>
-      <c r="AL7" s="39" t="n"/>
-      <c r="AM7" s="39" t="n"/>
-      <c r="AN7" s="39" t="n"/>
-      <c r="AO7" s="39" t="n"/>
-      <c r="AP7" s="39" t="n"/>
-      <c r="AQ7" s="39" t="n"/>
-      <c r="AR7" s="39" t="n"/>
-      <c r="AS7" s="39" t="n"/>
-      <c r="AT7" s="39" t="n"/>
-      <c r="AU7" s="39" t="n"/>
-      <c r="AV7" s="39" t="n"/>
-      <c r="AW7" s="39" t="n"/>
-      <c r="AX7" s="39" t="n"/>
-      <c r="AY7" s="39" t="n"/>
-      <c r="AZ7" s="39" t="n"/>
-      <c r="BA7" s="39" t="n"/>
-      <c r="BB7" s="39" t="n"/>
-      <c r="BC7" s="39" t="n"/>
-      <c r="BD7" s="39" t="n"/>
-      <c r="BE7" s="39" t="n"/>
-      <c r="BF7" s="39" t="n"/>
-      <c r="BG7" s="39" t="n"/>
-      <c r="BH7" s="39" t="n"/>
-      <c r="BI7" s="39" t="n"/>
-      <c r="BJ7" s="39" t="n"/>
-      <c r="BK7" s="39" t="n"/>
-      <c r="BL7" s="39" t="n"/>
-      <c r="BM7" s="39" t="n"/>
-      <c r="BN7" s="39" t="n"/>
-      <c r="BO7" s="39" t="n"/>
-      <c r="BP7" s="39" t="n"/>
-      <c r="BQ7" s="39" t="n"/>
-      <c r="BR7" s="39" t="n"/>
-      <c r="BS7" s="39" t="n"/>
-      <c r="BT7" s="39" t="n"/>
-      <c r="BU7" s="39" t="n"/>
-      <c r="BV7" s="39" t="n"/>
-      <c r="BW7" s="39" t="n"/>
-      <c r="BX7" s="39" t="n"/>
-      <c r="BY7" s="39" t="n"/>
-      <c r="BZ7" s="39" t="n"/>
-      <c r="CA7" s="39" t="n"/>
-      <c r="CB7" s="39" t="n"/>
-      <c r="CC7" s="39" t="n"/>
-      <c r="CD7" s="39" t="n"/>
-      <c r="CE7" s="39" t="n"/>
-      <c r="CF7" s="39" t="n"/>
-      <c r="CG7" s="39" t="n"/>
-      <c r="CH7" s="39" t="n"/>
-      <c r="CI7" s="39" t="n"/>
-      <c r="CJ7" s="40" t="n"/>
-    </row>
-    <row r="8" ht="40" customFormat="1" customHeight="1" s="18" thickTop="1">
-      <c r="A8" s="132" t="inlineStr">
-        <is>
-          <t>LA Honda World Racing</t>
-        </is>
-      </c>
-      <c r="B8" s="132" t="inlineStr">
-        <is>
-          <t>5, 07, 73</t>
-        </is>
-      </c>
-      <c r="C8" s="48" t="n"/>
-      <c r="D8" s="31" t="n"/>
-      <c r="E8" s="39" t="n"/>
-      <c r="F8" s="39" t="n"/>
-      <c r="G8" s="39" t="n"/>
-      <c r="H8" s="39" t="n"/>
-      <c r="I8" s="39" t="n"/>
-      <c r="J8" s="39" t="n"/>
-      <c r="K8" s="39" t="n"/>
-      <c r="L8" s="39" t="n"/>
-      <c r="M8" s="39" t="n"/>
-      <c r="N8" s="39" t="n"/>
-      <c r="O8" s="39" t="n"/>
-      <c r="P8" s="39" t="n"/>
-      <c r="Q8" s="39" t="n"/>
-      <c r="R8" s="39" t="n"/>
-      <c r="S8" s="39" t="n"/>
-      <c r="T8" s="39" t="n"/>
-      <c r="U8" s="39" t="n"/>
-      <c r="V8" s="39" t="n"/>
-      <c r="W8" s="39" t="n"/>
-      <c r="X8" s="39" t="n"/>
-      <c r="Y8" s="39" t="n"/>
-      <c r="Z8" s="39" t="n"/>
-      <c r="AA8" s="39" t="n"/>
-      <c r="AB8" s="39" t="n"/>
-      <c r="AC8" s="39" t="n"/>
-      <c r="AD8" s="39" t="n"/>
-      <c r="AE8" s="39" t="n"/>
-      <c r="AF8" s="39" t="n"/>
-      <c r="AG8" s="39" t="n"/>
-      <c r="AH8" s="39" t="n"/>
-      <c r="AI8" s="39" t="n"/>
-      <c r="AJ8" s="39" t="n"/>
-      <c r="AK8" s="39" t="n"/>
-      <c r="AL8" s="39" t="n"/>
-      <c r="AM8" s="39" t="n"/>
-      <c r="AN8" s="39" t="n"/>
-      <c r="AO8" s="39" t="n"/>
-      <c r="AP8" s="39" t="n"/>
-      <c r="AQ8" s="39" t="n"/>
-      <c r="AR8" s="39" t="n"/>
-      <c r="AS8" s="39" t="n"/>
-      <c r="AT8" s="39" t="n"/>
-      <c r="AU8" s="39" t="n"/>
-      <c r="AV8" s="39" t="n"/>
-      <c r="AW8" s="39" t="n"/>
-      <c r="AX8" s="39" t="n"/>
-      <c r="AY8" s="39" t="n"/>
-      <c r="AZ8" s="39" t="n"/>
-      <c r="BA8" s="39" t="n"/>
-      <c r="BB8" s="39" t="n"/>
-      <c r="BC8" s="39" t="n"/>
-      <c r="BD8" s="39" t="n"/>
-      <c r="BE8" s="39" t="n"/>
-      <c r="BF8" s="39" t="n"/>
-      <c r="BG8" s="39" t="n"/>
-      <c r="BH8" s="39" t="n"/>
-      <c r="BI8" s="39" t="n"/>
-      <c r="BJ8" s="39" t="n"/>
-      <c r="BK8" s="39" t="n"/>
-      <c r="BL8" s="39" t="n"/>
-      <c r="BM8" s="39" t="n"/>
-      <c r="BN8" s="39" t="n"/>
-      <c r="BO8" s="39" t="n"/>
-      <c r="BP8" s="39" t="n"/>
-      <c r="BQ8" s="39" t="n"/>
-      <c r="BR8" s="39" t="n"/>
-      <c r="BS8" s="39" t="n"/>
-      <c r="BT8" s="39" t="n"/>
-      <c r="BU8" s="39" t="n"/>
-      <c r="BV8" s="39" t="n"/>
-      <c r="BW8" s="39" t="n"/>
-      <c r="BX8" s="39" t="n"/>
-      <c r="BY8" s="39" t="n"/>
-      <c r="BZ8" s="39" t="n"/>
-      <c r="CA8" s="39" t="n"/>
-      <c r="CB8" s="39" t="n"/>
-      <c r="CC8" s="39" t="n"/>
-      <c r="CD8" s="39" t="n"/>
-      <c r="CE8" s="39" t="n"/>
-      <c r="CF8" s="39" t="n"/>
-      <c r="CG8" s="39" t="n"/>
-      <c r="CH8" s="39" t="n"/>
-      <c r="CI8" s="39" t="n"/>
-      <c r="CJ8" s="40" t="n"/>
-    </row>
-    <row r="9" ht="40" customFormat="1" customHeight="1" s="18">
-      <c r="A9" s="55" t="inlineStr">
-        <is>
-          <t>Skip Barber Racing School</t>
-        </is>
-      </c>
-      <c r="B9" s="117" t="inlineStr">
-        <is>
-          <t>7, 19, 42, 77</t>
+      <c r="H7" s="38" t="n"/>
+      <c r="I7" s="38" t="n"/>
+      <c r="J7" s="38" t="n"/>
+      <c r="K7" s="38" t="n"/>
+      <c r="L7" s="38" t="n"/>
+      <c r="M7" s="38" t="n"/>
+      <c r="N7" s="38" t="n"/>
+      <c r="O7" s="38" t="n"/>
+      <c r="P7" s="38" t="n"/>
+      <c r="Q7" s="38" t="n"/>
+      <c r="R7" s="38" t="n"/>
+      <c r="S7" s="38" t="n"/>
+      <c r="T7" s="38" t="n"/>
+      <c r="U7" s="38" t="n"/>
+      <c r="V7" s="38" t="n"/>
+      <c r="W7" s="38" t="n"/>
+      <c r="X7" s="38" t="n"/>
+      <c r="Y7" s="38" t="n"/>
+      <c r="Z7" s="38" t="n"/>
+      <c r="AA7" s="38" t="n"/>
+      <c r="AB7" s="38" t="n"/>
+      <c r="AC7" s="38" t="n"/>
+      <c r="AD7" s="38" t="n"/>
+      <c r="AE7" s="38" t="n"/>
+      <c r="AF7" s="38" t="n"/>
+      <c r="AG7" s="38" t="n"/>
+      <c r="AH7" s="38" t="n"/>
+      <c r="AI7" s="38" t="n"/>
+      <c r="AJ7" s="38" t="n"/>
+      <c r="AK7" s="38" t="n"/>
+      <c r="AL7" s="38" t="n"/>
+      <c r="AM7" s="38" t="n"/>
+      <c r="AN7" s="38" t="n"/>
+      <c r="AO7" s="38" t="n"/>
+      <c r="AP7" s="38" t="n"/>
+      <c r="AQ7" s="38" t="n"/>
+      <c r="AR7" s="38" t="n"/>
+      <c r="AS7" s="38" t="n"/>
+      <c r="AT7" s="38" t="n"/>
+      <c r="AU7" s="38" t="n"/>
+      <c r="AV7" s="38" t="n"/>
+      <c r="AW7" s="38" t="n"/>
+      <c r="AX7" s="38" t="n"/>
+      <c r="AY7" s="38" t="n"/>
+      <c r="AZ7" s="38" t="n"/>
+      <c r="BA7" s="38" t="n"/>
+      <c r="BB7" s="38" t="n"/>
+      <c r="BC7" s="38" t="n"/>
+      <c r="BD7" s="38" t="n"/>
+      <c r="BE7" s="38" t="n"/>
+      <c r="BF7" s="38" t="n"/>
+      <c r="BG7" s="38" t="n"/>
+      <c r="BH7" s="38" t="n"/>
+      <c r="BI7" s="38" t="n"/>
+      <c r="BJ7" s="38" t="n"/>
+      <c r="BK7" s="38" t="n"/>
+      <c r="BL7" s="38" t="n"/>
+      <c r="BM7" s="38" t="n"/>
+      <c r="BN7" s="38" t="n"/>
+      <c r="BO7" s="38" t="n"/>
+      <c r="BP7" s="38" t="n"/>
+      <c r="BQ7" s="38" t="n"/>
+      <c r="BR7" s="38" t="n"/>
+      <c r="BS7" s="38" t="n"/>
+      <c r="BT7" s="38" t="n"/>
+      <c r="BU7" s="38" t="n"/>
+      <c r="BV7" s="38" t="n"/>
+      <c r="BW7" s="38" t="n"/>
+      <c r="BX7" s="38" t="n"/>
+      <c r="BY7" s="38" t="n"/>
+      <c r="BZ7" s="38" t="n"/>
+      <c r="CA7" s="38" t="n"/>
+      <c r="CB7" s="38" t="n"/>
+      <c r="CC7" s="38" t="n"/>
+      <c r="CD7" s="38" t="n"/>
+      <c r="CE7" s="38" t="n"/>
+      <c r="CF7" s="38" t="n"/>
+      <c r="CG7" s="38" t="n"/>
+      <c r="CH7" s="38" t="n"/>
+      <c r="CI7" s="38" t="n"/>
+      <c r="CJ7" s="39" t="n"/>
+    </row>
+    <row r="8" ht="50.25" customFormat="1" customHeight="1" s="18" thickTop="1">
+      <c r="A8" s="113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AOA Racing </t>
+        </is>
+      </c>
+      <c r="B8" s="113" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C8" s="47" t="n"/>
+      <c r="D8" s="30" t="n"/>
+      <c r="E8" s="38" t="n"/>
+      <c r="F8" s="38" t="n"/>
+      <c r="G8" s="38" t="n"/>
+      <c r="H8" s="38" t="n"/>
+      <c r="I8" s="38" t="n"/>
+      <c r="J8" s="38" t="n"/>
+      <c r="K8" s="38" t="n"/>
+      <c r="L8" s="38" t="n"/>
+      <c r="M8" s="38" t="n"/>
+      <c r="N8" s="38" t="n"/>
+      <c r="O8" s="38" t="n"/>
+      <c r="P8" s="38" t="n"/>
+      <c r="Q8" s="38" t="n"/>
+      <c r="R8" s="38" t="n"/>
+      <c r="S8" s="38" t="n"/>
+      <c r="T8" s="38" t="n"/>
+      <c r="U8" s="38" t="n"/>
+      <c r="V8" s="38" t="n"/>
+      <c r="W8" s="38" t="n"/>
+      <c r="X8" s="38" t="n"/>
+      <c r="Y8" s="38" t="n"/>
+      <c r="Z8" s="38" t="n"/>
+      <c r="AA8" s="38" t="n"/>
+      <c r="AB8" s="38" t="n"/>
+      <c r="AC8" s="38" t="n"/>
+      <c r="AD8" s="38" t="n"/>
+      <c r="AE8" s="38" t="n"/>
+      <c r="AF8" s="38" t="n"/>
+      <c r="AG8" s="38" t="n"/>
+      <c r="AH8" s="38" t="n"/>
+      <c r="AI8" s="38" t="n"/>
+      <c r="AJ8" s="38" t="n"/>
+      <c r="AK8" s="38" t="n"/>
+      <c r="AL8" s="38" t="n"/>
+      <c r="AM8" s="38" t="n"/>
+      <c r="AN8" s="38" t="n"/>
+      <c r="AO8" s="38" t="n"/>
+      <c r="AP8" s="38" t="n"/>
+      <c r="AQ8" s="38" t="n"/>
+      <c r="AR8" s="38" t="n"/>
+      <c r="AS8" s="38" t="n"/>
+      <c r="AT8" s="38" t="n"/>
+      <c r="AU8" s="38" t="n"/>
+      <c r="AV8" s="38" t="n"/>
+      <c r="AW8" s="38" t="n"/>
+      <c r="AX8" s="38" t="n"/>
+      <c r="AY8" s="38" t="n"/>
+      <c r="AZ8" s="38" t="n"/>
+      <c r="BA8" s="38" t="n"/>
+      <c r="BB8" s="38" t="n"/>
+      <c r="BC8" s="38" t="n"/>
+      <c r="BD8" s="38" t="n"/>
+      <c r="BE8" s="38" t="n"/>
+      <c r="BF8" s="38" t="n"/>
+      <c r="BG8" s="38" t="n"/>
+      <c r="BH8" s="38" t="n"/>
+      <c r="BI8" s="38" t="n"/>
+      <c r="BJ8" s="38" t="n"/>
+      <c r="BK8" s="38" t="n"/>
+      <c r="BL8" s="38" t="n"/>
+      <c r="BM8" s="38" t="n"/>
+      <c r="BN8" s="38" t="n"/>
+      <c r="BO8" s="38" t="n"/>
+      <c r="BP8" s="38" t="n"/>
+      <c r="BQ8" s="38" t="n"/>
+      <c r="BR8" s="38" t="n"/>
+      <c r="BS8" s="38" t="n"/>
+      <c r="BT8" s="38" t="n"/>
+      <c r="BU8" s="38" t="n"/>
+      <c r="BV8" s="38" t="n"/>
+      <c r="BW8" s="38" t="n"/>
+      <c r="BX8" s="38" t="n"/>
+      <c r="BY8" s="38" t="n"/>
+      <c r="BZ8" s="38" t="n"/>
+      <c r="CA8" s="38" t="n"/>
+      <c r="CB8" s="38" t="n"/>
+      <c r="CC8" s="38" t="n"/>
+      <c r="CD8" s="38" t="n"/>
+      <c r="CE8" s="38" t="n"/>
+      <c r="CF8" s="38" t="n"/>
+      <c r="CG8" s="38" t="n"/>
+      <c r="CH8" s="38" t="n"/>
+      <c r="CI8" s="38" t="n"/>
+      <c r="CJ8" s="39" t="n"/>
+    </row>
+    <row r="9" ht="50.25" customFormat="1" customHeight="1" s="18">
+      <c r="A9" s="191" t="inlineStr">
+        <is>
+          <t>DRS</t>
+        </is>
+      </c>
+      <c r="B9" s="188" t="inlineStr">
+        <is>
+          <t>11</t>
         </is>
       </c>
       <c r="C9" s="9" t="n"/>
       <c r="D9" s="10" t="n"/>
-      <c r="E9" s="39" t="n"/>
-      <c r="F9" s="39" t="n"/>
-      <c r="G9" s="39" t="n"/>
-      <c r="H9" s="39" t="n"/>
-      <c r="I9" s="39" t="n"/>
-      <c r="J9" s="39" t="n"/>
-      <c r="K9" s="39" t="n"/>
-      <c r="L9" s="39" t="n"/>
-      <c r="M9" s="39" t="n"/>
-      <c r="N9" s="39" t="n"/>
-      <c r="O9" s="39" t="n"/>
-      <c r="P9" s="39" t="n"/>
-      <c r="Q9" s="39" t="n"/>
-      <c r="R9" s="39" t="n"/>
-      <c r="S9" s="39" t="n"/>
-      <c r="T9" s="39" t="n"/>
-      <c r="U9" s="39" t="n"/>
-      <c r="V9" s="39" t="n"/>
-      <c r="W9" s="39" t="n"/>
-      <c r="X9" s="39" t="n"/>
-      <c r="Y9" s="39" t="n"/>
-      <c r="Z9" s="39" t="n"/>
-      <c r="AA9" s="39" t="n"/>
-      <c r="AB9" s="39" t="n"/>
-      <c r="AC9" s="39" t="n"/>
-      <c r="AD9" s="39" t="n"/>
-      <c r="AE9" s="39" t="n"/>
-      <c r="AF9" s="39" t="n"/>
-      <c r="AG9" s="39" t="n"/>
-      <c r="AH9" s="39" t="n"/>
-      <c r="AI9" s="39" t="n"/>
-      <c r="AJ9" s="39" t="n"/>
-      <c r="AK9" s="39" t="n"/>
-      <c r="AL9" s="39" t="n"/>
-      <c r="AM9" s="39" t="n"/>
-      <c r="AN9" s="39" t="n"/>
-      <c r="AO9" s="39" t="n"/>
-      <c r="AP9" s="39" t="n"/>
-      <c r="AQ9" s="39" t="n"/>
-      <c r="AR9" s="39" t="n"/>
-      <c r="AS9" s="39" t="n"/>
-      <c r="AT9" s="39" t="n"/>
-      <c r="AU9" s="39" t="n"/>
-      <c r="AV9" s="39" t="n"/>
-      <c r="AW9" s="39" t="n"/>
-      <c r="AX9" s="39" t="n"/>
-      <c r="AY9" s="39" t="n"/>
-      <c r="AZ9" s="39" t="n"/>
-      <c r="BA9" s="39" t="n"/>
-      <c r="BB9" s="39" t="n"/>
-      <c r="BC9" s="39" t="n"/>
-      <c r="BD9" s="39" t="n"/>
-      <c r="BE9" s="39" t="n"/>
-      <c r="BF9" s="39" t="n"/>
-      <c r="BG9" s="39" t="n"/>
-      <c r="BH9" s="39" t="n"/>
-      <c r="BI9" s="39" t="n"/>
-      <c r="BJ9" s="39" t="n"/>
-      <c r="BK9" s="39" t="n"/>
-      <c r="BL9" s="39" t="n"/>
-      <c r="BM9" s="39" t="n"/>
-      <c r="BN9" s="39" t="n"/>
-      <c r="BO9" s="39" t="n"/>
-      <c r="BP9" s="39" t="n"/>
-      <c r="BQ9" s="39" t="n"/>
-      <c r="BR9" s="39" t="n"/>
-      <c r="BS9" s="39" t="n"/>
-      <c r="BT9" s="39" t="n"/>
-      <c r="BU9" s="39" t="n"/>
-      <c r="BV9" s="39" t="n"/>
-      <c r="BW9" s="39" t="n"/>
-      <c r="BX9" s="39" t="n"/>
-      <c r="BY9" s="39" t="n"/>
-      <c r="BZ9" s="39" t="n"/>
-      <c r="CA9" s="39" t="n"/>
-      <c r="CB9" s="39" t="n"/>
-      <c r="CC9" s="39" t="n"/>
-      <c r="CD9" s="39" t="n"/>
-      <c r="CE9" s="39" t="n"/>
-      <c r="CF9" s="39" t="n"/>
-      <c r="CG9" s="39" t="n"/>
-      <c r="CH9" s="39" t="n"/>
-      <c r="CI9" s="39" t="n"/>
-      <c r="CJ9" s="40" t="n"/>
-    </row>
-    <row r="10" ht="40" customFormat="1" customHeight="1" s="18">
-      <c r="A10" s="55" t="inlineStr">
-        <is>
-          <t>VGRT</t>
-        </is>
-      </c>
-      <c r="B10" s="117" t="inlineStr">
-        <is>
-          <t>8, 88, 99</t>
+      <c r="E9" s="38" t="n"/>
+      <c r="F9" s="38" t="n"/>
+      <c r="G9" s="38" t="n"/>
+      <c r="H9" s="38" t="n"/>
+      <c r="I9" s="38" t="n"/>
+      <c r="J9" s="38" t="n"/>
+      <c r="K9" s="38" t="n"/>
+      <c r="L9" s="38" t="n"/>
+      <c r="M9" s="38" t="n"/>
+      <c r="N9" s="38" t="n"/>
+      <c r="O9" s="38" t="n"/>
+      <c r="P9" s="38" t="n"/>
+      <c r="Q9" s="38" t="n"/>
+      <c r="R9" s="38" t="n"/>
+      <c r="S9" s="38" t="n"/>
+      <c r="T9" s="38" t="n"/>
+      <c r="U9" s="38" t="n"/>
+      <c r="V9" s="38" t="n"/>
+      <c r="W9" s="38" t="n"/>
+      <c r="X9" s="38" t="n"/>
+      <c r="Y9" s="38" t="n"/>
+      <c r="Z9" s="38" t="n"/>
+      <c r="AA9" s="38" t="n"/>
+      <c r="AB9" s="38" t="n"/>
+      <c r="AC9" s="38" t="n"/>
+      <c r="AD9" s="38" t="n"/>
+      <c r="AE9" s="38" t="n"/>
+      <c r="AF9" s="38" t="n"/>
+      <c r="AG9" s="38" t="n"/>
+      <c r="AH9" s="38" t="n"/>
+      <c r="AI9" s="38" t="n"/>
+      <c r="AJ9" s="38" t="n"/>
+      <c r="AK9" s="38" t="n"/>
+      <c r="AL9" s="38" t="n"/>
+      <c r="AM9" s="38" t="n"/>
+      <c r="AN9" s="38" t="n"/>
+      <c r="AO9" s="38" t="n"/>
+      <c r="AP9" s="38" t="n"/>
+      <c r="AQ9" s="38" t="n"/>
+      <c r="AR9" s="38" t="n"/>
+      <c r="AS9" s="38" t="n"/>
+      <c r="AT9" s="38" t="n"/>
+      <c r="AU9" s="38" t="n"/>
+      <c r="AV9" s="38" t="n"/>
+      <c r="AW9" s="38" t="n"/>
+      <c r="AX9" s="38" t="n"/>
+      <c r="AY9" s="38" t="n"/>
+      <c r="AZ9" s="38" t="n"/>
+      <c r="BA9" s="38" t="n"/>
+      <c r="BB9" s="38" t="n"/>
+      <c r="BC9" s="38" t="n"/>
+      <c r="BD9" s="38" t="n"/>
+      <c r="BE9" s="38" t="n"/>
+      <c r="BF9" s="38" t="n"/>
+      <c r="BG9" s="38" t="n"/>
+      <c r="BH9" s="38" t="n"/>
+      <c r="BI9" s="38" t="n"/>
+      <c r="BJ9" s="38" t="n"/>
+      <c r="BK9" s="38" t="n"/>
+      <c r="BL9" s="38" t="n"/>
+      <c r="BM9" s="38" t="n"/>
+      <c r="BN9" s="38" t="n"/>
+      <c r="BO9" s="38" t="n"/>
+      <c r="BP9" s="38" t="n"/>
+      <c r="BQ9" s="38" t="n"/>
+      <c r="BR9" s="38" t="n"/>
+      <c r="BS9" s="38" t="n"/>
+      <c r="BT9" s="38" t="n"/>
+      <c r="BU9" s="38" t="n"/>
+      <c r="BV9" s="38" t="n"/>
+      <c r="BW9" s="38" t="n"/>
+      <c r="BX9" s="38" t="n"/>
+      <c r="BY9" s="38" t="n"/>
+      <c r="BZ9" s="38" t="n"/>
+      <c r="CA9" s="38" t="n"/>
+      <c r="CB9" s="38" t="n"/>
+      <c r="CC9" s="38" t="n"/>
+      <c r="CD9" s="38" t="n"/>
+      <c r="CE9" s="38" t="n"/>
+      <c r="CF9" s="38" t="n"/>
+      <c r="CG9" s="38" t="n"/>
+      <c r="CH9" s="38" t="n"/>
+      <c r="CI9" s="38" t="n"/>
+      <c r="CJ9" s="39" t="n"/>
+    </row>
+    <row r="10" ht="50.25" customFormat="1" customHeight="1" s="18">
+      <c r="A10" s="191" t="inlineStr">
+        <is>
+          <t>Fast Track Racing</t>
+        </is>
+      </c>
+      <c r="B10" s="188" t="inlineStr">
+        <is>
+          <t>21</t>
         </is>
       </c>
       <c r="C10" s="9" t="n"/>
       <c r="D10" s="10" t="n"/>
-      <c r="E10" s="39" t="n"/>
-      <c r="F10" s="39" t="n"/>
-      <c r="G10" s="39" t="n"/>
-      <c r="H10" s="39" t="n"/>
-      <c r="I10" s="39" t="n"/>
-      <c r="J10" s="39" t="n"/>
-      <c r="K10" s="39" t="n"/>
-      <c r="L10" s="39" t="n"/>
-      <c r="M10" s="39" t="n"/>
-      <c r="N10" s="39" t="n"/>
-      <c r="O10" s="39" t="n"/>
-      <c r="P10" s="39" t="n"/>
-      <c r="Q10" s="39" t="n"/>
-      <c r="R10" s="39" t="n"/>
-      <c r="S10" s="39" t="n"/>
-      <c r="T10" s="39" t="n"/>
-      <c r="U10" s="39" t="n"/>
-      <c r="V10" s="39" t="n"/>
-      <c r="W10" s="39" t="n"/>
-      <c r="X10" s="39" t="n"/>
-      <c r="Y10" s="39" t="n"/>
-      <c r="Z10" s="39" t="n"/>
-      <c r="AA10" s="39" t="n"/>
-      <c r="AB10" s="39" t="n"/>
-      <c r="AC10" s="39" t="n"/>
-      <c r="AD10" s="39" t="n"/>
-      <c r="AE10" s="39" t="n"/>
-      <c r="AF10" s="39" t="n"/>
-      <c r="AG10" s="39" t="n"/>
-      <c r="AH10" s="39" t="n"/>
-      <c r="AI10" s="39" t="n"/>
-      <c r="AJ10" s="39" t="n"/>
-      <c r="AK10" s="39" t="n"/>
-      <c r="AL10" s="39" t="n"/>
-      <c r="AM10" s="39" t="n"/>
-      <c r="AN10" s="39" t="n"/>
-      <c r="AO10" s="39" t="n"/>
-      <c r="AP10" s="39" t="n"/>
-      <c r="AQ10" s="39" t="n"/>
-      <c r="AR10" s="39" t="n"/>
-      <c r="AS10" s="39" t="n"/>
-      <c r="AT10" s="39" t="n"/>
-      <c r="AU10" s="39" t="n"/>
-      <c r="AV10" s="39" t="n"/>
-      <c r="AW10" s="39" t="n"/>
-      <c r="AX10" s="39" t="n"/>
-      <c r="AY10" s="39" t="n"/>
-      <c r="AZ10" s="39" t="n"/>
-      <c r="BA10" s="39" t="n"/>
-      <c r="BB10" s="39" t="n"/>
-      <c r="BC10" s="39" t="n"/>
-      <c r="BD10" s="39" t="n"/>
-      <c r="BE10" s="39" t="n"/>
-      <c r="BF10" s="39" t="n"/>
-      <c r="BG10" s="39" t="n"/>
-      <c r="BH10" s="39" t="n"/>
-      <c r="BI10" s="39" t="n"/>
-      <c r="BJ10" s="39" t="n"/>
-      <c r="BK10" s="39" t="n"/>
-      <c r="BL10" s="39" t="n"/>
-      <c r="BM10" s="39" t="n"/>
-      <c r="BN10" s="39" t="n"/>
-      <c r="BO10" s="39" t="n"/>
-      <c r="BP10" s="39" t="n"/>
-      <c r="BQ10" s="39" t="n"/>
-      <c r="BR10" s="39" t="n"/>
-      <c r="BS10" s="39" t="n"/>
-      <c r="BT10" s="39" t="n"/>
-      <c r="BU10" s="39" t="n"/>
-      <c r="BV10" s="39" t="n"/>
-      <c r="BW10" s="39" t="n"/>
-      <c r="BX10" s="39" t="n"/>
-      <c r="BY10" s="39" t="n"/>
-      <c r="BZ10" s="39" t="n"/>
-      <c r="CA10" s="39" t="n"/>
-      <c r="CB10" s="39" t="n"/>
-      <c r="CC10" s="39" t="n"/>
-      <c r="CD10" s="39" t="n"/>
-      <c r="CE10" s="39" t="n"/>
-      <c r="CF10" s="39" t="n"/>
-      <c r="CG10" s="39" t="n"/>
-      <c r="CH10" s="39" t="n"/>
-      <c r="CI10" s="39" t="n"/>
-      <c r="CJ10" s="40" t="n"/>
-    </row>
-    <row r="11" ht="40" customFormat="1" customHeight="1" s="18">
-      <c r="A11" s="117" t="inlineStr">
-        <is>
-          <t>DRS</t>
-        </is>
-      </c>
-      <c r="B11" s="118" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="E10" s="38" t="n"/>
+      <c r="F10" s="38" t="n"/>
+      <c r="G10" s="38" t="n"/>
+      <c r="H10" s="38" t="n"/>
+      <c r="I10" s="38" t="n"/>
+      <c r="J10" s="38" t="n"/>
+      <c r="K10" s="38" t="n"/>
+      <c r="L10" s="38" t="n"/>
+      <c r="M10" s="38" t="n"/>
+      <c r="N10" s="38" t="n"/>
+      <c r="O10" s="38" t="n"/>
+      <c r="P10" s="38" t="n"/>
+      <c r="Q10" s="38" t="n"/>
+      <c r="R10" s="38" t="n"/>
+      <c r="S10" s="38" t="n"/>
+      <c r="T10" s="38" t="n"/>
+      <c r="U10" s="38" t="n"/>
+      <c r="V10" s="38" t="n"/>
+      <c r="W10" s="38" t="n"/>
+      <c r="X10" s="38" t="n"/>
+      <c r="Y10" s="38" t="n"/>
+      <c r="Z10" s="38" t="n"/>
+      <c r="AA10" s="38" t="n"/>
+      <c r="AB10" s="38" t="n"/>
+      <c r="AC10" s="38" t="n"/>
+      <c r="AD10" s="38" t="n"/>
+      <c r="AE10" s="38" t="n"/>
+      <c r="AF10" s="38" t="n"/>
+      <c r="AG10" s="38" t="n"/>
+      <c r="AH10" s="38" t="n"/>
+      <c r="AI10" s="38" t="n"/>
+      <c r="AJ10" s="38" t="n"/>
+      <c r="AK10" s="38" t="n"/>
+      <c r="AL10" s="38" t="n"/>
+      <c r="AM10" s="38" t="n"/>
+      <c r="AN10" s="38" t="n"/>
+      <c r="AO10" s="38" t="n"/>
+      <c r="AP10" s="38" t="n"/>
+      <c r="AQ10" s="38" t="n"/>
+      <c r="AR10" s="38" t="n"/>
+      <c r="AS10" s="38" t="n"/>
+      <c r="AT10" s="38" t="n"/>
+      <c r="AU10" s="38" t="n"/>
+      <c r="AV10" s="38" t="n"/>
+      <c r="AW10" s="38" t="n"/>
+      <c r="AX10" s="38" t="n"/>
+      <c r="AY10" s="38" t="n"/>
+      <c r="AZ10" s="38" t="n"/>
+      <c r="BA10" s="38" t="n"/>
+      <c r="BB10" s="38" t="n"/>
+      <c r="BC10" s="38" t="n"/>
+      <c r="BD10" s="38" t="n"/>
+      <c r="BE10" s="38" t="n"/>
+      <c r="BF10" s="38" t="n"/>
+      <c r="BG10" s="38" t="n"/>
+      <c r="BH10" s="38" t="n"/>
+      <c r="BI10" s="38" t="n"/>
+      <c r="BJ10" s="38" t="n"/>
+      <c r="BK10" s="38" t="n"/>
+      <c r="BL10" s="38" t="n"/>
+      <c r="BM10" s="38" t="n"/>
+      <c r="BN10" s="38" t="n"/>
+      <c r="BO10" s="38" t="n"/>
+      <c r="BP10" s="38" t="n"/>
+      <c r="BQ10" s="38" t="n"/>
+      <c r="BR10" s="38" t="n"/>
+      <c r="BS10" s="38" t="n"/>
+      <c r="BT10" s="38" t="n"/>
+      <c r="BU10" s="38" t="n"/>
+      <c r="BV10" s="38" t="n"/>
+      <c r="BW10" s="38" t="n"/>
+      <c r="BX10" s="38" t="n"/>
+      <c r="BY10" s="38" t="n"/>
+      <c r="BZ10" s="38" t="n"/>
+      <c r="CA10" s="38" t="n"/>
+      <c r="CB10" s="38" t="n"/>
+      <c r="CC10" s="38" t="n"/>
+      <c r="CD10" s="38" t="n"/>
+      <c r="CE10" s="38" t="n"/>
+      <c r="CF10" s="38" t="n"/>
+      <c r="CG10" s="38" t="n"/>
+      <c r="CH10" s="38" t="n"/>
+      <c r="CI10" s="38" t="n"/>
+      <c r="CJ10" s="39" t="n"/>
+    </row>
+    <row r="11" ht="50.25" customFormat="1" customHeight="1" s="18">
+      <c r="A11" s="188" t="inlineStr">
+        <is>
+          <t>GenRacer</t>
+        </is>
+      </c>
+      <c r="B11" s="100" t="inlineStr">
+        <is>
+          <t>780</t>
         </is>
       </c>
       <c r="C11" s="26" t="n"/>
-      <c r="D11" s="137" t="n"/>
-      <c r="E11" s="39" t="n"/>
-      <c r="F11" s="39" t="n"/>
-      <c r="G11" s="39" t="n"/>
-      <c r="H11" s="39" t="n"/>
-      <c r="I11" s="39" t="n"/>
-      <c r="J11" s="39" t="n"/>
-      <c r="K11" s="39" t="n"/>
-      <c r="L11" s="39" t="n"/>
-      <c r="M11" s="39" t="n"/>
-      <c r="N11" s="39" t="n"/>
-      <c r="O11" s="39" t="n"/>
-      <c r="P11" s="39" t="n"/>
-      <c r="Q11" s="39" t="n"/>
-      <c r="R11" s="39" t="n"/>
-      <c r="S11" s="39" t="n"/>
-      <c r="T11" s="39" t="n"/>
-      <c r="U11" s="39" t="n"/>
-      <c r="V11" s="39" t="n"/>
-      <c r="W11" s="39" t="n"/>
-      <c r="X11" s="39" t="n"/>
-      <c r="Y11" s="39" t="n"/>
-      <c r="Z11" s="39" t="n"/>
-      <c r="AA11" s="39" t="n"/>
-      <c r="AB11" s="39" t="n"/>
-      <c r="AC11" s="39" t="n"/>
-      <c r="AD11" s="39" t="n"/>
-      <c r="AE11" s="39" t="n"/>
-      <c r="AF11" s="39" t="n"/>
-      <c r="AG11" s="39" t="n"/>
-      <c r="AH11" s="39" t="n"/>
-      <c r="AI11" s="39" t="n"/>
-      <c r="AJ11" s="39" t="n"/>
-      <c r="AK11" s="39" t="n"/>
-      <c r="AL11" s="39" t="n"/>
-      <c r="AM11" s="39" t="n"/>
-      <c r="AN11" s="39" t="n"/>
-      <c r="AO11" s="39" t="n"/>
-      <c r="AP11" s="39" t="n"/>
-      <c r="AQ11" s="39" t="n"/>
-      <c r="AR11" s="39" t="n"/>
-      <c r="AS11" s="39" t="n"/>
-      <c r="AT11" s="39" t="n"/>
-      <c r="AU11" s="39" t="n"/>
-      <c r="AV11" s="39" t="n"/>
-      <c r="AW11" s="39" t="n"/>
-      <c r="AX11" s="39" t="n"/>
-      <c r="AY11" s="39" t="n"/>
-      <c r="AZ11" s="39" t="n"/>
-      <c r="BA11" s="39" t="n"/>
-      <c r="BB11" s="39" t="n"/>
-      <c r="BC11" s="39" t="n"/>
-      <c r="BD11" s="39" t="n"/>
-      <c r="BE11" s="39" t="n"/>
-      <c r="BF11" s="39" t="n"/>
-      <c r="BG11" s="39" t="n"/>
-      <c r="BH11" s="39" t="n"/>
-      <c r="BI11" s="39" t="n"/>
-      <c r="BJ11" s="39" t="n"/>
-      <c r="BK11" s="39" t="n"/>
-      <c r="BL11" s="39" t="n"/>
-      <c r="BM11" s="39" t="n"/>
-      <c r="BN11" s="39" t="n"/>
-      <c r="BO11" s="39" t="n"/>
-      <c r="BP11" s="39" t="n"/>
-      <c r="BQ11" s="39" t="n"/>
-      <c r="BR11" s="39" t="n"/>
-      <c r="BS11" s="39" t="n"/>
-      <c r="BT11" s="39" t="n"/>
-      <c r="BU11" s="39" t="n"/>
-      <c r="BV11" s="39" t="n"/>
-      <c r="BW11" s="39" t="n"/>
-      <c r="BX11" s="39" t="n"/>
-      <c r="BY11" s="39" t="n"/>
-      <c r="BZ11" s="39" t="n"/>
-      <c r="CA11" s="39" t="n"/>
-      <c r="CB11" s="39" t="n"/>
-      <c r="CC11" s="39" t="n"/>
-      <c r="CD11" s="39" t="n"/>
-      <c r="CE11" s="39" t="n"/>
-      <c r="CF11" s="39" t="n"/>
-      <c r="CG11" s="39" t="n"/>
-      <c r="CH11" s="39" t="n"/>
-      <c r="CI11" s="39" t="n"/>
-      <c r="CJ11" s="40" t="n"/>
-    </row>
-    <row r="12" ht="40" customFormat="1" customHeight="1" s="18">
-      <c r="A12" s="133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AOA Racing </t>
-        </is>
-      </c>
-      <c r="B12" s="121" t="inlineStr">
-        <is>
-          <t>14</t>
+      <c r="D11" s="118" t="n"/>
+      <c r="E11" s="38" t="n"/>
+      <c r="F11" s="38" t="n"/>
+      <c r="G11" s="38" t="n"/>
+      <c r="H11" s="38" t="n"/>
+      <c r="I11" s="38" t="n"/>
+      <c r="J11" s="38" t="n"/>
+      <c r="K11" s="38" t="n"/>
+      <c r="L11" s="38" t="n"/>
+      <c r="M11" s="38" t="n"/>
+      <c r="N11" s="38" t="n"/>
+      <c r="O11" s="38" t="n"/>
+      <c r="P11" s="38" t="n"/>
+      <c r="Q11" s="38" t="n"/>
+      <c r="R11" s="38" t="n"/>
+      <c r="S11" s="38" t="n"/>
+      <c r="T11" s="38" t="n"/>
+      <c r="U11" s="38" t="n"/>
+      <c r="V11" s="38" t="n"/>
+      <c r="W11" s="38" t="n"/>
+      <c r="X11" s="38" t="n"/>
+      <c r="Y11" s="38" t="n"/>
+      <c r="Z11" s="38" t="n"/>
+      <c r="AA11" s="38" t="n"/>
+      <c r="AB11" s="38" t="n"/>
+      <c r="AC11" s="38" t="n"/>
+      <c r="AD11" s="38" t="n"/>
+      <c r="AE11" s="38" t="n"/>
+      <c r="AF11" s="38" t="n"/>
+      <c r="AG11" s="38" t="n"/>
+      <c r="AH11" s="38" t="n"/>
+      <c r="AI11" s="38" t="n"/>
+      <c r="AJ11" s="38" t="n"/>
+      <c r="AK11" s="38" t="n"/>
+      <c r="AL11" s="38" t="n"/>
+      <c r="AM11" s="38" t="n"/>
+      <c r="AN11" s="38" t="n"/>
+      <c r="AO11" s="38" t="n"/>
+      <c r="AP11" s="38" t="n"/>
+      <c r="AQ11" s="38" t="n"/>
+      <c r="AR11" s="38" t="n"/>
+      <c r="AS11" s="38" t="n"/>
+      <c r="AT11" s="38" t="n"/>
+      <c r="AU11" s="38" t="n"/>
+      <c r="AV11" s="38" t="n"/>
+      <c r="AW11" s="38" t="n"/>
+      <c r="AX11" s="38" t="n"/>
+      <c r="AY11" s="38" t="n"/>
+      <c r="AZ11" s="38" t="n"/>
+      <c r="BA11" s="38" t="n"/>
+      <c r="BB11" s="38" t="n"/>
+      <c r="BC11" s="38" t="n"/>
+      <c r="BD11" s="38" t="n"/>
+      <c r="BE11" s="38" t="n"/>
+      <c r="BF11" s="38" t="n"/>
+      <c r="BG11" s="38" t="n"/>
+      <c r="BH11" s="38" t="n"/>
+      <c r="BI11" s="38" t="n"/>
+      <c r="BJ11" s="38" t="n"/>
+      <c r="BK11" s="38" t="n"/>
+      <c r="BL11" s="38" t="n"/>
+      <c r="BM11" s="38" t="n"/>
+      <c r="BN11" s="38" t="n"/>
+      <c r="BO11" s="38" t="n"/>
+      <c r="BP11" s="38" t="n"/>
+      <c r="BQ11" s="38" t="n"/>
+      <c r="BR11" s="38" t="n"/>
+      <c r="BS11" s="38" t="n"/>
+      <c r="BT11" s="38" t="n"/>
+      <c r="BU11" s="38" t="n"/>
+      <c r="BV11" s="38" t="n"/>
+      <c r="BW11" s="38" t="n"/>
+      <c r="BX11" s="38" t="n"/>
+      <c r="BY11" s="38" t="n"/>
+      <c r="BZ11" s="38" t="n"/>
+      <c r="CA11" s="38" t="n"/>
+      <c r="CB11" s="38" t="n"/>
+      <c r="CC11" s="38" t="n"/>
+      <c r="CD11" s="38" t="n"/>
+      <c r="CE11" s="38" t="n"/>
+      <c r="CF11" s="38" t="n"/>
+      <c r="CG11" s="38" t="n"/>
+      <c r="CH11" s="38" t="n"/>
+      <c r="CI11" s="38" t="n"/>
+      <c r="CJ11" s="39" t="n"/>
+    </row>
+    <row r="12" ht="50.25" customFormat="1" customHeight="1" s="18">
+      <c r="A12" s="114" t="inlineStr">
+        <is>
+          <t>Genracer / Ricca Autosport</t>
+        </is>
+      </c>
+      <c r="B12" s="102" t="inlineStr">
+        <is>
+          <t>78</t>
         </is>
       </c>
       <c r="C12" s="9" t="n"/>
       <c r="D12" s="10" t="n"/>
-      <c r="E12" s="39" t="n"/>
-      <c r="F12" s="39" t="n"/>
-      <c r="G12" s="39" t="n"/>
-      <c r="H12" s="39" t="n"/>
-      <c r="I12" s="39" t="n"/>
-      <c r="J12" s="39" t="n"/>
-      <c r="K12" s="39" t="n"/>
-      <c r="L12" s="39" t="n"/>
-      <c r="M12" s="39" t="n"/>
-      <c r="N12" s="39" t="n"/>
-      <c r="O12" s="39" t="n"/>
-      <c r="P12" s="39" t="n"/>
-      <c r="Q12" s="39" t="n"/>
-      <c r="R12" s="39" t="n"/>
-      <c r="S12" s="39" t="n"/>
-      <c r="T12" s="39" t="n"/>
-      <c r="U12" s="39" t="n"/>
-      <c r="V12" s="39" t="n"/>
-      <c r="W12" s="39" t="n"/>
-      <c r="X12" s="39" t="n"/>
-      <c r="Y12" s="39" t="n"/>
-      <c r="Z12" s="39" t="n"/>
-      <c r="AA12" s="39" t="n"/>
-      <c r="AB12" s="39" t="n"/>
-      <c r="AC12" s="39" t="n"/>
-      <c r="AD12" s="39" t="n"/>
-      <c r="AE12" s="39" t="n"/>
-      <c r="AF12" s="39" t="n"/>
-      <c r="AG12" s="39" t="n"/>
-      <c r="AH12" s="39" t="n"/>
-      <c r="AI12" s="39" t="n"/>
-      <c r="AJ12" s="39" t="n"/>
-      <c r="AK12" s="39" t="n"/>
-      <c r="AL12" s="39" t="n"/>
-      <c r="AM12" s="39" t="n"/>
-      <c r="AN12" s="39" t="n"/>
-      <c r="AO12" s="39" t="n"/>
-      <c r="AP12" s="39" t="n"/>
-      <c r="AQ12" s="39" t="n"/>
-      <c r="AR12" s="39" t="n"/>
-      <c r="AS12" s="39" t="n"/>
-      <c r="AT12" s="39" t="n"/>
-      <c r="AU12" s="39" t="n"/>
-      <c r="AV12" s="39" t="n"/>
-      <c r="AW12" s="39" t="n"/>
-      <c r="AX12" s="39" t="n"/>
-      <c r="AY12" s="39" t="n"/>
-      <c r="AZ12" s="39" t="n"/>
-      <c r="BA12" s="39" t="n"/>
-      <c r="BB12" s="39" t="n"/>
-      <c r="BC12" s="39" t="n"/>
-      <c r="BD12" s="39" t="n"/>
-      <c r="BE12" s="39" t="n"/>
-      <c r="BF12" s="39" t="n"/>
-      <c r="BG12" s="39" t="n"/>
-      <c r="BH12" s="39" t="n"/>
-      <c r="BI12" s="39" t="n"/>
-      <c r="BJ12" s="39" t="n"/>
-      <c r="BK12" s="39" t="n"/>
-      <c r="BL12" s="39" t="n"/>
-      <c r="BM12" s="39" t="n"/>
-      <c r="BN12" s="39" t="n"/>
-      <c r="BO12" s="39" t="n"/>
-      <c r="BP12" s="39" t="n"/>
-      <c r="BQ12" s="39" t="n"/>
-      <c r="BR12" s="39" t="n"/>
-      <c r="BS12" s="39" t="n"/>
-      <c r="BT12" s="39" t="n"/>
-      <c r="BU12" s="39" t="n"/>
-      <c r="BV12" s="39" t="n"/>
-      <c r="BW12" s="39" t="n"/>
-      <c r="BX12" s="39" t="n"/>
-      <c r="BY12" s="39" t="n"/>
-      <c r="BZ12" s="39" t="n"/>
-      <c r="CA12" s="39" t="n"/>
-      <c r="CB12" s="39" t="n"/>
-      <c r="CC12" s="39" t="n"/>
-      <c r="CD12" s="39" t="n"/>
-      <c r="CE12" s="39" t="n"/>
-      <c r="CF12" s="39" t="n"/>
-      <c r="CG12" s="39" t="n"/>
-      <c r="CH12" s="39" t="n"/>
-      <c r="CI12" s="39" t="n"/>
-      <c r="CJ12" s="40" t="n"/>
-    </row>
-    <row r="13" ht="40" customFormat="1" customHeight="1" s="18">
-      <c r="A13" s="101" t="inlineStr">
-        <is>
-          <t>Fast Track Racing</t>
-        </is>
-      </c>
-      <c r="B13" s="121" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C13" s="136" t="n"/>
+      <c r="E12" s="38" t="n"/>
+      <c r="F12" s="38" t="n"/>
+      <c r="G12" s="38" t="n"/>
+      <c r="H12" s="38" t="n"/>
+      <c r="I12" s="38" t="n"/>
+      <c r="J12" s="38" t="n"/>
+      <c r="K12" s="38" t="n"/>
+      <c r="L12" s="38" t="n"/>
+      <c r="M12" s="38" t="n"/>
+      <c r="N12" s="38" t="n"/>
+      <c r="O12" s="38" t="n"/>
+      <c r="P12" s="38" t="n"/>
+      <c r="Q12" s="38" t="n"/>
+      <c r="R12" s="38" t="n"/>
+      <c r="S12" s="38" t="n"/>
+      <c r="T12" s="38" t="n"/>
+      <c r="U12" s="38" t="n"/>
+      <c r="V12" s="38" t="n"/>
+      <c r="W12" s="38" t="n"/>
+      <c r="X12" s="38" t="n"/>
+      <c r="Y12" s="38" t="n"/>
+      <c r="Z12" s="38" t="n"/>
+      <c r="AA12" s="38" t="n"/>
+      <c r="AB12" s="38" t="n"/>
+      <c r="AC12" s="38" t="n"/>
+      <c r="AD12" s="38" t="n"/>
+      <c r="AE12" s="38" t="n"/>
+      <c r="AF12" s="38" t="n"/>
+      <c r="AG12" s="38" t="n"/>
+      <c r="AH12" s="38" t="n"/>
+      <c r="AI12" s="38" t="n"/>
+      <c r="AJ12" s="38" t="n"/>
+      <c r="AK12" s="38" t="n"/>
+      <c r="AL12" s="38" t="n"/>
+      <c r="AM12" s="38" t="n"/>
+      <c r="AN12" s="38" t="n"/>
+      <c r="AO12" s="38" t="n"/>
+      <c r="AP12" s="38" t="n"/>
+      <c r="AQ12" s="38" t="n"/>
+      <c r="AR12" s="38" t="n"/>
+      <c r="AS12" s="38" t="n"/>
+      <c r="AT12" s="38" t="n"/>
+      <c r="AU12" s="38" t="n"/>
+      <c r="AV12" s="38" t="n"/>
+      <c r="AW12" s="38" t="n"/>
+      <c r="AX12" s="38" t="n"/>
+      <c r="AY12" s="38" t="n"/>
+      <c r="AZ12" s="38" t="n"/>
+      <c r="BA12" s="38" t="n"/>
+      <c r="BB12" s="38" t="n"/>
+      <c r="BC12" s="38" t="n"/>
+      <c r="BD12" s="38" t="n"/>
+      <c r="BE12" s="38" t="n"/>
+      <c r="BF12" s="38" t="n"/>
+      <c r="BG12" s="38" t="n"/>
+      <c r="BH12" s="38" t="n"/>
+      <c r="BI12" s="38" t="n"/>
+      <c r="BJ12" s="38" t="n"/>
+      <c r="BK12" s="38" t="n"/>
+      <c r="BL12" s="38" t="n"/>
+      <c r="BM12" s="38" t="n"/>
+      <c r="BN12" s="38" t="n"/>
+      <c r="BO12" s="38" t="n"/>
+      <c r="BP12" s="38" t="n"/>
+      <c r="BQ12" s="38" t="n"/>
+      <c r="BR12" s="38" t="n"/>
+      <c r="BS12" s="38" t="n"/>
+      <c r="BT12" s="38" t="n"/>
+      <c r="BU12" s="38" t="n"/>
+      <c r="BV12" s="38" t="n"/>
+      <c r="BW12" s="38" t="n"/>
+      <c r="BX12" s="38" t="n"/>
+      <c r="BY12" s="38" t="n"/>
+      <c r="BZ12" s="38" t="n"/>
+      <c r="CA12" s="38" t="n"/>
+      <c r="CB12" s="38" t="n"/>
+      <c r="CC12" s="38" t="n"/>
+      <c r="CD12" s="38" t="n"/>
+      <c r="CE12" s="38" t="n"/>
+      <c r="CF12" s="38" t="n"/>
+      <c r="CG12" s="38" t="n"/>
+      <c r="CH12" s="38" t="n"/>
+      <c r="CI12" s="38" t="n"/>
+      <c r="CJ12" s="39" t="n"/>
+    </row>
+    <row r="13" ht="50.25" customFormat="1" customHeight="1" s="18">
+      <c r="A13" s="89" t="inlineStr">
+        <is>
+          <t>Ian Lacy Racing</t>
+        </is>
+      </c>
+      <c r="B13" s="102" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="C13" s="117" t="n"/>
       <c r="D13" s="8" t="n"/>
-      <c r="E13" s="39" t="n"/>
-      <c r="F13" s="39" t="n"/>
-      <c r="G13" s="39" t="n"/>
-      <c r="H13" s="39" t="n"/>
-      <c r="I13" s="39" t="n"/>
-      <c r="J13" s="39" t="n"/>
-      <c r="K13" s="39" t="n"/>
-      <c r="L13" s="39" t="n"/>
-      <c r="M13" s="39" t="n"/>
-      <c r="N13" s="39" t="n"/>
-      <c r="O13" s="39" t="n"/>
-      <c r="P13" s="39" t="n"/>
-      <c r="Q13" s="39" t="n"/>
-      <c r="R13" s="39" t="n"/>
-      <c r="S13" s="39" t="n"/>
-      <c r="T13" s="39" t="n"/>
-      <c r="U13" s="39" t="n"/>
-      <c r="V13" s="39" t="n"/>
-      <c r="W13" s="39" t="n"/>
-      <c r="X13" s="39" t="n"/>
-      <c r="Y13" s="39" t="n"/>
-      <c r="Z13" s="39" t="n"/>
-      <c r="AA13" s="39" t="n"/>
-      <c r="AB13" s="39" t="n"/>
-      <c r="AC13" s="39" t="n"/>
-      <c r="AD13" s="39" t="n"/>
-      <c r="AE13" s="39" t="n"/>
-      <c r="AF13" s="39" t="n"/>
-      <c r="AG13" s="39" t="n"/>
-      <c r="AH13" s="39" t="n"/>
-      <c r="AI13" s="39" t="n"/>
-      <c r="AJ13" s="39" t="n"/>
-      <c r="AK13" s="39" t="n"/>
-      <c r="AL13" s="39" t="n"/>
-      <c r="AM13" s="39" t="n"/>
-      <c r="AN13" s="39" t="n"/>
-      <c r="AO13" s="39" t="n"/>
-      <c r="AP13" s="39" t="n"/>
-      <c r="AQ13" s="39" t="n"/>
-      <c r="AR13" s="39" t="n"/>
-      <c r="AS13" s="39" t="n"/>
-      <c r="AT13" s="39" t="n"/>
-      <c r="AU13" s="39" t="n"/>
-      <c r="AV13" s="39" t="n"/>
-      <c r="AW13" s="39" t="n"/>
-      <c r="AX13" s="39" t="n"/>
-      <c r="AY13" s="39" t="n"/>
-      <c r="AZ13" s="39" t="n"/>
-      <c r="BA13" s="39" t="n"/>
-      <c r="BB13" s="39" t="n"/>
-      <c r="BC13" s="39" t="n"/>
-      <c r="BD13" s="39" t="n"/>
-      <c r="BE13" s="39" t="n"/>
-      <c r="BF13" s="39" t="n"/>
-      <c r="BG13" s="39" t="n"/>
-      <c r="BH13" s="39" t="n"/>
-      <c r="BI13" s="39" t="n"/>
-      <c r="BJ13" s="39" t="n"/>
-      <c r="BK13" s="39" t="n"/>
-      <c r="BL13" s="39" t="n"/>
-      <c r="BM13" s="39" t="n"/>
-      <c r="BN13" s="39" t="n"/>
-      <c r="BO13" s="39" t="n"/>
-      <c r="BP13" s="39" t="n"/>
-      <c r="BQ13" s="39" t="n"/>
-      <c r="BR13" s="39" t="n"/>
-      <c r="BS13" s="39" t="n"/>
-      <c r="BT13" s="39" t="n"/>
-      <c r="BU13" s="39" t="n"/>
-      <c r="BV13" s="39" t="n"/>
-      <c r="BW13" s="39" t="n"/>
-      <c r="BX13" s="39" t="n"/>
-      <c r="BY13" s="39" t="n"/>
-      <c r="BZ13" s="39" t="n"/>
-      <c r="CA13" s="39" t="n"/>
-      <c r="CB13" s="39" t="n"/>
-      <c r="CC13" s="39" t="n"/>
-      <c r="CD13" s="39" t="n"/>
-      <c r="CE13" s="39" t="n"/>
-      <c r="CF13" s="39" t="n"/>
-      <c r="CG13" s="39" t="n"/>
-      <c r="CH13" s="39" t="n"/>
-      <c r="CI13" s="39" t="n"/>
-      <c r="CJ13" s="40" t="n"/>
-    </row>
-    <row r="14" ht="40" customFormat="1" customHeight="1" s="18">
-      <c r="A14" s="101" t="inlineStr">
-        <is>
-          <t>TechSport Racing</t>
-        </is>
-      </c>
-      <c r="B14" s="117" t="inlineStr">
-        <is>
-          <t>22, 23</t>
+      <c r="E13" s="38" t="n"/>
+      <c r="F13" s="38" t="n"/>
+      <c r="G13" s="38" t="n"/>
+      <c r="H13" s="38" t="n"/>
+      <c r="I13" s="38" t="n"/>
+      <c r="J13" s="38" t="n"/>
+      <c r="K13" s="38" t="n"/>
+      <c r="L13" s="38" t="n"/>
+      <c r="M13" s="38" t="n"/>
+      <c r="N13" s="38" t="n"/>
+      <c r="O13" s="38" t="n"/>
+      <c r="P13" s="38" t="n"/>
+      <c r="Q13" s="38" t="n"/>
+      <c r="R13" s="38" t="n"/>
+      <c r="S13" s="38" t="n"/>
+      <c r="T13" s="38" t="n"/>
+      <c r="U13" s="38" t="n"/>
+      <c r="V13" s="38" t="n"/>
+      <c r="W13" s="38" t="n"/>
+      <c r="X13" s="38" t="n"/>
+      <c r="Y13" s="38" t="n"/>
+      <c r="Z13" s="38" t="n"/>
+      <c r="AA13" s="38" t="n"/>
+      <c r="AB13" s="38" t="n"/>
+      <c r="AC13" s="38" t="n"/>
+      <c r="AD13" s="38" t="n"/>
+      <c r="AE13" s="38" t="n"/>
+      <c r="AF13" s="38" t="n"/>
+      <c r="AG13" s="38" t="n"/>
+      <c r="AH13" s="38" t="n"/>
+      <c r="AI13" s="38" t="n"/>
+      <c r="AJ13" s="38" t="n"/>
+      <c r="AK13" s="38" t="n"/>
+      <c r="AL13" s="38" t="n"/>
+      <c r="AM13" s="38" t="n"/>
+      <c r="AN13" s="38" t="n"/>
+      <c r="AO13" s="38" t="n"/>
+      <c r="AP13" s="38" t="n"/>
+      <c r="AQ13" s="38" t="n"/>
+      <c r="AR13" s="38" t="n"/>
+      <c r="AS13" s="38" t="n"/>
+      <c r="AT13" s="38" t="n"/>
+      <c r="AU13" s="38" t="n"/>
+      <c r="AV13" s="38" t="n"/>
+      <c r="AW13" s="38" t="n"/>
+      <c r="AX13" s="38" t="n"/>
+      <c r="AY13" s="38" t="n"/>
+      <c r="AZ13" s="38" t="n"/>
+      <c r="BA13" s="38" t="n"/>
+      <c r="BB13" s="38" t="n"/>
+      <c r="BC13" s="38" t="n"/>
+      <c r="BD13" s="38" t="n"/>
+      <c r="BE13" s="38" t="n"/>
+      <c r="BF13" s="38" t="n"/>
+      <c r="BG13" s="38" t="n"/>
+      <c r="BH13" s="38" t="n"/>
+      <c r="BI13" s="38" t="n"/>
+      <c r="BJ13" s="38" t="n"/>
+      <c r="BK13" s="38" t="n"/>
+      <c r="BL13" s="38" t="n"/>
+      <c r="BM13" s="38" t="n"/>
+      <c r="BN13" s="38" t="n"/>
+      <c r="BO13" s="38" t="n"/>
+      <c r="BP13" s="38" t="n"/>
+      <c r="BQ13" s="38" t="n"/>
+      <c r="BR13" s="38" t="n"/>
+      <c r="BS13" s="38" t="n"/>
+      <c r="BT13" s="38" t="n"/>
+      <c r="BU13" s="38" t="n"/>
+      <c r="BV13" s="38" t="n"/>
+      <c r="BW13" s="38" t="n"/>
+      <c r="BX13" s="38" t="n"/>
+      <c r="BY13" s="38" t="n"/>
+      <c r="BZ13" s="38" t="n"/>
+      <c r="CA13" s="38" t="n"/>
+      <c r="CB13" s="38" t="n"/>
+      <c r="CC13" s="38" t="n"/>
+      <c r="CD13" s="38" t="n"/>
+      <c r="CE13" s="38" t="n"/>
+      <c r="CF13" s="38" t="n"/>
+      <c r="CG13" s="38" t="n"/>
+      <c r="CH13" s="38" t="n"/>
+      <c r="CI13" s="38" t="n"/>
+      <c r="CJ13" s="39" t="n"/>
+    </row>
+    <row r="14" ht="50.25" customFormat="1" customHeight="1" s="18">
+      <c r="A14" s="89" t="inlineStr">
+        <is>
+          <t>LA Honda World Racing</t>
+        </is>
+      </c>
+      <c r="B14" s="188" t="inlineStr">
+        <is>
+          <t>5, 07, 73</t>
         </is>
       </c>
       <c r="C14" s="17" t="n"/>
-      <c r="D14" s="46" t="n"/>
-      <c r="E14" s="39" t="n"/>
-      <c r="F14" s="39" t="n"/>
-      <c r="G14" s="39" t="n"/>
-      <c r="H14" s="39" t="n"/>
-      <c r="I14" s="39" t="n"/>
-      <c r="J14" s="39" t="n"/>
-      <c r="K14" s="39" t="n"/>
-      <c r="L14" s="39" t="n"/>
-      <c r="M14" s="39" t="n"/>
-      <c r="N14" s="39" t="n"/>
-      <c r="O14" s="39" t="n"/>
-      <c r="P14" s="39" t="n"/>
-      <c r="Q14" s="39" t="n"/>
-      <c r="R14" s="39" t="n"/>
-      <c r="S14" s="39" t="n"/>
-      <c r="T14" s="39" t="n"/>
-      <c r="U14" s="39" t="n"/>
-      <c r="V14" s="39" t="n"/>
-      <c r="W14" s="39" t="n"/>
-      <c r="X14" s="39" t="n"/>
-      <c r="Y14" s="39" t="n"/>
-      <c r="Z14" s="39" t="n"/>
-      <c r="AA14" s="39" t="n"/>
-      <c r="AB14" s="39" t="n"/>
-      <c r="AC14" s="39" t="n"/>
-      <c r="AD14" s="39" t="n"/>
-      <c r="AE14" s="39" t="n"/>
-      <c r="AF14" s="39" t="n"/>
-      <c r="AG14" s="39" t="n"/>
-      <c r="AH14" s="39" t="n"/>
-      <c r="AI14" s="39" t="n"/>
-      <c r="AJ14" s="39" t="n"/>
-      <c r="AK14" s="39" t="n"/>
-      <c r="AL14" s="39" t="n"/>
-      <c r="AM14" s="39" t="n"/>
-      <c r="AN14" s="39" t="n"/>
-      <c r="AO14" s="39" t="n"/>
-      <c r="AP14" s="39" t="n"/>
-      <c r="AQ14" s="39" t="n"/>
-      <c r="AR14" s="39" t="n"/>
-      <c r="AS14" s="39" t="n"/>
-      <c r="AT14" s="39" t="n"/>
-      <c r="AU14" s="39" t="n"/>
-      <c r="AV14" s="39" t="n"/>
-      <c r="AW14" s="39" t="n"/>
-      <c r="AX14" s="39" t="n"/>
-      <c r="AY14" s="39" t="n"/>
-      <c r="AZ14" s="39" t="n"/>
-      <c r="BA14" s="39" t="n"/>
-      <c r="BB14" s="39" t="n"/>
-      <c r="BC14" s="39" t="n"/>
-      <c r="BD14" s="39" t="n"/>
-      <c r="BE14" s="39" t="n"/>
-      <c r="BF14" s="39" t="n"/>
-      <c r="BG14" s="39" t="n"/>
-      <c r="BH14" s="39" t="n"/>
-      <c r="BI14" s="39" t="n"/>
-      <c r="BJ14" s="39" t="n"/>
-      <c r="BK14" s="39" t="n"/>
-      <c r="BL14" s="39" t="n"/>
-      <c r="BM14" s="39" t="n"/>
-      <c r="BN14" s="39" t="n"/>
-      <c r="BO14" s="39" t="n"/>
-      <c r="BP14" s="39" t="n"/>
-      <c r="BQ14" s="39" t="n"/>
-      <c r="BR14" s="39" t="n"/>
-      <c r="BS14" s="39" t="n"/>
-      <c r="BT14" s="39" t="n"/>
-      <c r="BU14" s="39" t="n"/>
-      <c r="BV14" s="39" t="n"/>
-      <c r="BW14" s="39" t="n"/>
-      <c r="BX14" s="39" t="n"/>
-      <c r="BY14" s="39" t="n"/>
-      <c r="BZ14" s="39" t="n"/>
-      <c r="CA14" s="39" t="n"/>
-      <c r="CB14" s="39" t="n"/>
-      <c r="CC14" s="39" t="n"/>
-      <c r="CD14" s="39" t="n"/>
-      <c r="CE14" s="39" t="n"/>
-      <c r="CF14" s="39" t="n"/>
-      <c r="CG14" s="39" t="n"/>
-      <c r="CH14" s="39" t="n"/>
-      <c r="CI14" s="39" t="n"/>
-      <c r="CJ14" s="40" t="n"/>
-    </row>
-    <row r="15" ht="40" customFormat="1" customHeight="1" s="18">
-      <c r="A15" s="101" t="inlineStr">
-        <is>
-          <t>Rigid Speed Company</t>
-        </is>
-      </c>
-      <c r="B15" s="117" t="inlineStr">
-        <is>
-          <t>24, 26</t>
+      <c r="D14" s="45" t="n"/>
+      <c r="E14" s="38" t="n"/>
+      <c r="F14" s="38" t="n"/>
+      <c r="G14" s="38" t="n"/>
+      <c r="H14" s="38" t="n"/>
+      <c r="I14" s="38" t="n"/>
+      <c r="J14" s="38" t="n"/>
+      <c r="K14" s="38" t="n"/>
+      <c r="L14" s="38" t="n"/>
+      <c r="M14" s="38" t="n"/>
+      <c r="N14" s="38" t="n"/>
+      <c r="O14" s="38" t="n"/>
+      <c r="P14" s="38" t="n"/>
+      <c r="Q14" s="38" t="n"/>
+      <c r="R14" s="38" t="n"/>
+      <c r="S14" s="38" t="n"/>
+      <c r="T14" s="38" t="n"/>
+      <c r="U14" s="38" t="n"/>
+      <c r="V14" s="38" t="n"/>
+      <c r="W14" s="38" t="n"/>
+      <c r="X14" s="38" t="n"/>
+      <c r="Y14" s="38" t="n"/>
+      <c r="Z14" s="38" t="n"/>
+      <c r="AA14" s="38" t="n"/>
+      <c r="AB14" s="38" t="n"/>
+      <c r="AC14" s="38" t="n"/>
+      <c r="AD14" s="38" t="n"/>
+      <c r="AE14" s="38" t="n"/>
+      <c r="AF14" s="38" t="n"/>
+      <c r="AG14" s="38" t="n"/>
+      <c r="AH14" s="38" t="n"/>
+      <c r="AI14" s="38" t="n"/>
+      <c r="AJ14" s="38" t="n"/>
+      <c r="AK14" s="38" t="n"/>
+      <c r="AL14" s="38" t="n"/>
+      <c r="AM14" s="38" t="n"/>
+      <c r="AN14" s="38" t="n"/>
+      <c r="AO14" s="38" t="n"/>
+      <c r="AP14" s="38" t="n"/>
+      <c r="AQ14" s="38" t="n"/>
+      <c r="AR14" s="38" t="n"/>
+      <c r="AS14" s="38" t="n"/>
+      <c r="AT14" s="38" t="n"/>
+      <c r="AU14" s="38" t="n"/>
+      <c r="AV14" s="38" t="n"/>
+      <c r="AW14" s="38" t="n"/>
+      <c r="AX14" s="38" t="n"/>
+      <c r="AY14" s="38" t="n"/>
+      <c r="AZ14" s="38" t="n"/>
+      <c r="BA14" s="38" t="n"/>
+      <c r="BB14" s="38" t="n"/>
+      <c r="BC14" s="38" t="n"/>
+      <c r="BD14" s="38" t="n"/>
+      <c r="BE14" s="38" t="n"/>
+      <c r="BF14" s="38" t="n"/>
+      <c r="BG14" s="38" t="n"/>
+      <c r="BH14" s="38" t="n"/>
+      <c r="BI14" s="38" t="n"/>
+      <c r="BJ14" s="38" t="n"/>
+      <c r="BK14" s="38" t="n"/>
+      <c r="BL14" s="38" t="n"/>
+      <c r="BM14" s="38" t="n"/>
+      <c r="BN14" s="38" t="n"/>
+      <c r="BO14" s="38" t="n"/>
+      <c r="BP14" s="38" t="n"/>
+      <c r="BQ14" s="38" t="n"/>
+      <c r="BR14" s="38" t="n"/>
+      <c r="BS14" s="38" t="n"/>
+      <c r="BT14" s="38" t="n"/>
+      <c r="BU14" s="38" t="n"/>
+      <c r="BV14" s="38" t="n"/>
+      <c r="BW14" s="38" t="n"/>
+      <c r="BX14" s="38" t="n"/>
+      <c r="BY14" s="38" t="n"/>
+      <c r="BZ14" s="38" t="n"/>
+      <c r="CA14" s="38" t="n"/>
+      <c r="CB14" s="38" t="n"/>
+      <c r="CC14" s="38" t="n"/>
+      <c r="CD14" s="38" t="n"/>
+      <c r="CE14" s="38" t="n"/>
+      <c r="CF14" s="38" t="n"/>
+      <c r="CG14" s="38" t="n"/>
+      <c r="CH14" s="38" t="n"/>
+      <c r="CI14" s="38" t="n"/>
+      <c r="CJ14" s="39" t="n"/>
+    </row>
+    <row r="15" ht="50.25" customFormat="1" customHeight="1" s="18">
+      <c r="A15" s="89" t="inlineStr">
+        <is>
+          <t>MINI JCW Team</t>
+        </is>
+      </c>
+      <c r="B15" s="188" t="inlineStr">
+        <is>
+          <t>37, 60, 62, 63, 64</t>
         </is>
       </c>
       <c r="C15" s="17" t="n"/>
       <c r="D15" s="16" t="n"/>
-      <c r="E15" s="39" t="n"/>
-      <c r="F15" s="41" t="n"/>
-      <c r="G15" s="41" t="n"/>
-      <c r="H15" s="39" t="n"/>
-      <c r="I15" s="39" t="n"/>
-      <c r="J15" s="39" t="n"/>
-      <c r="K15" s="39" t="n"/>
-      <c r="L15" s="39" t="n"/>
-      <c r="M15" s="39" t="n"/>
-      <c r="N15" s="39" t="n"/>
-      <c r="O15" s="39" t="n"/>
-      <c r="P15" s="39" t="n"/>
-      <c r="Q15" s="39" t="n"/>
-      <c r="R15" s="39" t="n"/>
-      <c r="S15" s="39" t="n"/>
-      <c r="T15" s="39" t="n"/>
-      <c r="U15" s="39" t="n"/>
-      <c r="V15" s="39" t="n"/>
-      <c r="W15" s="39" t="n"/>
-      <c r="X15" s="39" t="n"/>
-      <c r="Y15" s="39" t="n"/>
-      <c r="Z15" s="39" t="n"/>
-      <c r="AA15" s="39" t="n"/>
-      <c r="AB15" s="39" t="n"/>
-      <c r="AC15" s="39" t="n"/>
-      <c r="AD15" s="39" t="n"/>
-      <c r="AE15" s="39" t="n"/>
-      <c r="AF15" s="39" t="n"/>
-      <c r="AG15" s="39" t="n"/>
-      <c r="AH15" s="39" t="n"/>
-      <c r="AI15" s="39" t="n"/>
-      <c r="AJ15" s="39" t="n"/>
-      <c r="AK15" s="39" t="n"/>
-      <c r="AL15" s="39" t="n"/>
-      <c r="AM15" s="39" t="n"/>
-      <c r="AN15" s="39" t="n"/>
-      <c r="AO15" s="39" t="n"/>
-      <c r="AP15" s="39" t="n"/>
-      <c r="AQ15" s="39" t="n"/>
-      <c r="AR15" s="39" t="n"/>
-      <c r="AS15" s="39" t="n"/>
-      <c r="AT15" s="39" t="n"/>
-      <c r="AU15" s="39" t="n"/>
-      <c r="AV15" s="39" t="n"/>
-      <c r="AW15" s="39" t="n"/>
-      <c r="AX15" s="39" t="n"/>
-      <c r="AY15" s="39" t="n"/>
-      <c r="AZ15" s="39" t="n"/>
-      <c r="BA15" s="39" t="n"/>
-      <c r="BB15" s="39" t="n"/>
-      <c r="BC15" s="39" t="n"/>
-      <c r="BD15" s="39" t="n"/>
-      <c r="BE15" s="39" t="n"/>
-      <c r="BF15" s="39" t="n"/>
-      <c r="BG15" s="39" t="n"/>
-      <c r="BH15" s="39" t="n"/>
-      <c r="BI15" s="39" t="n"/>
-      <c r="BJ15" s="39" t="n"/>
-      <c r="BK15" s="39" t="n"/>
-      <c r="BL15" s="39" t="n"/>
-      <c r="BM15" s="39" t="n"/>
-      <c r="BN15" s="39" t="n"/>
-      <c r="BO15" s="39" t="n"/>
-      <c r="BP15" s="39" t="n"/>
-      <c r="BQ15" s="39" t="n"/>
-      <c r="BR15" s="39" t="n"/>
-      <c r="BS15" s="39" t="n"/>
-      <c r="BT15" s="39" t="n"/>
-      <c r="BU15" s="39" t="n"/>
-      <c r="BV15" s="39" t="n"/>
-      <c r="BW15" s="39" t="n"/>
-      <c r="BX15" s="39" t="n"/>
-      <c r="BY15" s="39" t="n"/>
-      <c r="BZ15" s="39" t="n"/>
-      <c r="CA15" s="39" t="n"/>
-      <c r="CB15" s="39" t="n"/>
-      <c r="CC15" s="39" t="n"/>
-      <c r="CD15" s="39" t="n"/>
-      <c r="CE15" s="39" t="n"/>
-      <c r="CF15" s="39" t="n"/>
-      <c r="CG15" s="39" t="n"/>
-      <c r="CH15" s="39" t="n"/>
-      <c r="CI15" s="39" t="n"/>
-      <c r="CJ15" s="40" t="n"/>
-    </row>
-    <row r="16" ht="40" customFormat="1" customHeight="1" s="18">
-      <c r="A16" s="55" t="inlineStr">
-        <is>
-          <t>MINI JCW Team</t>
-        </is>
-      </c>
-      <c r="B16" s="120" t="inlineStr">
-        <is>
-          <t>37, 60, 62, 63, 64</t>
+      <c r="E15" s="38" t="n"/>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="38" t="n"/>
+      <c r="I15" s="38" t="n"/>
+      <c r="J15" s="38" t="n"/>
+      <c r="K15" s="38" t="n"/>
+      <c r="L15" s="38" t="n"/>
+      <c r="M15" s="38" t="n"/>
+      <c r="N15" s="38" t="n"/>
+      <c r="O15" s="38" t="n"/>
+      <c r="P15" s="38" t="n"/>
+      <c r="Q15" s="38" t="n"/>
+      <c r="R15" s="38" t="n"/>
+      <c r="S15" s="38" t="n"/>
+      <c r="T15" s="38" t="n"/>
+      <c r="U15" s="38" t="n"/>
+      <c r="V15" s="38" t="n"/>
+      <c r="W15" s="38" t="n"/>
+      <c r="X15" s="38" t="n"/>
+      <c r="Y15" s="38" t="n"/>
+      <c r="Z15" s="38" t="n"/>
+      <c r="AA15" s="38" t="n"/>
+      <c r="AB15" s="38" t="n"/>
+      <c r="AC15" s="38" t="n"/>
+      <c r="AD15" s="38" t="n"/>
+      <c r="AE15" s="38" t="n"/>
+      <c r="AF15" s="38" t="n"/>
+      <c r="AG15" s="38" t="n"/>
+      <c r="AH15" s="38" t="n"/>
+      <c r="AI15" s="38" t="n"/>
+      <c r="AJ15" s="38" t="n"/>
+      <c r="AK15" s="38" t="n"/>
+      <c r="AL15" s="38" t="n"/>
+      <c r="AM15" s="38" t="n"/>
+      <c r="AN15" s="38" t="n"/>
+      <c r="AO15" s="38" t="n"/>
+      <c r="AP15" s="38" t="n"/>
+      <c r="AQ15" s="38" t="n"/>
+      <c r="AR15" s="38" t="n"/>
+      <c r="AS15" s="38" t="n"/>
+      <c r="AT15" s="38" t="n"/>
+      <c r="AU15" s="38" t="n"/>
+      <c r="AV15" s="38" t="n"/>
+      <c r="AW15" s="38" t="n"/>
+      <c r="AX15" s="38" t="n"/>
+      <c r="AY15" s="38" t="n"/>
+      <c r="AZ15" s="38" t="n"/>
+      <c r="BA15" s="38" t="n"/>
+      <c r="BB15" s="38" t="n"/>
+      <c r="BC15" s="38" t="n"/>
+      <c r="BD15" s="38" t="n"/>
+      <c r="BE15" s="38" t="n"/>
+      <c r="BF15" s="38" t="n"/>
+      <c r="BG15" s="38" t="n"/>
+      <c r="BH15" s="38" t="n"/>
+      <c r="BI15" s="38" t="n"/>
+      <c r="BJ15" s="38" t="n"/>
+      <c r="BK15" s="38" t="n"/>
+      <c r="BL15" s="38" t="n"/>
+      <c r="BM15" s="38" t="n"/>
+      <c r="BN15" s="38" t="n"/>
+      <c r="BO15" s="38" t="n"/>
+      <c r="BP15" s="38" t="n"/>
+      <c r="BQ15" s="38" t="n"/>
+      <c r="BR15" s="38" t="n"/>
+      <c r="BS15" s="38" t="n"/>
+      <c r="BT15" s="38" t="n"/>
+      <c r="BU15" s="38" t="n"/>
+      <c r="BV15" s="38" t="n"/>
+      <c r="BW15" s="38" t="n"/>
+      <c r="BX15" s="38" t="n"/>
+      <c r="BY15" s="38" t="n"/>
+      <c r="BZ15" s="38" t="n"/>
+      <c r="CA15" s="38" t="n"/>
+      <c r="CB15" s="38" t="n"/>
+      <c r="CC15" s="38" t="n"/>
+      <c r="CD15" s="38" t="n"/>
+      <c r="CE15" s="38" t="n"/>
+      <c r="CF15" s="38" t="n"/>
+      <c r="CG15" s="38" t="n"/>
+      <c r="CH15" s="38" t="n"/>
+      <c r="CI15" s="38" t="n"/>
+      <c r="CJ15" s="39" t="n"/>
+    </row>
+    <row r="16" ht="50.25" customFormat="1" customHeight="1" s="18">
+      <c r="A16" s="191" t="inlineStr">
+        <is>
+          <t>Rigid Speed Company</t>
+        </is>
+      </c>
+      <c r="B16" s="145" t="inlineStr">
+        <is>
+          <t>24, 26</t>
         </is>
       </c>
       <c r="C16" s="9" t="n"/>
-      <c r="D16" s="45" t="n"/>
-      <c r="E16" s="39" t="n"/>
-      <c r="F16" s="41" t="n"/>
-      <c r="G16" s="41" t="n"/>
-      <c r="H16" s="39" t="n"/>
-      <c r="I16" s="39" t="n"/>
-      <c r="J16" s="39" t="n"/>
-      <c r="K16" s="39" t="n"/>
-      <c r="L16" s="39" t="n"/>
-      <c r="M16" s="39" t="n"/>
-      <c r="N16" s="39" t="n"/>
-      <c r="O16" s="39" t="n"/>
-      <c r="P16" s="39" t="n"/>
-      <c r="Q16" s="39" t="n"/>
-      <c r="R16" s="39" t="n"/>
-      <c r="S16" s="39" t="n"/>
-      <c r="T16" s="39" t="n"/>
-      <c r="U16" s="39" t="n"/>
-      <c r="V16" s="39" t="n"/>
-      <c r="W16" s="39" t="n"/>
-      <c r="X16" s="39" t="n"/>
-      <c r="Y16" s="39" t="n"/>
-      <c r="Z16" s="39" t="n"/>
-      <c r="AA16" s="39" t="n"/>
-      <c r="AB16" s="39" t="n"/>
-      <c r="AC16" s="39" t="n"/>
-      <c r="AD16" s="39" t="n"/>
-      <c r="AE16" s="39" t="n"/>
-      <c r="AF16" s="39" t="n"/>
-      <c r="AG16" s="39" t="n"/>
-      <c r="AH16" s="39" t="n"/>
-      <c r="AI16" s="39" t="n"/>
-      <c r="AJ16" s="39" t="n"/>
-      <c r="AK16" s="39" t="n"/>
-      <c r="AL16" s="39" t="n"/>
-      <c r="AM16" s="39" t="n"/>
-      <c r="AN16" s="39" t="n"/>
-      <c r="AO16" s="39" t="n"/>
-      <c r="AP16" s="39" t="n"/>
-      <c r="AQ16" s="39" t="n"/>
-      <c r="AR16" s="39" t="n"/>
-      <c r="AS16" s="39" t="n"/>
-      <c r="AT16" s="39" t="n"/>
-      <c r="AU16" s="39" t="n"/>
-      <c r="AV16" s="39" t="n"/>
-      <c r="AW16" s="39" t="n"/>
-      <c r="AX16" s="39" t="n"/>
-      <c r="AY16" s="39" t="n"/>
-      <c r="AZ16" s="39" t="n"/>
-      <c r="BA16" s="39" t="n"/>
-      <c r="BB16" s="39" t="n"/>
-      <c r="BC16" s="39" t="n"/>
-      <c r="BD16" s="39" t="n"/>
-      <c r="BE16" s="39" t="n"/>
-      <c r="BF16" s="39" t="n"/>
-      <c r="BG16" s="39" t="n"/>
-      <c r="BH16" s="39" t="n"/>
-      <c r="BI16" s="39" t="n"/>
-      <c r="BJ16" s="39" t="n"/>
-      <c r="BK16" s="39" t="n"/>
-      <c r="BL16" s="39" t="n"/>
-      <c r="BM16" s="39" t="n"/>
-      <c r="BN16" s="39" t="n"/>
-      <c r="BO16" s="39" t="n"/>
-      <c r="BP16" s="39" t="n"/>
-      <c r="BQ16" s="39" t="n"/>
-      <c r="BR16" s="39" t="n"/>
-      <c r="BS16" s="39" t="n"/>
-      <c r="BT16" s="39" t="n"/>
-      <c r="BU16" s="39" t="n"/>
-      <c r="BV16" s="39" t="n"/>
-      <c r="BW16" s="39" t="n"/>
-      <c r="BX16" s="39" t="n"/>
-      <c r="BY16" s="39" t="n"/>
-      <c r="BZ16" s="39" t="n"/>
-      <c r="CA16" s="39" t="n"/>
-      <c r="CB16" s="39" t="n"/>
-      <c r="CC16" s="39" t="n"/>
-      <c r="CD16" s="39" t="n"/>
-      <c r="CE16" s="39" t="n"/>
-      <c r="CF16" s="39" t="n"/>
-      <c r="CG16" s="39" t="n"/>
-      <c r="CH16" s="39" t="n"/>
-      <c r="CI16" s="39" t="n"/>
-      <c r="CJ16" s="40" t="n"/>
-    </row>
-    <row r="17" ht="40" customFormat="1" customHeight="1" s="18">
-      <c r="A17" s="101" t="inlineStr">
+      <c r="D16" s="44" t="n"/>
+      <c r="E16" s="38" t="n"/>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="38" t="n"/>
+      <c r="I16" s="38" t="n"/>
+      <c r="J16" s="38" t="n"/>
+      <c r="K16" s="38" t="n"/>
+      <c r="L16" s="38" t="n"/>
+      <c r="M16" s="38" t="n"/>
+      <c r="N16" s="38" t="n"/>
+      <c r="O16" s="38" t="n"/>
+      <c r="P16" s="38" t="n"/>
+      <c r="Q16" s="38" t="n"/>
+      <c r="R16" s="38" t="n"/>
+      <c r="S16" s="38" t="n"/>
+      <c r="T16" s="38" t="n"/>
+      <c r="U16" s="38" t="n"/>
+      <c r="V16" s="38" t="n"/>
+      <c r="W16" s="38" t="n"/>
+      <c r="X16" s="38" t="n"/>
+      <c r="Y16" s="38" t="n"/>
+      <c r="Z16" s="38" t="n"/>
+      <c r="AA16" s="38" t="n"/>
+      <c r="AB16" s="38" t="n"/>
+      <c r="AC16" s="38" t="n"/>
+      <c r="AD16" s="38" t="n"/>
+      <c r="AE16" s="38" t="n"/>
+      <c r="AF16" s="38" t="n"/>
+      <c r="AG16" s="38" t="n"/>
+      <c r="AH16" s="38" t="n"/>
+      <c r="AI16" s="38" t="n"/>
+      <c r="AJ16" s="38" t="n"/>
+      <c r="AK16" s="38" t="n"/>
+      <c r="AL16" s="38" t="n"/>
+      <c r="AM16" s="38" t="n"/>
+      <c r="AN16" s="38" t="n"/>
+      <c r="AO16" s="38" t="n"/>
+      <c r="AP16" s="38" t="n"/>
+      <c r="AQ16" s="38" t="n"/>
+      <c r="AR16" s="38" t="n"/>
+      <c r="AS16" s="38" t="n"/>
+      <c r="AT16" s="38" t="n"/>
+      <c r="AU16" s="38" t="n"/>
+      <c r="AV16" s="38" t="n"/>
+      <c r="AW16" s="38" t="n"/>
+      <c r="AX16" s="38" t="n"/>
+      <c r="AY16" s="38" t="n"/>
+      <c r="AZ16" s="38" t="n"/>
+      <c r="BA16" s="38" t="n"/>
+      <c r="BB16" s="38" t="n"/>
+      <c r="BC16" s="38" t="n"/>
+      <c r="BD16" s="38" t="n"/>
+      <c r="BE16" s="38" t="n"/>
+      <c r="BF16" s="38" t="n"/>
+      <c r="BG16" s="38" t="n"/>
+      <c r="BH16" s="38" t="n"/>
+      <c r="BI16" s="38" t="n"/>
+      <c r="BJ16" s="38" t="n"/>
+      <c r="BK16" s="38" t="n"/>
+      <c r="BL16" s="38" t="n"/>
+      <c r="BM16" s="38" t="n"/>
+      <c r="BN16" s="38" t="n"/>
+      <c r="BO16" s="38" t="n"/>
+      <c r="BP16" s="38" t="n"/>
+      <c r="BQ16" s="38" t="n"/>
+      <c r="BR16" s="38" t="n"/>
+      <c r="BS16" s="38" t="n"/>
+      <c r="BT16" s="38" t="n"/>
+      <c r="BU16" s="38" t="n"/>
+      <c r="BV16" s="38" t="n"/>
+      <c r="BW16" s="38" t="n"/>
+      <c r="BX16" s="38" t="n"/>
+      <c r="BY16" s="38" t="n"/>
+      <c r="BZ16" s="38" t="n"/>
+      <c r="CA16" s="38" t="n"/>
+      <c r="CB16" s="38" t="n"/>
+      <c r="CC16" s="38" t="n"/>
+      <c r="CD16" s="38" t="n"/>
+      <c r="CE16" s="38" t="n"/>
+      <c r="CF16" s="38" t="n"/>
+      <c r="CG16" s="38" t="n"/>
+      <c r="CH16" s="38" t="n"/>
+      <c r="CI16" s="38" t="n"/>
+      <c r="CJ16" s="39" t="n"/>
+    </row>
+    <row r="17" ht="50.25" customFormat="1" customHeight="1" s="18">
+      <c r="A17" s="89" t="inlineStr">
         <is>
           <t>Rooster Hall Racing</t>
         </is>
       </c>
-      <c r="B17" s="135" t="inlineStr">
+      <c r="B17" s="116" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
       <c r="C17" s="17" t="n"/>
       <c r="D17" s="10" t="n"/>
-      <c r="E17" s="39" t="n"/>
-      <c r="F17" s="39" t="n"/>
-      <c r="G17" s="39" t="n"/>
-      <c r="H17" s="39" t="n"/>
-      <c r="I17" s="39" t="n"/>
-      <c r="J17" s="39" t="n"/>
-      <c r="K17" s="39" t="n"/>
-      <c r="L17" s="39" t="n"/>
-      <c r="M17" s="39" t="n"/>
-      <c r="N17" s="39" t="n"/>
-      <c r="O17" s="39" t="n"/>
-      <c r="P17" s="39" t="n"/>
-      <c r="Q17" s="39" t="n"/>
-      <c r="R17" s="39" t="n"/>
-      <c r="S17" s="39" t="n"/>
-      <c r="T17" s="39" t="n"/>
-      <c r="U17" s="39" t="n"/>
-      <c r="V17" s="39" t="n"/>
-      <c r="W17" s="39" t="n"/>
-      <c r="X17" s="39" t="n"/>
-      <c r="Y17" s="39" t="n"/>
-      <c r="Z17" s="39" t="n"/>
-      <c r="AA17" s="39" t="n"/>
-      <c r="AB17" s="39" t="n"/>
-      <c r="AC17" s="39" t="n"/>
-      <c r="AD17" s="39" t="n"/>
-      <c r="AE17" s="39" t="n"/>
-      <c r="AF17" s="39" t="n"/>
-      <c r="AG17" s="39" t="n"/>
-      <c r="AH17" s="39" t="n"/>
-      <c r="AI17" s="39" t="n"/>
-      <c r="AJ17" s="39" t="n"/>
-      <c r="AK17" s="39" t="n"/>
-      <c r="AL17" s="39" t="n"/>
-      <c r="AM17" s="39" t="n"/>
-      <c r="AN17" s="39" t="n"/>
-      <c r="AO17" s="39" t="n"/>
-      <c r="AP17" s="39" t="n"/>
-      <c r="AQ17" s="39" t="n"/>
-      <c r="AR17" s="39" t="n"/>
-      <c r="AS17" s="39" t="n"/>
-      <c r="AT17" s="39" t="n"/>
-      <c r="AU17" s="39" t="n"/>
-      <c r="AV17" s="39" t="n"/>
-      <c r="AW17" s="39" t="n"/>
-      <c r="AX17" s="39" t="n"/>
-      <c r="AY17" s="39" t="n"/>
-      <c r="AZ17" s="39" t="n"/>
-      <c r="BA17" s="39" t="n"/>
-      <c r="BB17" s="39" t="n"/>
-      <c r="BC17" s="39" t="n"/>
-      <c r="BD17" s="39" t="n"/>
-      <c r="BE17" s="39" t="n"/>
-      <c r="BF17" s="39" t="n"/>
-      <c r="BG17" s="39" t="n"/>
-      <c r="BH17" s="39" t="n"/>
-      <c r="BI17" s="39" t="n"/>
-      <c r="BJ17" s="39" t="n"/>
-      <c r="BK17" s="39" t="n"/>
-      <c r="BL17" s="39" t="n"/>
-      <c r="BM17" s="39" t="n"/>
-      <c r="BN17" s="39" t="n"/>
-      <c r="BO17" s="39" t="n"/>
-      <c r="BP17" s="39" t="n"/>
-      <c r="BQ17" s="39" t="n"/>
-      <c r="BR17" s="39" t="n"/>
-      <c r="BS17" s="39" t="n"/>
-      <c r="BT17" s="39" t="n"/>
-      <c r="BU17" s="39" t="n"/>
-      <c r="BV17" s="39" t="n"/>
-      <c r="BW17" s="39" t="n"/>
-      <c r="BX17" s="39" t="n"/>
-      <c r="BY17" s="39" t="n"/>
-      <c r="BZ17" s="39" t="n"/>
-      <c r="CA17" s="39" t="n"/>
-      <c r="CB17" s="39" t="n"/>
-      <c r="CC17" s="39" t="n"/>
-      <c r="CD17" s="39" t="n"/>
-      <c r="CE17" s="39" t="n"/>
-      <c r="CF17" s="39" t="n"/>
-      <c r="CG17" s="39" t="n"/>
-      <c r="CH17" s="39" t="n"/>
-      <c r="CI17" s="39" t="n"/>
-      <c r="CJ17" s="40" t="n"/>
-    </row>
-    <row r="18" ht="40" customFormat="1" customHeight="1" s="43">
-      <c r="A18" s="100" t="inlineStr">
-        <is>
-          <t>Genracer / Ricca Autosport</t>
-        </is>
-      </c>
-      <c r="B18" s="134" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="C18" s="136" t="n"/>
+      <c r="E17" s="38" t="n"/>
+      <c r="F17" s="38" t="n"/>
+      <c r="G17" s="38" t="n"/>
+      <c r="H17" s="38" t="n"/>
+      <c r="I17" s="38" t="n"/>
+      <c r="J17" s="38" t="n"/>
+      <c r="K17" s="38" t="n"/>
+      <c r="L17" s="38" t="n"/>
+      <c r="M17" s="38" t="n"/>
+      <c r="N17" s="38" t="n"/>
+      <c r="O17" s="38" t="n"/>
+      <c r="P17" s="38" t="n"/>
+      <c r="Q17" s="38" t="n"/>
+      <c r="R17" s="38" t="n"/>
+      <c r="S17" s="38" t="n"/>
+      <c r="T17" s="38" t="n"/>
+      <c r="U17" s="38" t="n"/>
+      <c r="V17" s="38" t="n"/>
+      <c r="W17" s="38" t="n"/>
+      <c r="X17" s="38" t="n"/>
+      <c r="Y17" s="38" t="n"/>
+      <c r="Z17" s="38" t="n"/>
+      <c r="AA17" s="38" t="n"/>
+      <c r="AB17" s="38" t="n"/>
+      <c r="AC17" s="38" t="n"/>
+      <c r="AD17" s="38" t="n"/>
+      <c r="AE17" s="38" t="n"/>
+      <c r="AF17" s="38" t="n"/>
+      <c r="AG17" s="38" t="n"/>
+      <c r="AH17" s="38" t="n"/>
+      <c r="AI17" s="38" t="n"/>
+      <c r="AJ17" s="38" t="n"/>
+      <c r="AK17" s="38" t="n"/>
+      <c r="AL17" s="38" t="n"/>
+      <c r="AM17" s="38" t="n"/>
+      <c r="AN17" s="38" t="n"/>
+      <c r="AO17" s="38" t="n"/>
+      <c r="AP17" s="38" t="n"/>
+      <c r="AQ17" s="38" t="n"/>
+      <c r="AR17" s="38" t="n"/>
+      <c r="AS17" s="38" t="n"/>
+      <c r="AT17" s="38" t="n"/>
+      <c r="AU17" s="38" t="n"/>
+      <c r="AV17" s="38" t="n"/>
+      <c r="AW17" s="38" t="n"/>
+      <c r="AX17" s="38" t="n"/>
+      <c r="AY17" s="38" t="n"/>
+      <c r="AZ17" s="38" t="n"/>
+      <c r="BA17" s="38" t="n"/>
+      <c r="BB17" s="38" t="n"/>
+      <c r="BC17" s="38" t="n"/>
+      <c r="BD17" s="38" t="n"/>
+      <c r="BE17" s="38" t="n"/>
+      <c r="BF17" s="38" t="n"/>
+      <c r="BG17" s="38" t="n"/>
+      <c r="BH17" s="38" t="n"/>
+      <c r="BI17" s="38" t="n"/>
+      <c r="BJ17" s="38" t="n"/>
+      <c r="BK17" s="38" t="n"/>
+      <c r="BL17" s="38" t="n"/>
+      <c r="BM17" s="38" t="n"/>
+      <c r="BN17" s="38" t="n"/>
+      <c r="BO17" s="38" t="n"/>
+      <c r="BP17" s="38" t="n"/>
+      <c r="BQ17" s="38" t="n"/>
+      <c r="BR17" s="38" t="n"/>
+      <c r="BS17" s="38" t="n"/>
+      <c r="BT17" s="38" t="n"/>
+      <c r="BU17" s="38" t="n"/>
+      <c r="BV17" s="38" t="n"/>
+      <c r="BW17" s="38" t="n"/>
+      <c r="BX17" s="38" t="n"/>
+      <c r="BY17" s="38" t="n"/>
+      <c r="BZ17" s="38" t="n"/>
+      <c r="CA17" s="38" t="n"/>
+      <c r="CB17" s="38" t="n"/>
+      <c r="CC17" s="38" t="n"/>
+      <c r="CD17" s="38" t="n"/>
+      <c r="CE17" s="38" t="n"/>
+      <c r="CF17" s="38" t="n"/>
+      <c r="CG17" s="38" t="n"/>
+      <c r="CH17" s="38" t="n"/>
+      <c r="CI17" s="38" t="n"/>
+      <c r="CJ17" s="39" t="n"/>
+    </row>
+    <row r="18" ht="50.25" customFormat="1" customHeight="1" s="42">
+      <c r="A18" s="88" t="inlineStr">
+        <is>
+          <t>Skip Barber Racing School</t>
+        </is>
+      </c>
+      <c r="B18" s="115" t="inlineStr">
+        <is>
+          <t>7, 19, 42, 77</t>
+        </is>
+      </c>
+      <c r="C18" s="117" t="n"/>
       <c r="D18" s="10" t="n"/>
-      <c r="E18" s="42" t="n"/>
-      <c r="F18" s="42" t="n"/>
-      <c r="G18" s="42" t="n"/>
-      <c r="H18" s="42" t="n"/>
-      <c r="I18" s="42" t="n"/>
-      <c r="J18" s="42" t="n"/>
-      <c r="K18" s="42" t="n"/>
-      <c r="L18" s="42" t="n"/>
-      <c r="M18" s="42" t="n"/>
-      <c r="N18" s="42" t="n"/>
-      <c r="O18" s="42" t="n"/>
-      <c r="P18" s="42" t="n"/>
-      <c r="Q18" s="42" t="n"/>
-      <c r="R18" s="42" t="n"/>
-      <c r="S18" s="42" t="n"/>
-      <c r="T18" s="42" t="n"/>
-      <c r="U18" s="42" t="n"/>
-      <c r="V18" s="42" t="n"/>
-      <c r="W18" s="42" t="n"/>
-      <c r="X18" s="42" t="n"/>
-      <c r="Y18" s="42" t="n"/>
-      <c r="Z18" s="42" t="n"/>
-      <c r="AA18" s="42" t="n"/>
-      <c r="AB18" s="42" t="n"/>
-      <c r="AC18" s="42" t="n"/>
-      <c r="AD18" s="42" t="n"/>
-      <c r="AE18" s="42" t="n"/>
-      <c r="AF18" s="42" t="n"/>
-      <c r="AG18" s="42" t="n"/>
-      <c r="AH18" s="42" t="n"/>
-      <c r="AI18" s="42" t="n"/>
-      <c r="AJ18" s="42" t="n"/>
-      <c r="AK18" s="42" t="n"/>
-      <c r="AL18" s="42" t="n"/>
-      <c r="AM18" s="42" t="n"/>
-      <c r="AN18" s="42" t="n"/>
-      <c r="AO18" s="42" t="n"/>
-      <c r="AP18" s="42" t="n"/>
-      <c r="AQ18" s="42" t="n"/>
-      <c r="AR18" s="42" t="n"/>
-      <c r="AS18" s="42" t="n"/>
-      <c r="AT18" s="42" t="n"/>
-      <c r="AU18" s="42" t="n"/>
-      <c r="AV18" s="42" t="n"/>
-      <c r="AW18" s="42" t="n"/>
-      <c r="AX18" s="42" t="n"/>
-      <c r="AY18" s="42" t="n"/>
-      <c r="AZ18" s="42" t="n"/>
-      <c r="BA18" s="42" t="n"/>
-      <c r="BB18" s="42" t="n"/>
-      <c r="BC18" s="42" t="n"/>
-      <c r="BD18" s="42" t="n"/>
-      <c r="BE18" s="42" t="n"/>
-      <c r="BF18" s="42" t="n"/>
-      <c r="BG18" s="42" t="n"/>
-      <c r="BH18" s="42" t="n"/>
-      <c r="BI18" s="42" t="n"/>
-      <c r="BJ18" s="42" t="n"/>
-      <c r="BK18" s="42" t="n"/>
-      <c r="BL18" s="42" t="n"/>
-      <c r="BM18" s="42" t="n"/>
-      <c r="BN18" s="42" t="n"/>
-      <c r="BO18" s="42" t="n"/>
-      <c r="BP18" s="42" t="n"/>
-      <c r="BQ18" s="42" t="n"/>
-      <c r="BR18" s="42" t="n"/>
-      <c r="BS18" s="42" t="n"/>
-      <c r="BT18" s="42" t="n"/>
-      <c r="BU18" s="42" t="n"/>
-      <c r="BV18" s="42" t="n"/>
-      <c r="BW18" s="42" t="n"/>
-      <c r="BX18" s="42" t="n"/>
-      <c r="BY18" s="42" t="n"/>
-      <c r="BZ18" s="42" t="n"/>
-      <c r="CA18" s="42" t="n"/>
-      <c r="CB18" s="42" t="n"/>
-      <c r="CC18" s="42" t="n"/>
-      <c r="CD18" s="42" t="n"/>
-      <c r="CE18" s="42" t="n"/>
-      <c r="CF18" s="42" t="n"/>
-      <c r="CG18" s="42" t="n"/>
-      <c r="CH18" s="42" t="n"/>
-      <c r="CI18" s="42" t="n"/>
-      <c r="CJ18" s="44" t="n"/>
-    </row>
-    <row r="19" ht="40" customFormat="1" customHeight="1" s="43">
-      <c r="A19" s="101" t="inlineStr">
-        <is>
-          <t>Ian Lacy Racing</t>
-        </is>
-      </c>
-      <c r="B19" s="119" t="inlineStr">
-        <is>
-          <t>93</t>
+      <c r="E18" s="41" t="n"/>
+      <c r="F18" s="41" t="n"/>
+      <c r="G18" s="41" t="n"/>
+      <c r="H18" s="41" t="n"/>
+      <c r="I18" s="41" t="n"/>
+      <c r="J18" s="41" t="n"/>
+      <c r="K18" s="41" t="n"/>
+      <c r="L18" s="41" t="n"/>
+      <c r="M18" s="41" t="n"/>
+      <c r="N18" s="41" t="n"/>
+      <c r="O18" s="41" t="n"/>
+      <c r="P18" s="41" t="n"/>
+      <c r="Q18" s="41" t="n"/>
+      <c r="R18" s="41" t="n"/>
+      <c r="S18" s="41" t="n"/>
+      <c r="T18" s="41" t="n"/>
+      <c r="U18" s="41" t="n"/>
+      <c r="V18" s="41" t="n"/>
+      <c r="W18" s="41" t="n"/>
+      <c r="X18" s="41" t="n"/>
+      <c r="Y18" s="41" t="n"/>
+      <c r="Z18" s="41" t="n"/>
+      <c r="AA18" s="41" t="n"/>
+      <c r="AB18" s="41" t="n"/>
+      <c r="AC18" s="41" t="n"/>
+      <c r="AD18" s="41" t="n"/>
+      <c r="AE18" s="41" t="n"/>
+      <c r="AF18" s="41" t="n"/>
+      <c r="AG18" s="41" t="n"/>
+      <c r="AH18" s="41" t="n"/>
+      <c r="AI18" s="41" t="n"/>
+      <c r="AJ18" s="41" t="n"/>
+      <c r="AK18" s="41" t="n"/>
+      <c r="AL18" s="41" t="n"/>
+      <c r="AM18" s="41" t="n"/>
+      <c r="AN18" s="41" t="n"/>
+      <c r="AO18" s="41" t="n"/>
+      <c r="AP18" s="41" t="n"/>
+      <c r="AQ18" s="41" t="n"/>
+      <c r="AR18" s="41" t="n"/>
+      <c r="AS18" s="41" t="n"/>
+      <c r="AT18" s="41" t="n"/>
+      <c r="AU18" s="41" t="n"/>
+      <c r="AV18" s="41" t="n"/>
+      <c r="AW18" s="41" t="n"/>
+      <c r="AX18" s="41" t="n"/>
+      <c r="AY18" s="41" t="n"/>
+      <c r="AZ18" s="41" t="n"/>
+      <c r="BA18" s="41" t="n"/>
+      <c r="BB18" s="41" t="n"/>
+      <c r="BC18" s="41" t="n"/>
+      <c r="BD18" s="41" t="n"/>
+      <c r="BE18" s="41" t="n"/>
+      <c r="BF18" s="41" t="n"/>
+      <c r="BG18" s="41" t="n"/>
+      <c r="BH18" s="41" t="n"/>
+      <c r="BI18" s="41" t="n"/>
+      <c r="BJ18" s="41" t="n"/>
+      <c r="BK18" s="41" t="n"/>
+      <c r="BL18" s="41" t="n"/>
+      <c r="BM18" s="41" t="n"/>
+      <c r="BN18" s="41" t="n"/>
+      <c r="BO18" s="41" t="n"/>
+      <c r="BP18" s="41" t="n"/>
+      <c r="BQ18" s="41" t="n"/>
+      <c r="BR18" s="41" t="n"/>
+      <c r="BS18" s="41" t="n"/>
+      <c r="BT18" s="41" t="n"/>
+      <c r="BU18" s="41" t="n"/>
+      <c r="BV18" s="41" t="n"/>
+      <c r="BW18" s="41" t="n"/>
+      <c r="BX18" s="41" t="n"/>
+      <c r="BY18" s="41" t="n"/>
+      <c r="BZ18" s="41" t="n"/>
+      <c r="CA18" s="41" t="n"/>
+      <c r="CB18" s="41" t="n"/>
+      <c r="CC18" s="41" t="n"/>
+      <c r="CD18" s="41" t="n"/>
+      <c r="CE18" s="41" t="n"/>
+      <c r="CF18" s="41" t="n"/>
+      <c r="CG18" s="41" t="n"/>
+      <c r="CH18" s="41" t="n"/>
+      <c r="CI18" s="41" t="n"/>
+      <c r="CJ18" s="43" t="n"/>
+    </row>
+    <row r="19" ht="50.25" customFormat="1" customHeight="1" s="42">
+      <c r="A19" s="89" t="inlineStr">
+        <is>
+          <t>TechSport Racing</t>
+        </is>
+      </c>
+      <c r="B19" s="101" t="inlineStr">
+        <is>
+          <t>22, 23</t>
         </is>
       </c>
       <c r="C19" s="10" t="n"/>
       <c r="D19" s="8" t="n"/>
-      <c r="E19" s="42" t="n"/>
-      <c r="F19" s="42" t="n"/>
-      <c r="G19" s="42" t="n"/>
-      <c r="H19" s="42" t="n"/>
-      <c r="I19" s="42" t="n"/>
-      <c r="J19" s="42" t="n"/>
-      <c r="K19" s="42" t="n"/>
-      <c r="L19" s="42" t="n"/>
-      <c r="M19" s="42" t="n"/>
-      <c r="N19" s="42" t="n"/>
-      <c r="O19" s="42" t="n"/>
-      <c r="P19" s="42" t="n"/>
-      <c r="Q19" s="42" t="n"/>
-      <c r="R19" s="42" t="n"/>
-      <c r="S19" s="42" t="n"/>
-      <c r="T19" s="42" t="n"/>
-      <c r="U19" s="42" t="n"/>
-      <c r="V19" s="42" t="n"/>
-      <c r="W19" s="42" t="n"/>
-      <c r="X19" s="42" t="n"/>
-      <c r="Y19" s="42" t="n"/>
-      <c r="Z19" s="42" t="n"/>
-      <c r="AA19" s="42" t="n"/>
-      <c r="AB19" s="42" t="n"/>
-      <c r="AC19" s="42" t="n"/>
-      <c r="AD19" s="42" t="n"/>
-      <c r="AE19" s="42" t="n"/>
-      <c r="AF19" s="42" t="n"/>
-      <c r="AG19" s="42" t="n"/>
-      <c r="AH19" s="42" t="n"/>
-      <c r="AI19" s="42" t="n"/>
-      <c r="AJ19" s="42" t="n"/>
-      <c r="AK19" s="42" t="n"/>
-      <c r="AL19" s="42" t="n"/>
-      <c r="AM19" s="42" t="n"/>
-      <c r="AN19" s="42" t="n"/>
-      <c r="AO19" s="42" t="n"/>
-      <c r="AP19" s="42" t="n"/>
-      <c r="AQ19" s="42" t="n"/>
-      <c r="AR19" s="42" t="n"/>
-      <c r="AS19" s="42" t="n"/>
-      <c r="AT19" s="42" t="n"/>
-      <c r="AU19" s="42" t="n"/>
-      <c r="AV19" s="42" t="n"/>
-      <c r="AW19" s="42" t="n"/>
-      <c r="AX19" s="42" t="n"/>
-      <c r="AY19" s="42" t="n"/>
-      <c r="AZ19" s="42" t="n"/>
-      <c r="BA19" s="42" t="n"/>
-      <c r="BB19" s="42" t="n"/>
-      <c r="BC19" s="42" t="n"/>
-      <c r="BD19" s="42" t="n"/>
-      <c r="BE19" s="42" t="n"/>
-      <c r="BF19" s="42" t="n"/>
-      <c r="BG19" s="42" t="n"/>
-      <c r="BH19" s="42" t="n"/>
-      <c r="BI19" s="42" t="n"/>
-      <c r="BJ19" s="42" t="n"/>
-      <c r="BK19" s="42" t="n"/>
-      <c r="BL19" s="42" t="n"/>
-      <c r="BM19" s="42" t="n"/>
-      <c r="BN19" s="42" t="n"/>
-      <c r="BO19" s="42" t="n"/>
-      <c r="BP19" s="42" t="n"/>
-      <c r="BQ19" s="42" t="n"/>
-      <c r="BR19" s="42" t="n"/>
-      <c r="BS19" s="42" t="n"/>
-      <c r="BT19" s="42" t="n"/>
-      <c r="BU19" s="42" t="n"/>
-      <c r="BV19" s="42" t="n"/>
-      <c r="BW19" s="42" t="n"/>
-      <c r="BX19" s="42" t="n"/>
-      <c r="BY19" s="42" t="n"/>
-      <c r="BZ19" s="42" t="n"/>
-      <c r="CA19" s="42" t="n"/>
-      <c r="CB19" s="42" t="n"/>
-      <c r="CC19" s="42" t="n"/>
-      <c r="CD19" s="42" t="n"/>
-      <c r="CE19" s="42" t="n"/>
-      <c r="CF19" s="42" t="n"/>
-      <c r="CG19" s="42" t="n"/>
-      <c r="CH19" s="42" t="n"/>
-      <c r="CI19" s="42" t="n"/>
-      <c r="CJ19" s="44" t="n"/>
-    </row>
-    <row r="20" ht="40" customFormat="1" customHeight="1" s="18">
-      <c r="A20" s="101" t="inlineStr">
-        <is>
-          <t>GenRacer</t>
-        </is>
-      </c>
-      <c r="B20" s="117" t="inlineStr">
-        <is>
-          <t>780</t>
+      <c r="E19" s="41" t="n"/>
+      <c r="F19" s="41" t="n"/>
+      <c r="G19" s="41" t="n"/>
+      <c r="H19" s="41" t="n"/>
+      <c r="I19" s="41" t="n"/>
+      <c r="J19" s="41" t="n"/>
+      <c r="K19" s="41" t="n"/>
+      <c r="L19" s="41" t="n"/>
+      <c r="M19" s="41" t="n"/>
+      <c r="N19" s="41" t="n"/>
+      <c r="O19" s="41" t="n"/>
+      <c r="P19" s="41" t="n"/>
+      <c r="Q19" s="41" t="n"/>
+      <c r="R19" s="41" t="n"/>
+      <c r="S19" s="41" t="n"/>
+      <c r="T19" s="41" t="n"/>
+      <c r="U19" s="41" t="n"/>
+      <c r="V19" s="41" t="n"/>
+      <c r="W19" s="41" t="n"/>
+      <c r="X19" s="41" t="n"/>
+      <c r="Y19" s="41" t="n"/>
+      <c r="Z19" s="41" t="n"/>
+      <c r="AA19" s="41" t="n"/>
+      <c r="AB19" s="41" t="n"/>
+      <c r="AC19" s="41" t="n"/>
+      <c r="AD19" s="41" t="n"/>
+      <c r="AE19" s="41" t="n"/>
+      <c r="AF19" s="41" t="n"/>
+      <c r="AG19" s="41" t="n"/>
+      <c r="AH19" s="41" t="n"/>
+      <c r="AI19" s="41" t="n"/>
+      <c r="AJ19" s="41" t="n"/>
+      <c r="AK19" s="41" t="n"/>
+      <c r="AL19" s="41" t="n"/>
+      <c r="AM19" s="41" t="n"/>
+      <c r="AN19" s="41" t="n"/>
+      <c r="AO19" s="41" t="n"/>
+      <c r="AP19" s="41" t="n"/>
+      <c r="AQ19" s="41" t="n"/>
+      <c r="AR19" s="41" t="n"/>
+      <c r="AS19" s="41" t="n"/>
+      <c r="AT19" s="41" t="n"/>
+      <c r="AU19" s="41" t="n"/>
+      <c r="AV19" s="41" t="n"/>
+      <c r="AW19" s="41" t="n"/>
+      <c r="AX19" s="41" t="n"/>
+      <c r="AY19" s="41" t="n"/>
+      <c r="AZ19" s="41" t="n"/>
+      <c r="BA19" s="41" t="n"/>
+      <c r="BB19" s="41" t="n"/>
+      <c r="BC19" s="41" t="n"/>
+      <c r="BD19" s="41" t="n"/>
+      <c r="BE19" s="41" t="n"/>
+      <c r="BF19" s="41" t="n"/>
+      <c r="BG19" s="41" t="n"/>
+      <c r="BH19" s="41" t="n"/>
+      <c r="BI19" s="41" t="n"/>
+      <c r="BJ19" s="41" t="n"/>
+      <c r="BK19" s="41" t="n"/>
+      <c r="BL19" s="41" t="n"/>
+      <c r="BM19" s="41" t="n"/>
+      <c r="BN19" s="41" t="n"/>
+      <c r="BO19" s="41" t="n"/>
+      <c r="BP19" s="41" t="n"/>
+      <c r="BQ19" s="41" t="n"/>
+      <c r="BR19" s="41" t="n"/>
+      <c r="BS19" s="41" t="n"/>
+      <c r="BT19" s="41" t="n"/>
+      <c r="BU19" s="41" t="n"/>
+      <c r="BV19" s="41" t="n"/>
+      <c r="BW19" s="41" t="n"/>
+      <c r="BX19" s="41" t="n"/>
+      <c r="BY19" s="41" t="n"/>
+      <c r="BZ19" s="41" t="n"/>
+      <c r="CA19" s="41" t="n"/>
+      <c r="CB19" s="41" t="n"/>
+      <c r="CC19" s="41" t="n"/>
+      <c r="CD19" s="41" t="n"/>
+      <c r="CE19" s="41" t="n"/>
+      <c r="CF19" s="41" t="n"/>
+      <c r="CG19" s="41" t="n"/>
+      <c r="CH19" s="41" t="n"/>
+      <c r="CI19" s="41" t="n"/>
+      <c r="CJ19" s="43" t="n"/>
+    </row>
+    <row r="20" ht="50.25" customFormat="1" customHeight="1" s="18">
+      <c r="A20" s="89" t="inlineStr">
+        <is>
+          <t>VGRT</t>
+        </is>
+      </c>
+      <c r="B20" s="188" t="inlineStr">
+        <is>
+          <t>8, 88, 99</t>
         </is>
       </c>
       <c r="C20" s="15" t="n"/>
       <c r="D20" s="16" t="n"/>
-      <c r="E20" s="39" t="n"/>
-      <c r="F20" s="39" t="n"/>
-      <c r="G20" s="39" t="n"/>
-      <c r="H20" s="39" t="n"/>
-      <c r="I20" s="39" t="n"/>
-      <c r="J20" s="39" t="n"/>
-      <c r="K20" s="39" t="n"/>
-      <c r="L20" s="39" t="n"/>
-      <c r="M20" s="39" t="n"/>
-      <c r="N20" s="39" t="n"/>
-      <c r="O20" s="39" t="n"/>
-      <c r="P20" s="39" t="n"/>
-      <c r="Q20" s="39" t="n"/>
-      <c r="R20" s="39" t="n"/>
-      <c r="S20" s="39" t="n"/>
-      <c r="T20" s="39" t="n"/>
-      <c r="U20" s="39" t="n"/>
-      <c r="V20" s="39" t="n"/>
-      <c r="W20" s="39" t="n"/>
-      <c r="X20" s="39" t="n"/>
-      <c r="Y20" s="39" t="n"/>
-      <c r="Z20" s="39" t="n"/>
-      <c r="AA20" s="39" t="n"/>
-      <c r="AB20" s="39" t="n"/>
-      <c r="AC20" s="39" t="n"/>
-      <c r="AD20" s="39" t="n"/>
-      <c r="AE20" s="39" t="n"/>
-      <c r="AF20" s="39" t="n"/>
-      <c r="AG20" s="39" t="n"/>
-      <c r="AH20" s="39" t="n"/>
-      <c r="AI20" s="39" t="n"/>
-      <c r="AJ20" s="39" t="n"/>
-      <c r="AK20" s="39" t="n"/>
-      <c r="AL20" s="39" t="n"/>
-      <c r="AM20" s="39" t="n"/>
-      <c r="AN20" s="39" t="n"/>
-      <c r="AO20" s="39" t="n"/>
-      <c r="AP20" s="39" t="n"/>
-      <c r="AQ20" s="39" t="n"/>
-      <c r="AR20" s="39" t="n"/>
-      <c r="AS20" s="39" t="n"/>
-      <c r="AT20" s="39" t="n"/>
-      <c r="AU20" s="39" t="n"/>
-      <c r="AV20" s="39" t="n"/>
-      <c r="AW20" s="39" t="n"/>
-      <c r="AX20" s="39" t="n"/>
-      <c r="AY20" s="39" t="n"/>
-      <c r="AZ20" s="39" t="n"/>
-      <c r="BA20" s="39" t="n"/>
-      <c r="BB20" s="39" t="n"/>
-      <c r="BC20" s="39" t="n"/>
-      <c r="BD20" s="39" t="n"/>
-      <c r="BE20" s="39" t="n"/>
-      <c r="BF20" s="39" t="n"/>
-      <c r="BG20" s="39" t="n"/>
-      <c r="BH20" s="39" t="n"/>
-      <c r="BI20" s="39" t="n"/>
-      <c r="BJ20" s="39" t="n"/>
-      <c r="BK20" s="39" t="n"/>
-      <c r="BL20" s="39" t="n"/>
-      <c r="BM20" s="39" t="n"/>
-      <c r="BN20" s="39" t="n"/>
-      <c r="BO20" s="39" t="n"/>
-      <c r="BP20" s="39" t="n"/>
-      <c r="BQ20" s="39" t="n"/>
-      <c r="BR20" s="39" t="n"/>
-      <c r="BS20" s="39" t="n"/>
-      <c r="BT20" s="39" t="n"/>
-      <c r="BU20" s="39" t="n"/>
-      <c r="BV20" s="39" t="n"/>
-      <c r="BW20" s="39" t="n"/>
-      <c r="BX20" s="39" t="n"/>
-      <c r="BY20" s="39" t="n"/>
-      <c r="BZ20" s="39" t="n"/>
-      <c r="CA20" s="39" t="n"/>
-      <c r="CB20" s="39" t="n"/>
-      <c r="CC20" s="39" t="n"/>
-      <c r="CD20" s="39" t="n"/>
-      <c r="CE20" s="39" t="n"/>
-      <c r="CF20" s="39" t="n"/>
-      <c r="CG20" s="39" t="n"/>
-      <c r="CH20" s="39" t="n"/>
-      <c r="CI20" s="39" t="n"/>
-      <c r="CJ20" s="40" t="n"/>
+      <c r="E20" s="38" t="n"/>
+      <c r="F20" s="38" t="n"/>
+      <c r="G20" s="38" t="n"/>
+      <c r="H20" s="38" t="n"/>
+      <c r="I20" s="38" t="n"/>
+      <c r="J20" s="38" t="n"/>
+      <c r="K20" s="38" t="n"/>
+      <c r="L20" s="38" t="n"/>
+      <c r="M20" s="38" t="n"/>
+      <c r="N20" s="38" t="n"/>
+      <c r="O20" s="38" t="n"/>
+      <c r="P20" s="38" t="n"/>
+      <c r="Q20" s="38" t="n"/>
+      <c r="R20" s="38" t="n"/>
+      <c r="S20" s="38" t="n"/>
+      <c r="T20" s="38" t="n"/>
+      <c r="U20" s="38" t="n"/>
+      <c r="V20" s="38" t="n"/>
+      <c r="W20" s="38" t="n"/>
+      <c r="X20" s="38" t="n"/>
+      <c r="Y20" s="38" t="n"/>
+      <c r="Z20" s="38" t="n"/>
+      <c r="AA20" s="38" t="n"/>
+      <c r="AB20" s="38" t="n"/>
+      <c r="AC20" s="38" t="n"/>
+      <c r="AD20" s="38" t="n"/>
+      <c r="AE20" s="38" t="n"/>
+      <c r="AF20" s="38" t="n"/>
+      <c r="AG20" s="38" t="n"/>
+      <c r="AH20" s="38" t="n"/>
+      <c r="AI20" s="38" t="n"/>
+      <c r="AJ20" s="38" t="n"/>
+      <c r="AK20" s="38" t="n"/>
+      <c r="AL20" s="38" t="n"/>
+      <c r="AM20" s="38" t="n"/>
+      <c r="AN20" s="38" t="n"/>
+      <c r="AO20" s="38" t="n"/>
+      <c r="AP20" s="38" t="n"/>
+      <c r="AQ20" s="38" t="n"/>
+      <c r="AR20" s="38" t="n"/>
+      <c r="AS20" s="38" t="n"/>
+      <c r="AT20" s="38" t="n"/>
+      <c r="AU20" s="38" t="n"/>
+      <c r="AV20" s="38" t="n"/>
+      <c r="AW20" s="38" t="n"/>
+      <c r="AX20" s="38" t="n"/>
+      <c r="AY20" s="38" t="n"/>
+      <c r="AZ20" s="38" t="n"/>
+      <c r="BA20" s="38" t="n"/>
+      <c r="BB20" s="38" t="n"/>
+      <c r="BC20" s="38" t="n"/>
+      <c r="BD20" s="38" t="n"/>
+      <c r="BE20" s="38" t="n"/>
+      <c r="BF20" s="38" t="n"/>
+      <c r="BG20" s="38" t="n"/>
+      <c r="BH20" s="38" t="n"/>
+      <c r="BI20" s="38" t="n"/>
+      <c r="BJ20" s="38" t="n"/>
+      <c r="BK20" s="38" t="n"/>
+      <c r="BL20" s="38" t="n"/>
+      <c r="BM20" s="38" t="n"/>
+      <c r="BN20" s="38" t="n"/>
+      <c r="BO20" s="38" t="n"/>
+      <c r="BP20" s="38" t="n"/>
+      <c r="BQ20" s="38" t="n"/>
+      <c r="BR20" s="38" t="n"/>
+      <c r="BS20" s="38" t="n"/>
+      <c r="BT20" s="38" t="n"/>
+      <c r="BU20" s="38" t="n"/>
+      <c r="BV20" s="38" t="n"/>
+      <c r="BW20" s="38" t="n"/>
+      <c r="BX20" s="38" t="n"/>
+      <c r="BY20" s="38" t="n"/>
+      <c r="BZ20" s="38" t="n"/>
+      <c r="CA20" s="38" t="n"/>
+      <c r="CB20" s="38" t="n"/>
+      <c r="CC20" s="38" t="n"/>
+      <c r="CD20" s="38" t="n"/>
+      <c r="CE20" s="38" t="n"/>
+      <c r="CF20" s="38" t="n"/>
+      <c r="CG20" s="38" t="n"/>
+      <c r="CH20" s="38" t="n"/>
+      <c r="CI20" s="38" t="n"/>
+      <c r="CJ20" s="39" t="n"/>
+    </row>
+    <row r="21" ht="50.25" customHeight="1">
+      <c r="A21" s="191" t="n"/>
+      <c r="B21" s="188" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="50.25" customHeight="1">
+      <c r="A22" s="191" t="n"/>
+      <c r="B22" s="188" t="n"/>
+      <c r="C22" s="9" t="n"/>
+      <c r="D22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="50.25" customHeight="1">
+      <c r="A23" s="191" t="n"/>
+      <c r="B23" s="188" t="n"/>
+      <c r="C23" s="9" t="n"/>
+      <c r="D23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="50.25" customHeight="1">
+      <c r="A24" s="191" t="n"/>
+      <c r="B24" s="188" t="n"/>
+      <c r="C24" s="9" t="n"/>
+      <c r="D24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="50.25" customHeight="1">
+      <c r="A25" s="191" t="n"/>
+      <c r="B25" s="188" t="n"/>
+      <c r="C25" s="9" t="n"/>
+      <c r="D25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="50.25" customHeight="1">
+      <c r="A26" s="192" t="n"/>
+      <c r="B26" s="189" t="n"/>
+      <c r="C26" s="11" t="n"/>
+      <c r="D26" s="190" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5629,20 +5660,20 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="50" zoomScaleNormal="80" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="80" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="47.6640625" customWidth="1" style="32" min="1" max="2"/>
-    <col width="62.83203125" customWidth="1" style="30" min="3" max="3"/>
-    <col width="71.6640625" customWidth="1" style="30" min="4" max="4"/>
-    <col width="9.1640625" customWidth="1" style="30" min="5" max="16384"/>
+    <col width="47.6640625" customWidth="1" style="31" min="1" max="2"/>
+    <col width="62.83203125" customWidth="1" style="29" min="3" max="3"/>
+    <col width="71.6640625" customWidth="1" style="29" min="4" max="4"/>
+    <col width="9.1640625" customWidth="1" style="29" min="5" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="63" customHeight="1">
-      <c r="A1" s="194" t="inlineStr">
+      <c r="A1" s="159" t="inlineStr">
         <is>
           <t>Team Manager Sign In</t>
         </is>
@@ -5654,9 +5685,9 @@
       <c r="I1" s="25" t="n"/>
     </row>
     <row r="2" hidden="1" ht="15.75" customHeight="1">
-      <c r="A2" s="31" t="n"/>
-      <c r="B2" s="31" t="n"/>
-      <c r="C2" s="33" t="inlineStr">
+      <c r="A2" s="30" t="n"/>
+      <c r="B2" s="30" t="n"/>
+      <c r="C2" s="32" t="inlineStr">
         <is>
           <t>March 30-April 2</t>
         </is>
@@ -5669,7 +5700,7 @@
       <c r="I2" s="25" t="n"/>
     </row>
     <row r="3" ht="21" customHeight="1">
-      <c r="A3" s="195" t="n"/>
+      <c r="A3" s="160" t="n"/>
       <c r="E3" s="25" t="n"/>
       <c r="F3" s="25" t="n"/>
       <c r="G3" s="25" t="n"/>
@@ -5677,8 +5708,8 @@
       <c r="I3" s="25" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="31" t="n"/>
-      <c r="B4" s="31" t="n"/>
+      <c r="A4" s="30" t="n"/>
+      <c r="B4" s="30" t="n"/>
       <c r="C4" s="25" t="n"/>
       <c r="D4" s="25" t="n"/>
       <c r="E4" s="25" t="n"/>
@@ -5688,22 +5719,22 @@
       <c r="I4" s="25" t="n"/>
     </row>
     <row r="5" ht="33" customHeight="1" thickBot="1">
-      <c r="A5" s="58" t="inlineStr">
+      <c r="A5" s="57" t="inlineStr">
         <is>
           <t xml:space="preserve">Team </t>
         </is>
       </c>
-      <c r="B5" s="69" t="inlineStr">
+      <c r="B5" s="68" t="inlineStr">
         <is>
           <t>Car #</t>
         </is>
       </c>
-      <c r="C5" s="50" t="inlineStr">
+      <c r="C5" s="49" t="inlineStr">
         <is>
           <t>Team Manager - Print Name</t>
         </is>
       </c>
-      <c r="D5" s="59" t="inlineStr">
+      <c r="D5" s="58" t="inlineStr">
         <is>
           <t>Signature</t>
         </is>
@@ -5715,18 +5746,10 @@
       <c r="I5" s="25" t="n"/>
     </row>
     <row r="6" ht="57.5" customHeight="1" thickTop="1">
-      <c r="A6" s="122" t="inlineStr">
-        <is>
-          <t>BSI Racing</t>
-        </is>
-      </c>
-      <c r="B6" s="128" t="inlineStr">
-        <is>
-          <t>18, 76</t>
-        </is>
-      </c>
-      <c r="C6" s="29" t="n"/>
-      <c r="D6" s="56" t="n"/>
+      <c r="A6" s="103" t="n"/>
+      <c r="B6" s="109" t="n"/>
+      <c r="C6" s="28" t="n"/>
+      <c r="D6" s="55" t="n"/>
       <c r="E6" s="25" t="n"/>
       <c r="F6" s="25" t="n"/>
       <c r="G6" s="25" t="n"/>
@@ -5734,16 +5757,8 @@
       <c r="I6" s="25" t="n"/>
     </row>
     <row r="7" ht="57.5" customHeight="1">
-      <c r="A7" s="124" t="inlineStr">
-        <is>
-          <t>Copeland Motorsports</t>
-        </is>
-      </c>
-      <c r="B7" s="125" t="inlineStr">
-        <is>
-          <t>57, 71, 99</t>
-        </is>
-      </c>
+      <c r="A7" s="105" t="n"/>
+      <c r="B7" s="106" t="n"/>
       <c r="C7" s="24" t="n"/>
       <c r="D7" s="25" t="n"/>
       <c r="E7" s="25" t="n"/>
@@ -5753,18 +5768,10 @@
       <c r="I7" s="25" t="n"/>
     </row>
     <row r="8" ht="57.5" customHeight="1">
-      <c r="A8" s="124" t="inlineStr">
-        <is>
-          <t>Godwin Motorsports</t>
-        </is>
-      </c>
-      <c r="B8" s="126" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="A8" s="105" t="n"/>
+      <c r="B8" s="107" t="n"/>
       <c r="C8" s="24" t="n"/>
-      <c r="D8" s="62" t="n"/>
+      <c r="D8" s="61" t="n"/>
       <c r="E8" s="25" t="n"/>
       <c r="F8" s="25" t="n"/>
       <c r="G8" s="25" t="n"/>
@@ -5772,18 +5779,10 @@
       <c r="I8" s="25" t="n"/>
     </row>
     <row r="9" ht="57.5" customHeight="1">
-      <c r="A9" s="124" t="inlineStr">
-        <is>
-          <t>Lucas Racing</t>
-        </is>
-      </c>
-      <c r="B9" s="127" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
+      <c r="A9" s="105" t="n"/>
+      <c r="B9" s="108" t="n"/>
       <c r="C9" s="24" t="n"/>
-      <c r="D9" s="56" t="n"/>
+      <c r="D9" s="55" t="n"/>
       <c r="E9" s="25" t="n"/>
       <c r="F9" s="25" t="n"/>
       <c r="G9" s="25" t="n"/>
@@ -5791,18 +5790,10 @@
       <c r="I9" s="25" t="n"/>
     </row>
     <row r="10" ht="57.5" customHeight="1">
-      <c r="A10" s="122" t="inlineStr">
-        <is>
-          <t>McCumbee McAleer Racing</t>
-        </is>
-      </c>
-      <c r="B10" s="123" t="inlineStr">
-        <is>
-          <t>27, 28</t>
-        </is>
-      </c>
-      <c r="C10" s="29" t="n"/>
-      <c r="D10" s="56" t="n"/>
+      <c r="A10" s="103" t="n"/>
+      <c r="B10" s="104" t="n"/>
+      <c r="C10" s="28" t="n"/>
+      <c r="D10" s="55" t="n"/>
       <c r="E10" s="25" t="n"/>
       <c r="F10" s="25" t="n"/>
       <c r="G10" s="25" t="n"/>
@@ -5810,18 +5801,10 @@
       <c r="I10" s="25" t="n"/>
     </row>
     <row r="11" ht="57.5" customHeight="1">
-      <c r="A11" s="122" t="inlineStr">
-        <is>
-          <t>Nitro Motorsports</t>
-        </is>
-      </c>
-      <c r="B11" s="123" t="inlineStr">
-        <is>
-          <t>24, 70, 80</t>
-        </is>
-      </c>
-      <c r="C11" s="29" t="n"/>
-      <c r="D11" s="56" t="n"/>
+      <c r="A11" s="103" t="n"/>
+      <c r="B11" s="104" t="n"/>
+      <c r="C11" s="28" t="n"/>
+      <c r="D11" s="55" t="n"/>
       <c r="E11" s="25" t="n"/>
       <c r="F11" s="25" t="n"/>
       <c r="G11" s="25" t="n"/>
@@ -5829,18 +5812,10 @@
       <c r="I11" s="25" t="n"/>
     </row>
     <row r="12" ht="57.5" customHeight="1">
-      <c r="A12" s="122" t="inlineStr">
-        <is>
-          <t>OpenRoad Racing</t>
-        </is>
-      </c>
-      <c r="B12" s="123" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="C12" s="29" t="n"/>
-      <c r="D12" s="56" t="n"/>
+      <c r="A12" s="103" t="n"/>
+      <c r="B12" s="104" t="n"/>
+      <c r="C12" s="28" t="n"/>
+      <c r="D12" s="55" t="n"/>
       <c r="E12" s="25" t="n"/>
       <c r="F12" s="25" t="n"/>
       <c r="G12" s="25" t="n"/>
@@ -5848,18 +5823,10 @@
       <c r="I12" s="25" t="n"/>
     </row>
     <row r="13" ht="57.5" customHeight="1">
-      <c r="A13" s="122" t="inlineStr">
-        <is>
-          <t>PJM / VGRT</t>
-        </is>
-      </c>
-      <c r="B13" s="123" t="inlineStr">
-        <is>
-          <t>10, 44</t>
-        </is>
-      </c>
-      <c r="C13" s="29" t="n"/>
-      <c r="D13" s="56" t="n"/>
+      <c r="A13" s="103" t="n"/>
+      <c r="B13" s="104" t="n"/>
+      <c r="C13" s="28" t="n"/>
+      <c r="D13" s="55" t="n"/>
       <c r="E13" s="25" t="n"/>
       <c r="F13" s="25" t="n"/>
       <c r="G13" s="25" t="n"/>
@@ -5867,18 +5834,10 @@
       <c r="I13" s="25" t="n"/>
     </row>
     <row r="14" ht="57.5" customHeight="1">
-      <c r="A14" s="122" t="inlineStr">
-        <is>
-          <t>Precision Racing LA</t>
-        </is>
-      </c>
-      <c r="B14" s="128" t="inlineStr">
-        <is>
-          <t>2, 37, 73</t>
-        </is>
-      </c>
-      <c r="C14" s="29" t="n"/>
-      <c r="D14" s="56" t="n"/>
+      <c r="A14" s="103" t="n"/>
+      <c r="B14" s="109" t="n"/>
+      <c r="C14" s="28" t="n"/>
+      <c r="D14" s="55" t="n"/>
       <c r="E14" s="25" t="n"/>
       <c r="F14" s="25" t="n"/>
       <c r="G14" s="25" t="n"/>
@@ -5886,16 +5845,10 @@
       <c r="I14" s="25" t="n"/>
     </row>
     <row r="15" ht="57.5" customHeight="1">
-      <c r="A15" s="124" t="inlineStr">
-        <is>
-          <t>Pura Vida Team</t>
-        </is>
-      </c>
-      <c r="B15" s="125" t="n">
-        <v>58</v>
-      </c>
+      <c r="A15" s="105" t="n"/>
+      <c r="B15" s="106" t="n"/>
       <c r="C15" s="24" t="n"/>
-      <c r="D15" s="57" t="n"/>
+      <c r="D15" s="56" t="n"/>
       <c r="E15" s="25" t="n"/>
       <c r="F15" s="25" t="n"/>
       <c r="G15" s="25" t="n"/>
@@ -5903,18 +5856,10 @@
       <c r="I15" s="25" t="n"/>
     </row>
     <row r="16" ht="57.5" customHeight="1">
-      <c r="A16" s="51" t="inlineStr">
-        <is>
-          <t>RVA Graphics Motorsports by Speed Syndicate</t>
-        </is>
-      </c>
-      <c r="B16" s="123" t="inlineStr">
-        <is>
-          <t>11, 31</t>
-        </is>
-      </c>
-      <c r="C16" s="29" t="n"/>
-      <c r="D16" s="56" t="n"/>
+      <c r="A16" s="50" t="n"/>
+      <c r="B16" s="104" t="n"/>
+      <c r="C16" s="28" t="n"/>
+      <c r="D16" s="55" t="n"/>
       <c r="E16" s="25" t="n"/>
       <c r="F16" s="25" t="n"/>
       <c r="G16" s="25" t="n"/>
@@ -5922,16 +5867,10 @@
       <c r="I16" s="25" t="n"/>
     </row>
     <row r="17" ht="57.5" customHeight="1">
-      <c r="A17" s="100" t="inlineStr">
-        <is>
-          <t>Skip Barber Racing School</t>
-        </is>
-      </c>
-      <c r="B17" s="168" t="n">
-        <v>61</v>
-      </c>
+      <c r="A17" s="88" t="n"/>
+      <c r="B17" s="149" t="n"/>
       <c r="C17" s="24" t="n"/>
-      <c r="D17" s="56" t="n"/>
+      <c r="D17" s="55" t="n"/>
       <c r="E17" s="25" t="n"/>
       <c r="F17" s="25" t="n"/>
       <c r="G17" s="25" t="n"/>
@@ -5939,18 +5878,10 @@
       <c r="I17" s="25" t="n"/>
     </row>
     <row r="18" ht="57.5" customHeight="1">
-      <c r="A18" s="122" t="inlineStr">
-        <is>
-          <t>Smooge Racing</t>
-        </is>
-      </c>
-      <c r="B18" s="123" t="inlineStr">
-        <is>
-          <t>8, 66, 67, 68</t>
-        </is>
-      </c>
-      <c r="C18" s="29" t="n"/>
-      <c r="D18" s="56" t="n"/>
+      <c r="A18" s="103" t="n"/>
+      <c r="B18" s="104" t="n"/>
+      <c r="C18" s="28" t="n"/>
+      <c r="D18" s="55" t="n"/>
       <c r="E18" s="25" t="n"/>
       <c r="F18" s="25" t="n"/>
       <c r="G18" s="25" t="n"/>
@@ -5958,18 +5889,10 @@
       <c r="I18" s="25" t="n"/>
     </row>
     <row r="19" ht="57.5" customHeight="1">
-      <c r="A19" s="122" t="inlineStr">
-        <is>
-          <t>TechSport</t>
-        </is>
-      </c>
-      <c r="B19" s="123" t="inlineStr">
-        <is>
-          <t>5, 55</t>
-        </is>
-      </c>
+      <c r="A19" s="103" t="n"/>
+      <c r="B19" s="104" t="n"/>
       <c r="C19" s="24" t="n"/>
-      <c r="D19" s="56" t="n"/>
+      <c r="D19" s="55" t="n"/>
       <c r="E19" s="25" t="n"/>
       <c r="F19" s="25" t="n"/>
       <c r="G19" s="25" t="n"/>
@@ -5977,18 +5900,10 @@
       <c r="I19" s="25" t="n"/>
     </row>
     <row r="20" ht="57.5" customHeight="1">
-      <c r="A20" s="122" t="inlineStr">
-        <is>
-          <t>Tommy McCarthy Racing</t>
-        </is>
-      </c>
-      <c r="B20" s="123" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C20" s="29" t="n"/>
-      <c r="D20" s="56" t="n"/>
+      <c r="A20" s="103" t="n"/>
+      <c r="B20" s="104" t="n"/>
+      <c r="C20" s="28" t="n"/>
+      <c r="D20" s="55" t="n"/>
       <c r="E20" s="25" t="n"/>
       <c r="F20" s="25" t="n"/>
       <c r="G20" s="25" t="n"/>
@@ -5996,18 +5911,10 @@
       <c r="I20" s="25" t="n"/>
     </row>
     <row r="21" ht="57.5" customHeight="1">
-      <c r="A21" s="122" t="inlineStr">
-        <is>
-          <t>VGRT</t>
-        </is>
-      </c>
-      <c r="B21" s="123" t="inlineStr">
-        <is>
-          <t>88, 98</t>
-        </is>
-      </c>
-      <c r="C21" s="70" t="n"/>
-      <c r="D21" s="56" t="n"/>
+      <c r="A21" s="103" t="n"/>
+      <c r="B21" s="104" t="n"/>
+      <c r="C21" s="69" t="n"/>
+      <c r="D21" s="55" t="n"/>
       <c r="E21" s="25" t="n"/>
       <c r="F21" s="25" t="n"/>
       <c r="G21" s="25" t="n"/>
@@ -6015,18 +5922,10 @@
       <c r="I21" s="25" t="n"/>
     </row>
     <row r="22" ht="57.5" customHeight="1">
-      <c r="A22" s="129" t="inlineStr">
-        <is>
-          <t>Zotz Racing</t>
-        </is>
-      </c>
-      <c r="B22" s="130" t="inlineStr">
-        <is>
-          <t>7, 30</t>
-        </is>
-      </c>
-      <c r="C22" s="71" t="n"/>
-      <c r="D22" s="60" t="n"/>
+      <c r="A22" s="110" t="n"/>
+      <c r="B22" s="111" t="n"/>
+      <c r="C22" s="70" t="n"/>
+      <c r="D22" s="59" t="n"/>
       <c r="E22" s="25" t="n"/>
       <c r="F22" s="25" t="n"/>
       <c r="G22" s="25" t="n"/>
@@ -6034,14 +5933,14 @@
       <c r="I22" s="25" t="n"/>
     </row>
     <row r="23" ht="27" customHeight="1">
-      <c r="A23" s="31" t="n"/>
-      <c r="B23" s="31" t="n"/>
+      <c r="A23" s="30" t="n"/>
+      <c r="B23" s="30" t="n"/>
       <c r="C23" s="25" t="n"/>
       <c r="D23" s="25" t="n"/>
     </row>
     <row r="24" ht="27" customHeight="1">
-      <c r="A24" s="31" t="n"/>
-      <c r="B24" s="31" t="n"/>
+      <c r="A24" s="30" t="n"/>
+      <c r="B24" s="30" t="n"/>
       <c r="C24" s="25" t="n"/>
       <c r="D24" s="25" t="n"/>
     </row>
@@ -6079,365 +5978,365 @@
   </cols>
   <sheetData>
     <row r="1" ht="92" customHeight="1">
-      <c r="B1" s="67" t="inlineStr">
+      <c r="B1" s="66" t="inlineStr">
         <is>
           <t>Event Logistics Briefing</t>
         </is>
       </c>
     </row>
     <row r="2" ht="5" customHeight="1">
-      <c r="B2" s="67" t="n"/>
+      <c r="B2" s="66" t="n"/>
     </row>
     <row r="3" ht="14" customHeight="1">
-      <c r="B3" s="67" t="n"/>
+      <c r="B3" s="66" t="n"/>
     </row>
     <row r="4" hidden="1" ht="10" customHeight="1">
-      <c r="B4" s="67" t="n"/>
+      <c r="B4" s="66" t="n"/>
     </row>
     <row r="5" hidden="1" ht="1" customHeight="1">
-      <c r="B5" s="67" t="n"/>
+      <c r="B5" s="66" t="n"/>
     </row>
     <row r="6" ht="8" customHeight="1"/>
     <row r="7" ht="21" customHeight="1" thickBot="1">
-      <c r="A7" s="58" t="inlineStr">
+      <c r="A7" s="57" t="inlineStr">
         <is>
           <t xml:space="preserve">Team </t>
         </is>
       </c>
-      <c r="B7" s="50" t="inlineStr">
+      <c r="B7" s="49" t="inlineStr">
         <is>
           <t>Print Name</t>
         </is>
       </c>
-      <c r="C7" s="59" t="inlineStr">
+      <c r="C7" s="58" t="inlineStr">
         <is>
           <t>Signature</t>
         </is>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" thickTop="1">
-      <c r="A8" s="140" t="n"/>
-      <c r="B8" s="61" t="n"/>
-      <c r="C8" s="56" t="n"/>
+      <c r="A8" s="121" t="n"/>
+      <c r="B8" s="60" t="n"/>
+      <c r="C8" s="55" t="n"/>
     </row>
     <row r="9" ht="40" customHeight="1">
-      <c r="A9" s="138" t="n"/>
-      <c r="B9" s="61" t="n"/>
-      <c r="C9" s="56" t="n"/>
+      <c r="A9" s="119" t="n"/>
+      <c r="B9" s="60" t="n"/>
+      <c r="C9" s="55" t="n"/>
     </row>
     <row r="10" ht="40" customHeight="1">
-      <c r="A10" s="142" t="n"/>
-      <c r="B10" s="61" t="n"/>
-      <c r="C10" s="56" t="n"/>
+      <c r="A10" s="123" t="n"/>
+      <c r="B10" s="60" t="n"/>
+      <c r="C10" s="55" t="n"/>
     </row>
     <row r="11" ht="40" customHeight="1">
-      <c r="A11" s="154" t="n"/>
-      <c r="B11" s="61" t="n"/>
-      <c r="C11" s="56" t="n"/>
+      <c r="A11" s="135" t="n"/>
+      <c r="B11" s="60" t="n"/>
+      <c r="C11" s="55" t="n"/>
     </row>
     <row r="12" ht="40" customHeight="1">
-      <c r="A12" s="148" t="n"/>
-      <c r="B12" s="61" t="n"/>
-      <c r="C12" s="56" t="n"/>
+      <c r="A12" s="129" t="n"/>
+      <c r="B12" s="60" t="n"/>
+      <c r="C12" s="55" t="n"/>
     </row>
     <row r="13" ht="40" customHeight="1">
-      <c r="A13" s="140" t="n"/>
-      <c r="B13" s="61" t="n"/>
-      <c r="C13" s="56" t="n"/>
+      <c r="A13" s="121" t="n"/>
+      <c r="B13" s="60" t="n"/>
+      <c r="C13" s="55" t="n"/>
     </row>
     <row r="14" ht="40" customHeight="1">
-      <c r="A14" s="141" t="n"/>
-      <c r="B14" s="61" t="n"/>
-      <c r="C14" s="56" t="n"/>
+      <c r="A14" s="122" t="n"/>
+      <c r="B14" s="60" t="n"/>
+      <c r="C14" s="55" t="n"/>
     </row>
     <row r="15" ht="40" customHeight="1">
-      <c r="A15" s="139" t="n"/>
-      <c r="B15" s="61" t="n"/>
-      <c r="C15" s="56" t="n"/>
+      <c r="A15" s="120" t="n"/>
+      <c r="B15" s="60" t="n"/>
+      <c r="C15" s="55" t="n"/>
     </row>
     <row r="16" ht="40" customHeight="1">
-      <c r="A16" s="140" t="n"/>
-      <c r="B16" s="61" t="n"/>
-      <c r="C16" s="60" t="n"/>
+      <c r="A16" s="121" t="n"/>
+      <c r="B16" s="60" t="n"/>
+      <c r="C16" s="59" t="n"/>
     </row>
     <row r="17" ht="40" customHeight="1">
-      <c r="A17" s="52" t="n"/>
-      <c r="B17" s="64" t="n"/>
-      <c r="C17" s="56" t="n"/>
+      <c r="A17" s="51" t="n"/>
+      <c r="B17" s="63" t="n"/>
+      <c r="C17" s="55" t="n"/>
     </row>
     <row r="18" ht="40" customHeight="1">
-      <c r="A18" s="164" t="n"/>
-      <c r="B18" s="65" t="n"/>
-      <c r="C18" s="56" t="n"/>
+      <c r="A18" s="145" t="n"/>
+      <c r="B18" s="64" t="n"/>
+      <c r="C18" s="55" t="n"/>
     </row>
     <row r="19" ht="40" customHeight="1">
-      <c r="A19" s="142" t="n"/>
-      <c r="B19" s="64" t="n"/>
-      <c r="C19" s="56" t="n"/>
+      <c r="A19" s="123" t="n"/>
+      <c r="B19" s="63" t="n"/>
+      <c r="C19" s="55" t="n"/>
     </row>
     <row r="20" ht="40" customHeight="1">
-      <c r="A20" s="158" t="n"/>
-      <c r="B20" s="65" t="n"/>
-      <c r="C20" s="56" t="n"/>
+      <c r="A20" s="139" t="n"/>
+      <c r="B20" s="64" t="n"/>
+      <c r="C20" s="55" t="n"/>
     </row>
     <row r="21" ht="40" customHeight="1">
-      <c r="A21" s="141" t="n"/>
-      <c r="B21" s="64" t="n"/>
-      <c r="C21" s="56" t="n"/>
+      <c r="A21" s="122" t="n"/>
+      <c r="B21" s="63" t="n"/>
+      <c r="C21" s="55" t="n"/>
     </row>
     <row r="22" ht="40" customHeight="1">
-      <c r="A22" s="142" t="n"/>
-      <c r="B22" s="64" t="n"/>
-      <c r="C22" s="56" t="n"/>
+      <c r="A22" s="123" t="n"/>
+      <c r="B22" s="63" t="n"/>
+      <c r="C22" s="55" t="n"/>
     </row>
     <row r="23" ht="40" customHeight="1">
-      <c r="A23" s="144" t="n"/>
-      <c r="B23" s="64" t="n"/>
-      <c r="C23" s="56" t="n"/>
+      <c r="A23" s="125" t="n"/>
+      <c r="B23" s="63" t="n"/>
+      <c r="C23" s="55" t="n"/>
     </row>
     <row r="24" ht="40" customHeight="1">
-      <c r="A24" s="142" t="n"/>
-      <c r="B24" s="64" t="n"/>
-      <c r="C24" s="56" t="n"/>
+      <c r="A24" s="123" t="n"/>
+      <c r="B24" s="63" t="n"/>
+      <c r="C24" s="55" t="n"/>
     </row>
     <row r="25" ht="40" customHeight="1">
-      <c r="A25" s="142" t="n"/>
-      <c r="B25" s="64" t="n"/>
-      <c r="C25" s="56" t="n"/>
+      <c r="A25" s="123" t="n"/>
+      <c r="B25" s="63" t="n"/>
+      <c r="C25" s="55" t="n"/>
     </row>
     <row r="26" ht="40" customHeight="1">
-      <c r="A26" s="141" t="n"/>
-      <c r="B26" s="64" t="n"/>
-      <c r="C26" s="56" t="n"/>
+      <c r="A26" s="122" t="n"/>
+      <c r="B26" s="63" t="n"/>
+      <c r="C26" s="55" t="n"/>
     </row>
     <row r="27" ht="40" customHeight="1">
-      <c r="A27" s="166" t="n"/>
-      <c r="B27" s="64" t="n"/>
-      <c r="C27" s="56" t="n"/>
+      <c r="A27" s="147" t="n"/>
+      <c r="B27" s="63" t="n"/>
+      <c r="C27" s="55" t="n"/>
     </row>
     <row r="28" ht="40" customHeight="1">
-      <c r="A28" s="100" t="n"/>
-      <c r="B28" s="64" t="n"/>
-      <c r="C28" s="56" t="n"/>
+      <c r="A28" s="88" t="n"/>
+      <c r="B28" s="63" t="n"/>
+      <c r="C28" s="55" t="n"/>
     </row>
     <row r="29" ht="40" customHeight="1">
-      <c r="A29" s="157" t="n"/>
-      <c r="B29" s="64" t="n"/>
-      <c r="C29" s="56" t="n"/>
+      <c r="A29" s="138" t="n"/>
+      <c r="B29" s="63" t="n"/>
+      <c r="C29" s="55" t="n"/>
     </row>
     <row r="30" ht="40" customHeight="1">
-      <c r="A30" s="141" t="n"/>
-      <c r="B30" s="64" t="n"/>
-      <c r="C30" s="56" t="n"/>
+      <c r="A30" s="122" t="n"/>
+      <c r="B30" s="63" t="n"/>
+      <c r="C30" s="55" t="n"/>
     </row>
     <row r="31" ht="40" customHeight="1">
-      <c r="A31" s="150" t="n"/>
-      <c r="B31" s="64" t="n"/>
-      <c r="C31" s="56" t="n"/>
+      <c r="A31" s="131" t="n"/>
+      <c r="B31" s="63" t="n"/>
+      <c r="C31" s="55" t="n"/>
     </row>
     <row r="32" ht="40" customHeight="1">
-      <c r="A32" s="144" t="n"/>
-      <c r="B32" s="64" t="n"/>
-      <c r="C32" s="56" t="n"/>
+      <c r="A32" s="125" t="n"/>
+      <c r="B32" s="63" t="n"/>
+      <c r="C32" s="55" t="n"/>
     </row>
     <row r="33" ht="40" customHeight="1">
-      <c r="A33" s="140" t="n"/>
-      <c r="B33" s="64" t="n"/>
-      <c r="C33" s="56" t="n"/>
+      <c r="A33" s="121" t="n"/>
+      <c r="B33" s="63" t="n"/>
+      <c r="C33" s="55" t="n"/>
     </row>
     <row r="34" ht="40" customHeight="1">
-      <c r="A34" s="142" t="n"/>
-      <c r="B34" s="64" t="n"/>
-      <c r="C34" s="56" t="n"/>
+      <c r="A34" s="123" t="n"/>
+      <c r="B34" s="63" t="n"/>
+      <c r="C34" s="55" t="n"/>
     </row>
     <row r="35" ht="40" customHeight="1">
-      <c r="A35" s="143" t="n"/>
-      <c r="B35" s="64" t="n"/>
-      <c r="C35" s="56" t="n"/>
+      <c r="A35" s="124" t="n"/>
+      <c r="B35" s="63" t="n"/>
+      <c r="C35" s="55" t="n"/>
     </row>
     <row r="36" ht="40" customHeight="1">
-      <c r="A36" s="157" t="n"/>
-      <c r="B36" s="64" t="n"/>
-      <c r="C36" s="56" t="n"/>
+      <c r="A36" s="138" t="n"/>
+      <c r="B36" s="63" t="n"/>
+      <c r="C36" s="55" t="n"/>
     </row>
     <row r="37" ht="40" customHeight="1">
-      <c r="A37" s="141" t="n"/>
-      <c r="B37" s="64" t="n"/>
-      <c r="C37" s="56" t="n"/>
+      <c r="A37" s="122" t="n"/>
+      <c r="B37" s="63" t="n"/>
+      <c r="C37" s="55" t="n"/>
     </row>
     <row r="38" ht="40" customHeight="1">
-      <c r="A38" s="159" t="n"/>
-      <c r="B38" s="64" t="n"/>
-      <c r="C38" s="56" t="n"/>
+      <c r="A38" s="140" t="n"/>
+      <c r="B38" s="63" t="n"/>
+      <c r="C38" s="55" t="n"/>
     </row>
     <row r="39" ht="40" customHeight="1">
-      <c r="A39" s="142" t="n"/>
-      <c r="B39" s="64" t="n"/>
-      <c r="C39" s="56" t="n"/>
+      <c r="A39" s="123" t="n"/>
+      <c r="B39" s="63" t="n"/>
+      <c r="C39" s="55" t="n"/>
     </row>
     <row r="40" ht="40" customHeight="1">
-      <c r="A40" s="140" t="n"/>
-      <c r="B40" s="66" t="n"/>
-      <c r="C40" s="56" t="n"/>
+      <c r="A40" s="121" t="n"/>
+      <c r="B40" s="65" t="n"/>
+      <c r="C40" s="55" t="n"/>
     </row>
     <row r="41" ht="40" customHeight="1">
-      <c r="A41" s="138" t="n"/>
-      <c r="B41" s="64" t="n"/>
-      <c r="C41" s="56" t="n"/>
+      <c r="A41" s="119" t="n"/>
+      <c r="B41" s="63" t="n"/>
+      <c r="C41" s="55" t="n"/>
     </row>
     <row r="42" ht="40" customHeight="1">
-      <c r="A42" s="138" t="n"/>
-      <c r="B42" s="64" t="n"/>
-      <c r="C42" s="56" t="n"/>
+      <c r="A42" s="119" t="n"/>
+      <c r="B42" s="63" t="n"/>
+      <c r="C42" s="55" t="n"/>
     </row>
     <row r="43" ht="40" customHeight="1">
-      <c r="A43" s="149" t="n"/>
-      <c r="B43" s="64" t="n"/>
-      <c r="C43" s="56" t="n"/>
-    </row>
-    <row r="44" ht="40" customFormat="1" customHeight="1" s="162">
-      <c r="A44" s="63" t="n"/>
-      <c r="B44" s="160" t="n"/>
-      <c r="C44" s="161" t="n"/>
+      <c r="A43" s="130" t="n"/>
+      <c r="B43" s="63" t="n"/>
+      <c r="C43" s="55" t="n"/>
+    </row>
+    <row r="44" ht="40" customFormat="1" customHeight="1" s="143">
+      <c r="A44" s="62" t="n"/>
+      <c r="B44" s="141" t="n"/>
+      <c r="C44" s="142" t="n"/>
     </row>
     <row r="45" ht="40" customHeight="1">
-      <c r="A45" s="138" t="n"/>
-      <c r="B45" s="64" t="n"/>
-      <c r="C45" s="56" t="n"/>
+      <c r="A45" s="119" t="n"/>
+      <c r="B45" s="63" t="n"/>
+      <c r="C45" s="55" t="n"/>
     </row>
     <row r="46" ht="40" customHeight="1">
-      <c r="A46" s="138" t="n"/>
-      <c r="B46" s="64" t="n"/>
-      <c r="C46" s="56" t="n"/>
+      <c r="A46" s="119" t="n"/>
+      <c r="B46" s="63" t="n"/>
+      <c r="C46" s="55" t="n"/>
     </row>
     <row r="47" ht="40" customHeight="1">
-      <c r="A47" s="138" t="n"/>
-      <c r="B47" s="64" t="n"/>
-      <c r="C47" s="56" t="n"/>
+      <c r="A47" s="119" t="n"/>
+      <c r="B47" s="63" t="n"/>
+      <c r="C47" s="55" t="n"/>
     </row>
     <row r="48" ht="40" customHeight="1">
-      <c r="A48" s="141" t="n"/>
-      <c r="B48" s="64" t="n"/>
-      <c r="C48" s="56" t="n"/>
+      <c r="A48" s="122" t="n"/>
+      <c r="B48" s="63" t="n"/>
+      <c r="C48" s="55" t="n"/>
     </row>
     <row r="49" ht="40" customHeight="1">
-      <c r="A49" s="117" t="n"/>
-      <c r="B49" s="64" t="n"/>
-      <c r="C49" s="56" t="n"/>
+      <c r="A49" s="188" t="n"/>
+      <c r="B49" s="63" t="n"/>
+      <c r="C49" s="55" t="n"/>
     </row>
     <row r="50" ht="40" customHeight="1">
-      <c r="A50" s="151" t="n"/>
-      <c r="B50" s="64" t="n"/>
-      <c r="C50" s="56" t="n"/>
+      <c r="A50" s="132" t="n"/>
+      <c r="B50" s="63" t="n"/>
+      <c r="C50" s="55" t="n"/>
     </row>
     <row r="51" ht="40" customHeight="1">
-      <c r="A51" s="142" t="n"/>
-      <c r="B51" s="28" t="n"/>
-      <c r="C51" s="57" t="n"/>
+      <c r="A51" s="123" t="n"/>
+      <c r="B51" s="27" t="n"/>
+      <c r="C51" s="56" t="n"/>
     </row>
     <row r="52" ht="40" customHeight="1">
-      <c r="A52" s="145" t="n"/>
-      <c r="B52" s="64" t="n"/>
-      <c r="C52" s="56" t="n"/>
+      <c r="A52" s="126" t="n"/>
+      <c r="B52" s="63" t="n"/>
+      <c r="C52" s="55" t="n"/>
     </row>
     <row r="53" ht="40" customHeight="1">
-      <c r="A53" s="152" t="n"/>
-      <c r="B53" s="64" t="n"/>
-      <c r="C53" s="56" t="n"/>
+      <c r="A53" s="133" t="n"/>
+      <c r="B53" s="63" t="n"/>
+      <c r="C53" s="55" t="n"/>
     </row>
     <row r="54" ht="40" customHeight="1">
-      <c r="A54" s="142" t="n"/>
-      <c r="B54" s="65" t="n"/>
-      <c r="C54" s="56" t="n"/>
+      <c r="A54" s="123" t="n"/>
+      <c r="B54" s="64" t="n"/>
+      <c r="C54" s="55" t="n"/>
     </row>
     <row r="55" ht="40" customHeight="1">
-      <c r="A55" s="138" t="n"/>
-      <c r="B55" s="64" t="n"/>
-      <c r="C55" s="56" t="n"/>
+      <c r="A55" s="119" t="n"/>
+      <c r="B55" s="63" t="n"/>
+      <c r="C55" s="55" t="n"/>
     </row>
     <row r="56" ht="40" customHeight="1">
-      <c r="A56" s="153" t="n"/>
-      <c r="B56" s="64" t="n"/>
-      <c r="C56" s="56" t="n"/>
+      <c r="A56" s="134" t="n"/>
+      <c r="B56" s="63" t="n"/>
+      <c r="C56" s="55" t="n"/>
     </row>
     <row r="57" ht="40" customHeight="1">
-      <c r="A57" s="163" t="n"/>
-      <c r="B57" s="64" t="n"/>
-      <c r="C57" s="56" t="n"/>
+      <c r="A57" s="144" t="n"/>
+      <c r="B57" s="63" t="n"/>
+      <c r="C57" s="55" t="n"/>
     </row>
     <row r="58" ht="40" customHeight="1">
-      <c r="A58" s="142" t="n"/>
-      <c r="B58" s="64" t="n"/>
-      <c r="C58" s="56" t="n"/>
+      <c r="A58" s="123" t="n"/>
+      <c r="B58" s="63" t="n"/>
+      <c r="C58" s="55" t="n"/>
     </row>
     <row r="59" ht="40" customHeight="1">
-      <c r="A59" s="101" t="n"/>
-      <c r="B59" s="64" t="n"/>
-      <c r="C59" s="56" t="n"/>
+      <c r="A59" s="89" t="n"/>
+      <c r="B59" s="63" t="n"/>
+      <c r="C59" s="55" t="n"/>
     </row>
     <row r="60" ht="40" customHeight="1">
-      <c r="A60" s="145" t="n"/>
-      <c r="B60" s="29" t="n"/>
-      <c r="C60" s="56" t="n"/>
+      <c r="A60" s="126" t="n"/>
+      <c r="B60" s="28" t="n"/>
+      <c r="C60" s="55" t="n"/>
     </row>
     <row r="61" ht="40" customHeight="1">
-      <c r="A61" s="154" t="n"/>
-      <c r="B61" s="61" t="n"/>
-      <c r="C61" s="56" t="n"/>
+      <c r="A61" s="135" t="n"/>
+      <c r="B61" s="60" t="n"/>
+      <c r="C61" s="55" t="n"/>
     </row>
     <row r="62" ht="40" customHeight="1">
-      <c r="A62" s="155" t="n"/>
-      <c r="B62" s="61" t="n"/>
-      <c r="C62" s="56" t="n"/>
+      <c r="A62" s="136" t="n"/>
+      <c r="B62" s="60" t="n"/>
+      <c r="C62" s="55" t="n"/>
     </row>
     <row r="63" ht="40" customHeight="1">
-      <c r="A63" s="155" t="n"/>
-      <c r="B63" s="61" t="n"/>
-      <c r="C63" s="56" t="n"/>
+      <c r="A63" s="136" t="n"/>
+      <c r="B63" s="60" t="n"/>
+      <c r="C63" s="55" t="n"/>
     </row>
     <row r="64" ht="40" customHeight="1">
-      <c r="A64" s="156" t="n"/>
-      <c r="B64" s="61" t="n"/>
-      <c r="C64" s="56" t="n"/>
+      <c r="A64" s="137" t="n"/>
+      <c r="B64" s="60" t="n"/>
+      <c r="C64" s="55" t="n"/>
     </row>
     <row r="65" ht="40" customHeight="1">
-      <c r="A65" s="139" t="n"/>
-      <c r="B65" s="61" t="n"/>
-      <c r="C65" s="60" t="n"/>
+      <c r="A65" s="120" t="n"/>
+      <c r="B65" s="60" t="n"/>
+      <c r="C65" s="59" t="n"/>
     </row>
     <row r="66" ht="40" customHeight="1">
-      <c r="A66" s="145" t="n"/>
-      <c r="B66" s="61" t="n"/>
-      <c r="C66" s="56" t="n"/>
+      <c r="A66" s="126" t="n"/>
+      <c r="B66" s="60" t="n"/>
+      <c r="C66" s="55" t="n"/>
     </row>
     <row r="67" ht="40" customHeight="1">
-      <c r="A67" s="145" t="n"/>
-      <c r="B67" s="61" t="n"/>
-      <c r="C67" s="56" t="n"/>
+      <c r="A67" s="126" t="n"/>
+      <c r="B67" s="60" t="n"/>
+      <c r="C67" s="55" t="n"/>
     </row>
     <row r="68" ht="40" customHeight="1">
-      <c r="A68" s="157" t="n"/>
-      <c r="B68" s="61" t="n"/>
-      <c r="C68" s="56" t="n"/>
+      <c r="A68" s="138" t="n"/>
+      <c r="B68" s="60" t="n"/>
+      <c r="C68" s="55" t="n"/>
     </row>
     <row r="69" ht="40" customHeight="1">
-      <c r="A69" s="145" t="n"/>
-      <c r="B69" s="61" t="n"/>
-      <c r="C69" s="56" t="n"/>
+      <c r="A69" s="126" t="n"/>
+      <c r="B69" s="60" t="n"/>
+      <c r="C69" s="55" t="n"/>
     </row>
     <row r="70" ht="40" customHeight="1">
-      <c r="A70" s="157" t="n"/>
-      <c r="B70" s="61" t="n"/>
-      <c r="C70" s="56" t="n"/>
+      <c r="A70" s="138" t="n"/>
+      <c r="B70" s="60" t="n"/>
+      <c r="C70" s="55" t="n"/>
     </row>
     <row r="71" ht="40" customHeight="1">
-      <c r="A71" s="146" t="n"/>
-      <c r="B71" s="61" t="n"/>
-      <c r="C71" s="56" t="n"/>
+      <c r="A71" s="127" t="n"/>
+      <c r="B71" s="60" t="n"/>
+      <c r="C71" s="55" t="n"/>
     </row>
     <row r="72" ht="40" customHeight="1">
-      <c r="A72" s="147" t="n"/>
-      <c r="C72" s="56" t="n"/>
+      <c r="A72" s="128" t="n"/>
+      <c r="C72" s="55" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
